--- a/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="29580" windowHeight="19660" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="760" windowWidth="33120" windowHeight="19360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑2" sheetId="1" r:id="rId1"/>
     <sheet name="表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑2!$A$14:$AR$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑2!$A$14:$AR$82</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="330">
   <si>
     <t>背包</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -697,18 +697,9 @@
     <t>副本</t>
   </si>
   <si>
-    <t>道具系统-服务器端装备</t>
-  </si>
-  <si>
-    <t>道具系统-服务器道具消耗和奖励</t>
-  </si>
-  <si>
     <t>道具系统-服务器宝箱</t>
   </si>
   <si>
-    <t>道具系统-服务端基础结构和配置</t>
-  </si>
-  <si>
     <t>√</t>
   </si>
   <si>
@@ -732,18 +723,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>day3,封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>day1,封文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>day2,封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QA测试</t>
   </si>
   <si>
@@ -797,10 +780,6 @@
   <si>
     <t>三方前</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
@@ -843,14 +822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档提前改完，直接三方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接三方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1119,10 +1090,6 @@
   <si>
     <t>版本结点广播</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局功能完善（除了投喂），达到见玩家的程度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>里程碑2目标</t>
@@ -1403,6 +1370,71 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统-服务端基础结构和配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议确定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局功能完善（除了投喂），达到见玩家的程度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器、客户端联调</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统-服务器道具消耗和奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统-服务器端装备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2,三方前</t>
+    <rPh sb="5" eb="6">
+      <t>san'fang'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方前</t>
+    <rPh sb="0" eb="1">
+      <t>san'fang'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3，三方前</t>
+    <rPh sb="5" eb="6">
+      <t>san'fang'qian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1469,38 +1501,44 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1578,7 +1616,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="140">
+  <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1721,8 +1759,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1797,9 +1837,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1814,9 +1851,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1869,8 +1903,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="140">
+  <cellStyles count="142">
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -1940,6 +1983,7 @@
     <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -2011,8 +2055,9 @@
     <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -2091,7 +2136,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2437,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR80"/>
+  <dimension ref="A1:AR82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2471,14 +2544,14 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="51"/>
+        <v>300</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="49"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -2486,22 +2559,22 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="51"/>
+        <v>321</v>
+      </c>
+      <c r="F3" s="49"/>
       <c r="G3" s="4" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="I3" s="51"/>
+        <v>312</v>
+      </c>
+      <c r="I3" s="49"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2509,22 +2582,22 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F4" s="51"/>
+        <v>282</v>
+      </c>
+      <c r="F4" s="49"/>
       <c r="G4" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="I4" s="51"/>
+        <v>313</v>
+      </c>
+      <c r="I4" s="49"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
@@ -2533,19 +2606,19 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F5" s="51"/>
+        <v>285</v>
+      </c>
+      <c r="F5" s="49"/>
       <c r="G5" s="4" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I5" s="51"/>
+        <v>302</v>
+      </c>
+      <c r="I5" s="49"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
@@ -2554,19 +2627,19 @@
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="51"/>
+        <v>278</v>
+      </c>
+      <c r="F6" s="49"/>
       <c r="G6" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="I6" s="51"/>
+        <v>314</v>
+      </c>
+      <c r="I6" s="49"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
@@ -2575,17 +2648,17 @@
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -2596,14 +2669,14 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -2614,14 +2687,14 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -2631,10 +2704,10 @@
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F10" s="7"/>
       <c r="P10" s="7"/>
@@ -2644,13 +2717,13 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F11" s="8"/>
       <c r="P11" s="8"/>
@@ -2839,23 +2912,23 @@
         <v>1</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="9"/>
@@ -2893,186 +2966,134 @@
         <v>2</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="19">
+        <v>110</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" s="21">
         <v>1</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" s="19">
-        <f>N16*0.2</f>
-        <v>0.1</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19">
-        <v>2</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="V16" s="19">
-        <v>2</v>
-      </c>
-      <c r="W16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AC16" s="19">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
+      <c r="F16" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="24"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>3</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="19">
+        <v>110</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="21">
         <v>1</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" s="19">
-        <f>N17*0.2</f>
-        <v>0.1</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19">
-        <v>3</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="V17" s="19">
-        <v>2</v>
-      </c>
-      <c r="W17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AC17" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
+      <c r="F17" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="24"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>4</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>48</v>
+      <c r="C18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="E18" s="19">
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -3081,7 +3102,7 @@
       <c r="N18" s="19">
         <v>0.5</v>
       </c>
-      <c r="O18" s="29" t="s">
+      <c r="O18" s="26" t="s">
         <v>38</v>
       </c>
       <c r="P18" s="19">
@@ -3094,28 +3115,32 @@
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="19">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="U18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="V18" s="19">
+        <v>2</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="19">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AC18" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="19" t="s">
         <v>41</v>
       </c>
       <c r="AE18" s="20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
@@ -3129,14 +3154,14 @@
       <c r="A19" s="18">
         <v>5</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>207</v>
+      <c r="C19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
@@ -3146,51 +3171,53 @@
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19" t="s">
-        <v>184</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="19"/>
       <c r="L19" s="19"/>
-      <c r="M19" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="29" t="s">
+      <c r="M19" s="19"/>
+      <c r="N19" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>50</v>
+      <c r="P19" s="19">
+        <f>N19*0.2</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>0.5</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
-      <c r="T19" s="31">
-        <v>6</v>
+      <c r="T19" s="19">
+        <v>3</v>
       </c>
       <c r="U19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
+      <c r="V19" s="19">
+        <v>2</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
-      <c r="AB19" s="19" t="s">
-        <v>50</v>
+      <c r="AB19" s="19">
+        <v>0.5</v>
       </c>
       <c r="AC19" s="19">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AD19" s="19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
@@ -3212,7 +3239,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
@@ -3222,41 +3249,54 @@
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>184</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
+      <c r="N20" s="19">
+        <v>0.5</v>
+      </c>
       <c r="O20" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19">
-        <v>2</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="P20" s="19">
+        <f>N20*0.2</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="19"/>
       <c r="S20" s="19"/>
-      <c r="T20" s="31">
-        <f>2+8*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="U20" s="19"/>
+      <c r="T20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="U20" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
+      <c r="AB20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AC20" s="19">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE20" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
@@ -3276,7 +3316,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="E21" s="19">
         <v>1</v>
@@ -3286,22 +3326,20 @@
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>178</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="19">
-        <v>2</v>
-      </c>
-      <c r="O21" s="26" t="s">
-        <v>59</v>
+      <c r="N21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="P21" s="19" t="s">
         <v>50</v>
@@ -3311,17 +3349,15 @@
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
-      <c r="T21" s="31">
+      <c r="T21" s="30">
         <v>6</v>
       </c>
       <c r="U21" s="19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
-      <c r="X21" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
       <c r="AA21" s="19"/>
@@ -3329,7 +3365,7 @@
         <v>50</v>
       </c>
       <c r="AC21" s="19">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="AD21" s="19" t="s">
         <v>51</v>
@@ -3348,13 +3384,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E22" s="19">
         <v>1</v>
@@ -3364,54 +3400,40 @@
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="I22" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="J22" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="R22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19">
+        <v>2</v>
+      </c>
       <c r="S22" s="19"/>
-      <c r="T22" s="19">
-        <v>2</v>
-      </c>
-      <c r="U22" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="T22" s="30">
+        <f>2+8*0.5</f>
+        <v>6</v>
+      </c>
+      <c r="U22" s="19"/>
       <c r="V22" s="19"/>
       <c r="W22" s="19"/>
       <c r="X22" s="19"/>
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
-      <c r="AB22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC22" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AD22" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
@@ -3432,7 +3454,7 @@
         <v>47</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E23" s="19">
         <v>1</v>
@@ -3445,18 +3467,16 @@
         <v>117</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="L23" s="19"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="19" t="s">
-        <v>50</v>
+      <c r="N23" s="19">
+        <v>2</v>
       </c>
       <c r="O23" s="26" t="s">
         <v>59</v>
@@ -3469,7 +3489,7 @@
       </c>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
-      <c r="T23" s="31">
+      <c r="T23" s="30">
         <v>6</v>
       </c>
       <c r="U23" s="19" t="s">
@@ -3477,7 +3497,9 @@
       </c>
       <c r="V23" s="19"/>
       <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
+      <c r="X23" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
@@ -3485,7 +3507,7 @@
         <v>50</v>
       </c>
       <c r="AC23" s="19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AD23" s="19" t="s">
         <v>51</v>
@@ -3503,70 +3525,70 @@
       <c r="A24" s="18">
         <v>10</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>64</v>
+      <c r="B24" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="19">
         <v>1</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="19" t="s">
         <v>169</v>
       </c>
+      <c r="K24" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" s="19"/>
       <c r="M24" s="19"/>
-      <c r="N24" s="19">
-        <v>3</v>
+      <c r="N24" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
       <c r="T24" s="19">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U24" s="19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
-      <c r="X24" s="19" t="s">
-        <v>67</v>
-      </c>
+      <c r="X24" s="19"/>
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
       <c r="AA24" s="19"/>
-      <c r="AB24" s="19">
-        <v>1</v>
+      <c r="AB24" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="AC24" s="19">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AD24" s="19" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
@@ -3575,20 +3597,20 @@
       <c r="AI24" s="19"/>
       <c r="AJ24" s="27"/>
       <c r="AK24" s="28"/>
-      <c r="AL24" s="34"/>
+      <c r="AL24" s="28"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>11</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>69</v>
+      <c r="D25" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="E25" s="19">
         <v>1</v>
@@ -3601,13 +3623,15 @@
         <v>117</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+        <v>176</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>179</v>
+      </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19" t="s">
         <v>50</v>
@@ -3623,11 +3647,11 @@
       </c>
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
-      <c r="T25" s="31">
-        <v>3</v>
+      <c r="T25" s="30">
+        <v>6</v>
       </c>
       <c r="U25" s="19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
@@ -3635,14 +3659,16 @@
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
       <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
+      <c r="AB25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC25" s="19">
+        <v>0.5</v>
+      </c>
       <c r="AD25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AE25" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="AE25" s="19"/>
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="19"/>
@@ -3655,55 +3681,79 @@
       <c r="A26" s="18">
         <v>12</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>271</v>
+      <c r="B26" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="E26" s="19">
         <v>1</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
+        <v>236</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="M26" s="19"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="24"/>
+      <c r="N26" s="19">
+        <v>3</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19">
+        <v>12</v>
+      </c>
+      <c r="U26" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AD26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="33"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
@@ -3712,11 +3762,11 @@
       <c r="B27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>71</v>
+      <c r="C27" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
@@ -3726,35 +3776,33 @@
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
-      <c r="M27" s="30" t="s">
-        <v>210</v>
-      </c>
+      <c r="M27" s="19"/>
       <c r="N27" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="P27" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="Q27" s="19">
-        <v>0.25</v>
+      <c r="Q27" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
-      <c r="T27" s="19">
-        <v>4</v>
+      <c r="T27" s="30">
+        <v>3</v>
       </c>
       <c r="U27" s="19" t="s">
         <v>61</v>
@@ -3765,17 +3813,13 @@
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
       <c r="AA27" s="19"/>
-      <c r="AB27" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC27" s="19">
-        <v>2</v>
-      </c>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
       <c r="AD27" s="19" t="s">
         <v>51</v>
       </c>
       <c r="AE27" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
@@ -3789,91 +3833,68 @@
       <c r="A28" s="18">
         <v>14</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>245</v>
+      <c r="B28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+        <v>184</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="19"/>
-      <c r="N28" s="19">
-        <v>2</v>
-      </c>
-      <c r="O28" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P28" s="19">
-        <f>N28*0.2</f>
-        <v>0.4</v>
-      </c>
-      <c r="Q28" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="31">
-        <v>12</v>
-      </c>
-      <c r="U28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AC28" s="19">
-        <v>2</v>
-      </c>
-      <c r="AD28" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE28" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="24"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>15</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>110</v>
+      <c r="B29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
@@ -3883,278 +3904,316 @@
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
+        <v>185</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>179</v>
+      </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="O29" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
+        <v>73</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>0.25</v>
+      </c>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="19"/>
+      <c r="T29" s="19">
+        <v>4</v>
+      </c>
+      <c r="U29" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
       <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="20"/>
+      <c r="AB29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC29" s="19">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE29" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
       <c r="AJ29" s="27"/>
       <c r="AK29" s="28"/>
-      <c r="AL29" s="24"/>
+      <c r="AL29" s="28"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>16</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>248</v>
+        <v>76</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>237</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="19"/>
+        <v>238</v>
+      </c>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="L30" s="35" t="s">
+        <v>180</v>
+      </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="P30" s="19">
         <f>N30*0.2</f>
-        <v>4</v>
-      </c>
-      <c r="Q30" s="19"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>0.25</v>
+      </c>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="19"/>
+      <c r="T30" s="30">
+        <v>12</v>
+      </c>
+      <c r="U30" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="19"/>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="20"/>
+      <c r="AB30" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AC30" s="19">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE30" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
       <c r="AJ30" s="27"/>
       <c r="AK30" s="28"/>
-      <c r="AL30" s="24"/>
+      <c r="AL30" s="28"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>17</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="21">
+      <c r="B31" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="19">
         <v>1</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="L31" s="22"/>
+      <c r="F31" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="22">
-        <v>3</v>
-      </c>
-      <c r="O31" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="P31" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="22"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="22"/>
-      <c r="AL31" s="28"/>
+      <c r="N31" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="24"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>18</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="E32" s="21">
+      <c r="B32" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="19">
         <v>1</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22" t="s">
-        <v>143</v>
-      </c>
+      <c r="F32" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="19"/>
-      <c r="N32" s="22">
-        <v>12</v>
-      </c>
-      <c r="O32" s="22" t="s">
-        <v>149</v>
+      <c r="N32" s="19">
+        <v>20</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="P32" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22">
+        <f>N32*0.2</f>
         <v>4</v>
       </c>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="28"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="24"/>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>19</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="E33" s="29">
+        <v>99</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="21">
         <v>1</v>
       </c>
-      <c r="F33" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
+      <c r="F33" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L33" s="22"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="22">
+        <v>3</v>
+      </c>
+      <c r="O33" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="P33" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
       <c r="T33" s="19"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="29"/>
-      <c r="AI33" s="29"/>
-      <c r="AJ33" s="29"/>
-      <c r="AK33" s="29"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
       <c r="AL33" s="28"/>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
@@ -4162,32 +4221,38 @@
         <v>20</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="E34" s="22">
+        <v>99</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="E34" s="21">
         <v>1</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G34" s="22"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="J34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
+      <c r="L34" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="22">
+        <v>12</v>
+      </c>
+      <c r="O34" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="P34" s="19">
+        <v>0.25</v>
+      </c>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
@@ -4196,12 +4261,14 @@
       <c r="V34" s="22"/>
       <c r="W34" s="22"/>
       <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
+      <c r="Y34" s="22">
+        <v>4</v>
+      </c>
       <c r="Z34" s="22"/>
       <c r="AA34" s="22"/>
       <c r="AB34" s="22"/>
       <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
+      <c r="AD34" s="23"/>
       <c r="AE34" s="22"/>
       <c r="AF34" s="22"/>
       <c r="AG34" s="22"/>
@@ -4209,61 +4276,61 @@
       <c r="AI34" s="22"/>
       <c r="AJ34" s="22"/>
       <c r="AK34" s="22"/>
-      <c r="AL34" s="40"/>
+      <c r="AL34" s="28"/>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>21</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="29">
         <v>1</v>
       </c>
-      <c r="F35" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22" t="s">
+      <c r="F35" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
       <c r="T35" s="19"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22"/>
-      <c r="AL35" s="40"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="28"/>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
@@ -4275,25 +4342,23 @@
       <c r="C36" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>216</v>
+      <c r="D36" s="37" t="s">
+        <v>210</v>
       </c>
       <c r="E36" s="22">
         <v>1</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="22" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
-      <c r="L36" s="22" t="s">
-        <v>222</v>
-      </c>
+      <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -4319,7 +4384,7 @@
       <c r="AI36" s="22"/>
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
-      <c r="AL36" s="40"/>
+      <c r="AL36" s="38"/>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
@@ -4331,24 +4396,22 @@
       <c r="C37" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>252</v>
+      <c r="D37" s="37" t="s">
+        <v>212</v>
       </c>
       <c r="E37" s="22">
         <v>1</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G37" s="22"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="K37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22" t="s">
+        <v>213</v>
+      </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -4375,7 +4438,7 @@
       <c r="AI37" s="22"/>
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
-      <c r="AL37" s="40"/>
+      <c r="AL37" s="38"/>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
@@ -4387,25 +4450,25 @@
       <c r="C38" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="39" t="s">
-        <v>249</v>
+      <c r="D38" s="37" t="s">
+        <v>208</v>
       </c>
       <c r="E38" s="22">
         <v>1</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="J38" s="22"/>
-      <c r="K38" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="L38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22" t="s">
+        <v>214</v>
+      </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -4431,7 +4494,7 @@
       <c r="AI38" s="22"/>
       <c r="AJ38" s="22"/>
       <c r="AK38" s="22"/>
-      <c r="AL38" s="40"/>
+      <c r="AL38" s="38"/>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
@@ -4443,25 +4506,25 @@
       <c r="C39" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="39" t="s">
-        <v>250</v>
+      <c r="D39" s="37" t="s">
+        <v>244</v>
       </c>
       <c r="E39" s="22">
         <v>1</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="22" t="s">
+        <v>243</v>
+      </c>
       <c r="J39" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K39" s="22"/>
-      <c r="L39" s="22" t="s">
-        <v>253</v>
-      </c>
+      <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -4487,36 +4550,36 @@
       <c r="AI39" s="22"/>
       <c r="AJ39" s="22"/>
       <c r="AK39" s="22"/>
-      <c r="AL39" s="40"/>
+      <c r="AL39" s="38"/>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>26</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>225</v>
+        <v>43</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>241</v>
       </c>
       <c r="E40" s="22">
         <v>1</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="K40" s="22"/>
+        <v>243</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22" t="s">
+        <v>245</v>
+      </c>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -4543,34 +4606,36 @@
       <c r="AI40" s="22"/>
       <c r="AJ40" s="22"/>
       <c r="AK40" s="22"/>
-      <c r="AL40" s="40"/>
+      <c r="AL40" s="38"/>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>27</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>224</v>
+        <v>43</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>242</v>
       </c>
       <c r="E41" s="22">
         <v>1</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="J41" s="22" t="s">
+        <v>243</v>
+      </c>
       <c r="K41" s="22"/>
       <c r="L41" s="22" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -4597,29 +4662,35 @@
       <c r="AI41" s="22"/>
       <c r="AJ41" s="22"/>
       <c r="AK41" s="22"/>
-      <c r="AL41" s="40"/>
+      <c r="AL41" s="38"/>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>28</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="D42" s="50"/>
+        <v>167</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>217</v>
+      </c>
       <c r="E42" s="22">
         <v>1</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="I42" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>246</v>
+      </c>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
@@ -4647,263 +4718,247 @@
       <c r="AI42" s="22"/>
       <c r="AJ42" s="22"/>
       <c r="AK42" s="22"/>
-      <c r="AL42" s="40"/>
+      <c r="AL42" s="38"/>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>29</v>
       </c>
-      <c r="B43" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="19">
-        <v>2</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="O43" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P43" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q43" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="31">
-        <v>24</v>
-      </c>
-      <c r="U43" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="V43" s="19">
-        <v>3</v>
-      </c>
-      <c r="W43" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="X43" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19">
-        <v>3</v>
-      </c>
-      <c r="AC43" s="19">
-        <v>4</v>
-      </c>
-      <c r="AD43" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19">
-        <v>3</v>
-      </c>
-      <c r="AI43" s="19">
-        <v>4</v>
-      </c>
-      <c r="AJ43" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK43" s="19"/>
-      <c r="AL43" s="19"/>
-      <c r="AM43" s="41"/>
-      <c r="AN43" s="41"/>
-      <c r="AO43" s="28"/>
-      <c r="AP43" s="41"/>
-      <c r="AQ43" s="41"/>
-      <c r="AR43" s="42"/>
+      <c r="B43" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="22">
+        <v>1</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="22"/>
+      <c r="AJ43" s="22"/>
+      <c r="AK43" s="22"/>
+      <c r="AL43" s="38"/>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>30</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="19">
-        <v>2</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19">
-        <v>2</v>
-      </c>
-      <c r="O44" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="31">
-        <v>2</v>
-      </c>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="19"/>
-      <c r="AI44" s="19"/>
-      <c r="AJ44" s="19"/>
-      <c r="AK44" s="19"/>
-      <c r="AL44" s="19"/>
-      <c r="AM44" s="41"/>
-      <c r="AN44" s="41"/>
-      <c r="AO44" s="28"/>
-      <c r="AP44" s="41"/>
-      <c r="AQ44" s="41"/>
-      <c r="AR44" s="42"/>
+      <c r="B44" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="D44" s="48"/>
+      <c r="E44" s="22">
+        <v>1</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="22"/>
+      <c r="AI44" s="22"/>
+      <c r="AJ44" s="22"/>
+      <c r="AK44" s="22"/>
+      <c r="AL44" s="38"/>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>31</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="32" t="s">
-        <v>170</v>
+      <c r="C45" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="E45" s="19">
         <v>2</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="H45" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="I45" s="19"/>
       <c r="J45" s="19" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
+      <c r="N45" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
+      <c r="T45" s="30">
+        <v>24</v>
+      </c>
+      <c r="U45" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V45" s="19">
+        <v>3</v>
+      </c>
+      <c r="W45" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="X45" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
       <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
+      <c r="AB45" s="19">
+        <v>3</v>
+      </c>
+      <c r="AC45" s="19">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
-      <c r="AH45" s="19"/>
-      <c r="AI45" s="19"/>
-      <c r="AJ45" s="19"/>
+      <c r="AH45" s="19">
+        <v>3</v>
+      </c>
+      <c r="AI45" s="19">
+        <v>4</v>
+      </c>
+      <c r="AJ45" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="AK45" s="19"/>
       <c r="AL45" s="19"/>
-      <c r="AM45" s="41"/>
-      <c r="AN45" s="41"/>
+      <c r="AM45" s="39"/>
+      <c r="AN45" s="39"/>
       <c r="AO45" s="28"/>
-      <c r="AP45" s="41"/>
-      <c r="AQ45" s="41"/>
-      <c r="AR45" s="42"/>
+      <c r="AP45" s="39"/>
+      <c r="AQ45" s="39"/>
+      <c r="AR45" s="40"/>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>32</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>192</v>
+      <c r="B46" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="E46" s="19">
         <v>2</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19" t="s">
-        <v>168</v>
-      </c>
+      <c r="I46" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K46" s="19"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="26"/>
+      <c r="N46" s="19">
+        <v>2</v>
+      </c>
+      <c r="O46" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
-      <c r="T46" s="31"/>
+      <c r="T46" s="30">
+        <v>2</v>
+      </c>
       <c r="U46" s="19"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -4922,39 +4977,39 @@
       <c r="AJ46" s="19"/>
       <c r="AK46" s="19"/>
       <c r="AL46" s="19"/>
-      <c r="AM46" s="41"/>
-      <c r="AN46" s="41"/>
+      <c r="AM46" s="39"/>
+      <c r="AN46" s="39"/>
       <c r="AO46" s="28"/>
-      <c r="AP46" s="41"/>
-      <c r="AQ46" s="41"/>
-      <c r="AR46" s="42"/>
+      <c r="AP46" s="39"/>
+      <c r="AQ46" s="39"/>
+      <c r="AR46" s="40"/>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>33</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="31" t="s">
         <v>170</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E47" s="19">
         <v>2</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19" t="s">
-        <v>168</v>
-      </c>
+      <c r="J47" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K47" s="19"/>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
@@ -4963,7 +5018,7 @@
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
-      <c r="T47" s="31"/>
+      <c r="T47" s="30"/>
       <c r="U47" s="19"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -4982,40 +5037,40 @@
       <c r="AJ47" s="19"/>
       <c r="AK47" s="19"/>
       <c r="AL47" s="19"/>
-      <c r="AM47" s="41"/>
-      <c r="AN47" s="41"/>
+      <c r="AM47" s="39"/>
+      <c r="AN47" s="39"/>
       <c r="AO47" s="28"/>
-      <c r="AP47" s="41"/>
-      <c r="AQ47" s="41"/>
-      <c r="AR47" s="42"/>
+      <c r="AP47" s="39"/>
+      <c r="AQ47" s="39"/>
+      <c r="AR47" s="40"/>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>34</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="31" t="s">
         <v>170</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E48" s="19">
         <v>2</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19" t="s">
+      <c r="K48" s="19" t="s">
         <v>168</v>
       </c>
+      <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
       <c r="O48" s="26"/>
@@ -5023,7 +5078,7 @@
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
-      <c r="T48" s="31"/>
+      <c r="T48" s="30"/>
       <c r="U48" s="19"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -5042,39 +5097,39 @@
       <c r="AJ48" s="19"/>
       <c r="AK48" s="19"/>
       <c r="AL48" s="19"/>
-      <c r="AM48" s="41"/>
-      <c r="AN48" s="41"/>
+      <c r="AM48" s="39"/>
+      <c r="AN48" s="39"/>
       <c r="AO48" s="28"/>
-      <c r="AP48" s="41"/>
-      <c r="AQ48" s="41"/>
-      <c r="AR48" s="42"/>
-    </row>
-    <row r="49" spans="1:44" ht="32" x14ac:dyDescent="0.25">
+      <c r="AP48" s="39"/>
+      <c r="AQ48" s="39"/>
+      <c r="AR48" s="40"/>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>35</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="31" t="s">
         <v>170</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>306</v>
+        <v>188</v>
       </c>
       <c r="E49" s="19">
         <v>2</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G49" s="19"/>
-      <c r="H49" s="19" t="s">
-        <v>169</v>
-      </c>
+      <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
+      <c r="K49" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
@@ -5083,7 +5138,7 @@
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
-      <c r="T49" s="31"/>
+      <c r="T49" s="30"/>
       <c r="U49" s="19"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -5102,240 +5157,222 @@
       <c r="AJ49" s="19"/>
       <c r="AK49" s="19"/>
       <c r="AL49" s="19"/>
-      <c r="AM49" s="41"/>
-      <c r="AN49" s="41"/>
+      <c r="AM49" s="39"/>
+      <c r="AN49" s="39"/>
       <c r="AO49" s="28"/>
-      <c r="AP49" s="41"/>
-      <c r="AQ49" s="41"/>
-      <c r="AR49" s="42"/>
+      <c r="AP49" s="39"/>
+      <c r="AQ49" s="39"/>
+      <c r="AR49" s="40"/>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>36</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>88</v>
+      <c r="B50" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>189</v>
       </c>
       <c r="E50" s="19">
         <v>2</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G50" s="19"/>
-      <c r="H50" s="19" t="s">
-        <v>145</v>
-      </c>
+      <c r="H50" s="19"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="19" t="s">
-        <v>179</v>
-      </c>
+      <c r="J50" s="19"/>
       <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
+      <c r="L50" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="M50" s="19"/>
-      <c r="N50" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="O50" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P50" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q50" s="19" t="s">
-        <v>50</v>
-      </c>
+      <c r="N50" s="19"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
-      <c r="T50" s="19">
-        <v>3</v>
-      </c>
-      <c r="U50" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="V50" s="31">
-        <v>8</v>
-      </c>
-      <c r="W50" s="19" t="s">
-        <v>82</v>
-      </c>
+      <c r="T50" s="30"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
       <c r="X50" s="19"/>
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
       <c r="AA50" s="19"/>
-      <c r="AB50" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AD50" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
-      <c r="AH50" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI50" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AJ50" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="19"/>
+      <c r="AJ50" s="19"/>
       <c r="AK50" s="19"/>
       <c r="AL50" s="19"/>
-      <c r="AM50" s="41"/>
-      <c r="AN50" s="41"/>
+      <c r="AM50" s="39"/>
+      <c r="AN50" s="39"/>
       <c r="AO50" s="28"/>
-      <c r="AP50" s="43"/>
-      <c r="AQ50" s="41"/>
-      <c r="AR50" s="42"/>
+      <c r="AP50" s="39"/>
+      <c r="AQ50" s="39"/>
+      <c r="AR50" s="40"/>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>37</v>
       </c>
-      <c r="B51" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>147</v>
+      <c r="B51" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>297</v>
       </c>
       <c r="E51" s="19">
         <v>2</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>179</v>
-      </c>
+      <c r="H51" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
-      <c r="N51" s="19">
-        <v>2</v>
-      </c>
-      <c r="O51" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="P51" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="Q51" s="19">
-        <v>0.25</v>
-      </c>
+      <c r="N51" s="19"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
-      <c r="T51" s="31">
-        <v>3</v>
-      </c>
-      <c r="U51" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="V51" s="19">
-        <v>1</v>
-      </c>
-      <c r="W51" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="T51" s="30"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
       <c r="X51" s="19"/>
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
       <c r="AA51" s="19"/>
-      <c r="AB51" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AC51" s="19">
-        <v>2</v>
-      </c>
-      <c r="AD51" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="AJ51" s="19"/>
       <c r="AK51" s="19"/>
       <c r="AL51" s="19"/>
-      <c r="AM51" s="34"/>
-      <c r="AN51" s="41"/>
-      <c r="AO51" s="41"/>
-      <c r="AP51" s="41"/>
-      <c r="AQ51" s="41"/>
-      <c r="AR51" s="42"/>
+      <c r="AM51" s="39"/>
+      <c r="AN51" s="39"/>
+      <c r="AO51" s="28"/>
+      <c r="AP51" s="39"/>
+      <c r="AQ51" s="39"/>
+      <c r="AR51" s="40"/>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>38</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="29">
+        <v>80</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="19">
         <v>2</v>
       </c>
-      <c r="F52" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="J52" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29">
-        <v>5</v>
-      </c>
-      <c r="O52" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P52" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29">
-        <v>4</v>
-      </c>
-      <c r="S52" s="29"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
+      <c r="F52" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O52" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q52" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19">
+        <v>3</v>
+      </c>
+      <c r="U52" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V52" s="30">
+        <v>8</v>
+      </c>
+      <c r="W52" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AD52" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AJ52" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK52" s="19"/>
+      <c r="AL52" s="19"/>
+      <c r="AM52" s="39"/>
+      <c r="AN52" s="39"/>
+      <c r="AO52" s="28"/>
+      <c r="AP52" s="41"/>
+      <c r="AQ52" s="39"/>
+      <c r="AR52" s="40"/>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
@@ -5345,46 +5382,83 @@
         <v>89</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="29">
-        <v>3</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29">
-        <v>5</v>
-      </c>
-      <c r="O53" s="29" t="s">
-        <v>134</v>
+        <v>85</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="19">
+        <v>2</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19">
+        <v>2</v>
+      </c>
+      <c r="O53" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="P53" s="19">
         <v>0.25</v>
       </c>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29">
-        <v>4</v>
-      </c>
-      <c r="S53" s="29"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
+      <c r="Q53" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="30">
+        <v>3</v>
+      </c>
+      <c r="U53" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V53" s="19">
+        <v>1</v>
+      </c>
+      <c r="W53" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AC53" s="19">
+        <v>2</v>
+      </c>
+      <c r="AD53" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE53" s="19"/>
+      <c r="AF53" s="19"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19"/>
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK53" s="19"/>
+      <c r="AL53" s="19"/>
+      <c r="AM53" s="33"/>
+      <c r="AN53" s="39"/>
+      <c r="AO53" s="39"/>
+      <c r="AP53" s="39"/>
+      <c r="AQ53" s="39"/>
+      <c r="AR53" s="40"/>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
@@ -5394,37 +5468,41 @@
         <v>89</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>214</v>
+        <v>133</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>153</v>
       </c>
       <c r="E54" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="29"/>
+      <c r="I54" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>151</v>
+      </c>
       <c r="K54" s="29"/>
-      <c r="L54" s="29" t="s">
-        <v>213</v>
-      </c>
+      <c r="L54" s="29"/>
       <c r="M54" s="29"/>
       <c r="N54" s="29">
-        <v>4</v>
-      </c>
-      <c r="O54" s="22" t="s">
-        <v>120</v>
+        <v>5</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="P54" s="19">
         <v>0.25</v>
       </c>
       <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
+      <c r="R54" s="29">
+        <v>4</v>
+      </c>
       <c r="S54" s="29"/>
       <c r="T54" s="28"/>
       <c r="U54" s="29"/>
@@ -5438,41 +5516,42 @@
       <c r="A55" s="18">
         <v>41</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>99</v>
+      <c r="B55" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" s="42" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="E55" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="L55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="20" t="s">
+        <v>152</v>
+      </c>
       <c r="M55" s="29"/>
       <c r="N55" s="29">
-        <v>0</v>
-      </c>
-      <c r="O55" s="22" t="s">
-        <v>140</v>
+        <v>5</v>
+      </c>
+      <c r="O55" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="P55" s="19">
         <v>0.25</v>
       </c>
       <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
+      <c r="R55" s="29">
+        <v>4</v>
+      </c>
       <c r="S55" s="29"/>
       <c r="T55" s="28"/>
       <c r="U55" s="29"/>
@@ -5486,35 +5565,35 @@
       <c r="A56" s="18">
         <v>42</v>
       </c>
-      <c r="B56" s="19" t="s">
-        <v>99</v>
+      <c r="B56" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>144</v>
+        <v>137</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>206</v>
       </c>
       <c r="E56" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
       <c r="I56" s="19"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="L56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29" t="s">
+        <v>205</v>
+      </c>
       <c r="M56" s="29"/>
       <c r="N56" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O56" s="22" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="P56" s="19">
         <v>0.25</v>
@@ -5538,31 +5617,31 @@
         <v>99</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="42" t="s">
-        <v>146</v>
+        <v>158</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>141</v>
       </c>
       <c r="E57" s="29">
         <v>2</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="19"/>
-      <c r="J57" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K57" s="19"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="29" t="s">
+        <v>260</v>
+      </c>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
       <c r="N57" s="29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="P57" s="19">
         <v>0.25</v>
@@ -5583,187 +5662,144 @@
         <v>44</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>144</v>
       </c>
       <c r="E58" s="29">
         <v>2</v>
       </c>
-      <c r="F58" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19">
-        <v>1</v>
-      </c>
-      <c r="O58" s="26" t="s">
-        <v>118</v>
+      <c r="F58" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29">
+        <v>3</v>
+      </c>
+      <c r="O58" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="P58" s="19">
         <v>0.25</v>
       </c>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19">
-        <v>1</v>
-      </c>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19"/>
-      <c r="AC58" s="19"/>
-      <c r="AD58" s="19"/>
-      <c r="AE58" s="19"/>
-      <c r="AF58" s="19"/>
-      <c r="AG58" s="19"/>
-      <c r="AH58" s="19"/>
-      <c r="AI58" s="19"/>
-      <c r="AJ58" s="19"/>
-      <c r="AK58" s="20"/>
-      <c r="AL58" s="19"/>
-      <c r="AM58" s="41"/>
-      <c r="AN58" s="41"/>
-      <c r="AO58" s="28"/>
-      <c r="AP58" s="41"/>
-      <c r="AQ58" s="41"/>
-      <c r="AR58" s="42"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>45</v>
       </c>
-      <c r="B59" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>142</v>
+      <c r="B59" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>146</v>
       </c>
       <c r="E59" s="29">
         <v>2</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="L59" s="9"/>
-      <c r="M59" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="N59" s="19">
+        <v>196</v>
+      </c>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K59" s="19"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29">
         <v>4</v>
       </c>
-      <c r="O59" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="P59" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q59" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="31">
-        <v>18</v>
-      </c>
-      <c r="U59" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="V59" s="31">
-        <v>18</v>
-      </c>
-      <c r="W59" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19"/>
-      <c r="AA59" s="19"/>
-      <c r="AB59" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AC59" s="19">
-        <v>4</v>
-      </c>
-      <c r="AD59" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="19"/>
-      <c r="AG59" s="19"/>
-      <c r="AH59" s="19"/>
-      <c r="AI59" s="20"/>
-      <c r="AJ59" s="19"/>
-      <c r="AK59" s="19"/>
-      <c r="AL59" s="19"/>
+      <c r="O59" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="P59" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29"/>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>46</v>
       </c>
-      <c r="B60" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>303</v>
+      <c r="B60" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="E60" s="29">
         <v>2</v>
       </c>
-      <c r="F60" s="29" t="s">
-        <v>199</v>
+      <c r="F60" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J60" s="19"/>
+        <v>148</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>328</v>
+      </c>
       <c r="K60" s="19"/>
-      <c r="L60" s="9"/>
+      <c r="L60" s="19"/>
       <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="19"/>
+      <c r="N60" s="19">
+        <v>1</v>
+      </c>
+      <c r="O60" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="P60" s="19">
+        <v>0.25</v>
+      </c>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
       <c r="S60" s="19"/>
-      <c r="T60" s="31"/>
+      <c r="T60" s="19">
+        <v>1</v>
+      </c>
       <c r="U60" s="19"/>
-      <c r="V60" s="31"/>
+      <c r="V60" s="19"/>
       <c r="W60" s="19"/>
       <c r="X60" s="19"/>
       <c r="Y60" s="19"/>
@@ -5772,106 +5808,137 @@
       <c r="AB60" s="19"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
-      <c r="AE60" s="45"/>
-      <c r="AF60" s="45"/>
-      <c r="AG60" s="45"/>
-      <c r="AH60" s="45"/>
-      <c r="AI60" s="46"/>
-      <c r="AJ60" s="45"/>
-      <c r="AK60" s="45"/>
-      <c r="AL60" s="45"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="19"/>
+      <c r="AJ60" s="19"/>
+      <c r="AK60" s="20"/>
+      <c r="AL60" s="19"/>
+      <c r="AM60" s="39"/>
+      <c r="AN60" s="39"/>
+      <c r="AO60" s="28"/>
+      <c r="AP60" s="39"/>
+      <c r="AQ60" s="39"/>
+      <c r="AR60" s="40"/>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>47</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="33" t="s">
-        <v>304</v>
+      <c r="D61" s="32" t="s">
+        <v>142</v>
       </c>
       <c r="E61" s="29">
         <v>2</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="K61" s="19"/>
+      <c r="I61" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>248</v>
+      </c>
       <c r="L61" s="9"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="44"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
+      <c r="M61" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N61" s="19">
+        <v>4</v>
+      </c>
+      <c r="O61" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P61" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q61" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="R61" s="19"/>
       <c r="S61" s="19"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="19"/>
+      <c r="T61" s="30">
+        <v>18</v>
+      </c>
+      <c r="U61" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="V61" s="30">
+        <v>18</v>
+      </c>
+      <c r="W61" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="X61" s="19"/>
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
       <c r="AA61" s="19"/>
-      <c r="AB61" s="19"/>
-      <c r="AC61" s="19"/>
-      <c r="AD61" s="19"/>
-      <c r="AE61" s="45"/>
-      <c r="AF61" s="45"/>
-      <c r="AG61" s="45"/>
-      <c r="AH61" s="45"/>
-      <c r="AI61" s="46"/>
-      <c r="AJ61" s="45"/>
-      <c r="AK61" s="45"/>
-      <c r="AL61" s="45"/>
+      <c r="AB61" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AC61" s="19">
+        <v>4</v>
+      </c>
+      <c r="AD61" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE61" s="19"/>
+      <c r="AF61" s="19"/>
+      <c r="AG61" s="19"/>
+      <c r="AH61" s="19"/>
+      <c r="AI61" s="20"/>
+      <c r="AJ61" s="19"/>
+      <c r="AK61" s="19"/>
+      <c r="AL61" s="19"/>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>48</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="33" t="s">
-        <v>305</v>
+      <c r="D62" s="32" t="s">
+        <v>294</v>
       </c>
       <c r="E62" s="29">
         <v>2</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
+      <c r="I62" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="J62" s="19"/>
-      <c r="K62" s="19" t="s">
-        <v>168</v>
-      </c>
+      <c r="K62" s="19"/>
       <c r="L62" s="9"/>
       <c r="M62" s="19"/>
       <c r="N62" s="19"/>
-      <c r="O62" s="44"/>
+      <c r="O62" s="42"/>
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
       <c r="R62" s="19"/>
       <c r="S62" s="19"/>
-      <c r="T62" s="31"/>
+      <c r="T62" s="30"/>
       <c r="U62" s="19"/>
-      <c r="V62" s="31"/>
+      <c r="V62" s="30"/>
       <c r="W62" s="19"/>
       <c r="X62" s="19"/>
       <c r="Y62" s="19"/>
@@ -5880,59 +5947,52 @@
       <c r="AB62" s="19"/>
       <c r="AC62" s="19"/>
       <c r="AD62" s="19"/>
-      <c r="AE62" s="45"/>
-      <c r="AF62" s="45"/>
-      <c r="AG62" s="45"/>
-      <c r="AH62" s="45"/>
-      <c r="AI62" s="46"/>
-      <c r="AJ62" s="45"/>
-      <c r="AK62" s="45"/>
-      <c r="AL62" s="45"/>
+      <c r="AE62" s="43"/>
+      <c r="AF62" s="43"/>
+      <c r="AG62" s="43"/>
+      <c r="AH62" s="43"/>
+      <c r="AI62" s="44"/>
+      <c r="AJ62" s="43"/>
+      <c r="AK62" s="43"/>
+      <c r="AL62" s="43"/>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>49</v>
       </c>
-      <c r="B63" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>123</v>
+      <c r="B63" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>295</v>
       </c>
       <c r="E63" s="29">
         <v>2</v>
       </c>
-      <c r="F63" s="19" t="s">
-        <v>202</v>
+      <c r="F63" s="29" t="s">
+        <v>193</v>
       </c>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
+      <c r="J63" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="K63" s="19"/>
-      <c r="L63" s="22" t="s">
-        <v>145</v>
-      </c>
+      <c r="L63" s="9"/>
       <c r="M63" s="19"/>
-      <c r="N63" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="O63" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="P63" s="29">
-        <f t="shared" ref="P63:P64" si="0">N63*0.2</f>
-        <v>0.5</v>
-      </c>
+      <c r="N63" s="19"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
       <c r="S63" s="19"/>
-      <c r="T63" s="31"/>
+      <c r="T63" s="30"/>
       <c r="U63" s="19"/>
-      <c r="V63" s="31"/>
+      <c r="V63" s="30"/>
       <c r="W63" s="19"/>
       <c r="X63" s="19"/>
       <c r="Y63" s="19"/>
@@ -5941,59 +6001,52 @@
       <c r="AB63" s="19"/>
       <c r="AC63" s="19"/>
       <c r="AD63" s="19"/>
-      <c r="AE63" s="45"/>
-      <c r="AF63" s="45"/>
-      <c r="AG63" s="45"/>
-      <c r="AH63" s="45"/>
-      <c r="AI63" s="46"/>
-      <c r="AJ63" s="45"/>
-      <c r="AK63" s="45"/>
-      <c r="AL63" s="45"/>
+      <c r="AE63" s="43"/>
+      <c r="AF63" s="43"/>
+      <c r="AG63" s="43"/>
+      <c r="AH63" s="43"/>
+      <c r="AI63" s="44"/>
+      <c r="AJ63" s="43"/>
+      <c r="AK63" s="43"/>
+      <c r="AL63" s="43"/>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>50</v>
       </c>
-      <c r="B64" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>125</v>
+      <c r="B64" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>296</v>
       </c>
       <c r="E64" s="29">
         <v>2</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
-      <c r="J64" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L64" s="9"/>
       <c r="M64" s="19"/>
-      <c r="N64" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="O64" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P64" s="29">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
+      <c r="N64" s="19"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="19"/>
       <c r="S64" s="19"/>
-      <c r="T64" s="31"/>
+      <c r="T64" s="30"/>
       <c r="U64" s="19"/>
-      <c r="V64" s="31"/>
+      <c r="V64" s="30"/>
       <c r="W64" s="19"/>
       <c r="X64" s="19"/>
       <c r="Y64" s="19"/>
@@ -6002,14 +6055,14 @@
       <c r="AB64" s="19"/>
       <c r="AC64" s="19"/>
       <c r="AD64" s="19"/>
-      <c r="AE64" s="45"/>
-      <c r="AF64" s="45"/>
-      <c r="AG64" s="45"/>
-      <c r="AH64" s="45"/>
-      <c r="AI64" s="46"/>
-      <c r="AJ64" s="45"/>
-      <c r="AK64" s="45"/>
-      <c r="AL64" s="45"/>
+      <c r="AE64" s="43"/>
+      <c r="AF64" s="43"/>
+      <c r="AG64" s="43"/>
+      <c r="AH64" s="43"/>
+      <c r="AI64" s="44"/>
+      <c r="AJ64" s="43"/>
+      <c r="AK64" s="43"/>
+      <c r="AL64" s="43"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
@@ -6019,276 +6072,274 @@
         <v>121</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="E65" s="29">
         <v>2</v>
       </c>
-      <c r="F65" s="29" t="s">
-        <v>199</v>
+      <c r="F65" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="19"/>
       <c r="J65" s="19"/>
-      <c r="K65" s="29" t="s">
+      <c r="K65" s="19"/>
+      <c r="L65" s="22" t="s">
         <v>145</v>
-      </c>
-      <c r="L65" s="20" t="s">
-        <v>270</v>
       </c>
       <c r="M65" s="19"/>
       <c r="N65" s="19">
-        <v>2</v>
-      </c>
-      <c r="O65" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P65" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="Q65" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="R65" s="19">
-        <v>1</v>
-      </c>
-      <c r="S65" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="O65" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="P65" s="29">
+        <f t="shared" ref="P65:P66" si="0">N65*0.2</f>
         <v>0.5</v>
       </c>
-      <c r="T65" s="19">
-        <v>1</v>
-      </c>
-      <c r="U65" s="19">
-        <v>1</v>
-      </c>
-      <c r="V65" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="W65" s="19">
-        <v>1</v>
-      </c>
-      <c r="X65" s="19">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="19" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
       <c r="AA65" s="19"/>
       <c r="AB65" s="19"/>
       <c r="AC65" s="19"/>
-      <c r="AD65" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AE65" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AF65" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG65" s="45"/>
-      <c r="AH65" s="45"/>
-      <c r="AI65" s="46"/>
-      <c r="AJ65" s="45"/>
-      <c r="AK65" s="45"/>
-      <c r="AL65" s="45"/>
+      <c r="AD65" s="19"/>
+      <c r="AE65" s="43"/>
+      <c r="AF65" s="43"/>
+      <c r="AG65" s="43"/>
+      <c r="AH65" s="43"/>
+      <c r="AI65" s="44"/>
+      <c r="AJ65" s="43"/>
+      <c r="AK65" s="43"/>
+      <c r="AL65" s="43"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>52</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>136</v>
+        <v>124</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="E66" s="29">
         <v>2</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
       <c r="J66" s="19" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="K66" s="19"/>
-      <c r="L66" s="20" t="s">
-        <v>269</v>
-      </c>
+      <c r="L66" s="19"/>
       <c r="M66" s="19"/>
       <c r="N66" s="19">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="O66" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P66" s="19">
-        <v>0.4</v>
+        <v>59</v>
+      </c>
+      <c r="P66" s="29">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
       <c r="S66" s="19"/>
-      <c r="T66" s="19">
-        <v>2</v>
-      </c>
-      <c r="U66" s="19">
-        <v>2</v>
-      </c>
-      <c r="V66" s="19"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="30"/>
       <c r="W66" s="19"/>
-      <c r="X66" s="19">
-        <v>1</v>
-      </c>
-      <c r="Y66" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z66" s="31"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
       <c r="AA66" s="19"/>
       <c r="AB66" s="19"/>
-      <c r="AC66" s="23"/>
+      <c r="AC66" s="19"/>
       <c r="AD66" s="19"/>
-      <c r="AE66" s="19"/>
-      <c r="AF66" s="19"/>
-      <c r="AG66" s="19"/>
-      <c r="AH66" s="19"/>
-      <c r="AI66" s="46"/>
-      <c r="AJ66" s="45"/>
-      <c r="AK66" s="45"/>
-      <c r="AL66" s="45"/>
+      <c r="AE66" s="43"/>
+      <c r="AF66" s="43"/>
+      <c r="AG66" s="43"/>
+      <c r="AH66" s="43"/>
+      <c r="AI66" s="44"/>
+      <c r="AJ66" s="43"/>
+      <c r="AK66" s="43"/>
+      <c r="AL66" s="43"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
         <v>53</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" s="42" t="s">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>127</v>
       </c>
       <c r="E67" s="29">
         <v>2</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="29"/>
+      <c r="J67" s="19"/>
       <c r="K67" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="L67" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29">
+        <v>145</v>
+      </c>
+      <c r="L67" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19">
         <v>2</v>
       </c>
-      <c r="O67" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="P67" s="29">
-        <f>N67*0.2</f>
+      <c r="O67" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P67" s="19">
         <v>0.4</v>
       </c>
-      <c r="Q67" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29">
-        <v>6</v>
-      </c>
-      <c r="U67" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="V67" s="29">
-        <v>6</v>
-      </c>
-      <c r="W67" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="29">
+      <c r="Q67" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="R67" s="19">
+        <v>1</v>
+      </c>
+      <c r="S67" s="19">
         <v>0.5</v>
       </c>
-      <c r="Z67" s="29">
+      <c r="T67" s="19">
+        <v>1</v>
+      </c>
+      <c r="U67" s="19">
+        <v>1</v>
+      </c>
+      <c r="V67" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="W67" s="19">
+        <v>1</v>
+      </c>
+      <c r="X67" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="19"/>
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="AE67" s="19">
         <v>0.5</v>
       </c>
-      <c r="AA67" s="29">
-        <f>Y67*0.25</f>
-        <v>0.125</v>
-      </c>
-      <c r="AB67" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC67" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD67" s="29" t="s">
-        <v>77</v>
-      </c>
+      <c r="AF67" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG67" s="43"/>
+      <c r="AH67" s="43"/>
+      <c r="AI67" s="44"/>
+      <c r="AJ67" s="43"/>
+      <c r="AK67" s="43"/>
+      <c r="AL67" s="43"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <v>54</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" s="42" t="s">
-        <v>176</v>
+        <v>131</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>136</v>
       </c>
       <c r="E68" s="29">
         <v>2</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="29"/>
-      <c r="AA68" s="29"/>
-      <c r="AB68" s="29"/>
-      <c r="AC68" s="29"/>
-      <c r="AD68" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="J68" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="K68" s="19"/>
+      <c r="L68" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19">
+        <v>4</v>
+      </c>
+      <c r="O68" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P68" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19">
+        <v>2</v>
+      </c>
+      <c r="U68" s="19">
+        <v>2</v>
+      </c>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="19"/>
+      <c r="AC68" s="23"/>
+      <c r="AD68" s="19"/>
+      <c r="AE68" s="19"/>
+      <c r="AF68" s="19"/>
+      <c r="AG68" s="19"/>
+      <c r="AH68" s="19"/>
+      <c r="AI68" s="44"/>
+      <c r="AJ68" s="43"/>
+      <c r="AK68" s="43"/>
+      <c r="AL68" s="43"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
@@ -6300,64 +6351,72 @@
       <c r="C69" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="42" t="s">
-        <v>198</v>
+      <c r="D69" s="40" t="s">
+        <v>0</v>
       </c>
       <c r="E69" s="29">
         <v>2</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G69" s="29"/>
-      <c r="H69" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="I69" s="29" t="s">
-        <v>179</v>
-      </c>
+      <c r="H69" s="29"/>
+      <c r="I69" s="9"/>
       <c r="J69" s="29"/>
-      <c r="L69" s="29"/>
+      <c r="K69" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="L69" s="29" t="s">
+        <v>259</v>
+      </c>
       <c r="M69" s="29"/>
       <c r="N69" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O69" s="29" t="s">
         <v>97</v>
       </c>
       <c r="P69" s="29">
         <f>N69*0.2</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="Q69" s="29" t="s">
-        <v>98</v>
+        <v>0.4</v>
+      </c>
+      <c r="Q69" s="29">
+        <v>0.75</v>
       </c>
       <c r="R69" s="29"/>
       <c r="S69" s="29"/>
       <c r="T69" s="29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U69" s="29" t="s">
         <v>45</v>
       </c>
       <c r="V69" s="29">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="W69" s="29" t="s">
         <v>46</v>
       </c>
       <c r="X69" s="28"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="29"/>
-      <c r="AA69" s="29"/>
+      <c r="Y69" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="Z69" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="AA69" s="29">
+        <f>Y69*0.25</f>
+        <v>0.125</v>
+      </c>
       <c r="AB69" s="29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AC69" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="29" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
@@ -6368,65 +6427,43 @@
         <v>89</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>174</v>
+        <v>96</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>173</v>
       </c>
       <c r="E70" s="29">
         <v>2</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G70" s="29"/>
-      <c r="H70" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="I70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="9"/>
       <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
+      <c r="K70" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
-      <c r="N70" s="29">
-        <v>3</v>
-      </c>
-      <c r="O70" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="P70" s="29">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="Q70" s="29" t="s">
-        <v>175</v>
-      </c>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
       <c r="R70" s="29"/>
       <c r="S70" s="29"/>
-      <c r="T70" s="29">
-        <v>12</v>
-      </c>
-      <c r="U70" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="V70" s="29">
-        <v>18</v>
-      </c>
-      <c r="W70" s="29" t="s">
-        <v>129</v>
-      </c>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
       <c r="X70" s="28"/>
       <c r="Y70" s="29"/>
       <c r="Z70" s="29"/>
       <c r="AA70" s="29"/>
-      <c r="AB70" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="AC70" s="29">
-        <v>2</v>
-      </c>
-      <c r="AD70" s="29" t="s">
-        <v>130</v>
-      </c>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
@@ -6436,43 +6473,67 @@
         <v>89</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>171</v>
+        <v>96</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>326</v>
       </c>
       <c r="E71" s="29">
         <v>2</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="K71" s="29"/>
+      <c r="H71" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="I71" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J71" s="29"/>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
+      <c r="N71" s="29">
+        <v>3</v>
+      </c>
+      <c r="O71" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="P71" s="29">
+        <f>N71*0.2</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>98</v>
+      </c>
       <c r="R71" s="29"/>
       <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
+      <c r="T71" s="29">
+        <v>12</v>
+      </c>
+      <c r="U71" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="V71" s="29">
+        <v>18</v>
+      </c>
+      <c r="W71" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="X71" s="28"/>
       <c r="Y71" s="29"/>
       <c r="Z71" s="29"/>
-      <c r="AA71" s="47"/>
-      <c r="AB71" s="47"/>
-      <c r="AC71" s="47"/>
-      <c r="AD71" s="47"/>
+      <c r="AA71" s="29"/>
+      <c r="AB71" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="AC71" s="29">
+        <v>2</v>
+      </c>
+      <c r="AD71" s="29" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
@@ -6484,41 +6545,63 @@
       <c r="C72" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="42" t="s">
-        <v>172</v>
+      <c r="D72" s="40" t="s">
+        <v>316</v>
       </c>
       <c r="E72" s="29">
         <v>2</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29" t="s">
+      <c r="H72" s="29" t="s">
         <v>168</v>
       </c>
+      <c r="I72" s="29"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
       <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
+      <c r="N72" s="29">
+        <v>3</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P72" s="29">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>172</v>
+      </c>
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
+      <c r="T72" s="29">
+        <v>12</v>
+      </c>
+      <c r="U72" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="V72" s="29">
+        <v>18</v>
+      </c>
+      <c r="W72" s="29" t="s">
+        <v>129</v>
+      </c>
       <c r="X72" s="28"/>
       <c r="Y72" s="29"/>
       <c r="Z72" s="29"/>
-      <c r="AA72" s="47"/>
-      <c r="AB72" s="47"/>
-      <c r="AC72" s="47"/>
-      <c r="AD72" s="47"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="AC72" s="29">
+        <v>2</v>
+      </c>
+      <c r="AD72" s="29" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
@@ -6530,21 +6613,21 @@
       <c r="C73" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D73" s="42" t="s">
-        <v>173</v>
+      <c r="D73" s="40" t="s">
+        <v>324</v>
       </c>
       <c r="E73" s="29">
         <v>2</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29" t="s">
-        <v>168</v>
-      </c>
+      <c r="I73" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
@@ -6561,248 +6644,256 @@
       <c r="X73" s="28"/>
       <c r="Y73" s="29"/>
       <c r="Z73" s="29"/>
-      <c r="AA73" s="47"/>
-      <c r="AB73" s="47"/>
-      <c r="AC73" s="47"/>
-      <c r="AD73" s="47"/>
+      <c r="AA73" s="45"/>
+      <c r="AB73" s="45"/>
+      <c r="AC73" s="45"/>
+      <c r="AD73" s="45"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
         <v>60</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="42" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>323</v>
       </c>
       <c r="E74" s="29">
         <v>2</v>
       </c>
-      <c r="F74" s="22" t="s">
-        <v>197</v>
+      <c r="F74" s="29" t="s">
+        <v>193</v>
       </c>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
-      <c r="J74" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="K74" s="19" t="s">
-        <v>266</v>
-      </c>
+      <c r="I74" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
       <c r="L74" s="29"/>
       <c r="M74" s="29"/>
-      <c r="N74" s="29">
-        <v>2</v>
-      </c>
-      <c r="O74" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P74" s="29">
-        <f t="shared" ref="P74:P76" si="1">N74*0.2</f>
-        <v>0.4</v>
-      </c>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
       <c r="Q74" s="29"/>
       <c r="R74" s="29"/>
       <c r="S74" s="29"/>
-      <c r="T74" s="28"/>
+      <c r="T74" s="29"/>
       <c r="U74" s="29"/>
       <c r="V74" s="29"/>
       <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
+      <c r="X74" s="28"/>
       <c r="Y74" s="29"/>
       <c r="Z74" s="29"/>
+      <c r="AA74" s="45"/>
+      <c r="AB74" s="45"/>
+      <c r="AC74" s="45"/>
+      <c r="AD74" s="45"/>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="18">
         <v>61</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>154</v>
+      <c r="B75" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>171</v>
       </c>
       <c r="E75" s="29">
         <v>2</v>
       </c>
-      <c r="F75" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22">
-        <v>4</v>
-      </c>
-      <c r="O75" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P75" s="29">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="22"/>
-      <c r="Z75" s="22"/>
-      <c r="AA75" s="22"/>
-      <c r="AB75" s="22"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="23"/>
-      <c r="AE75" s="22"/>
-      <c r="AF75" s="22"/>
-      <c r="AG75" s="22"/>
-      <c r="AH75" s="22"/>
-      <c r="AI75" s="22"/>
-      <c r="AJ75" s="22"/>
-      <c r="AK75" s="22"/>
-      <c r="AL75" s="28"/>
+      <c r="F75" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="29"/>
+      <c r="AA75" s="45"/>
+      <c r="AB75" s="45"/>
+      <c r="AC75" s="45"/>
+      <c r="AD75" s="45"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="18">
         <v>62</v>
       </c>
-      <c r="B76" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" s="39" t="s">
-        <v>155</v>
+      <c r="B76" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="E76" s="29">
         <v>2</v>
       </c>
-      <c r="F76" s="29" t="s">
-        <v>196</v>
+      <c r="F76" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29" t="s">
-        <v>139</v>
-      </c>
+      <c r="J76" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="L76" s="29"/>
       <c r="M76" s="29"/>
       <c r="N76" s="29">
-        <v>6</v>
-      </c>
-      <c r="O76" s="29" t="s">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="O76" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="P76" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
+        <f t="shared" ref="P76:P78" si="1">N76*0.2</f>
+        <v>0.4</v>
       </c>
       <c r="Q76" s="29"/>
-      <c r="R76" s="29">
-        <v>2</v>
-      </c>
+      <c r="R76" s="29"/>
       <c r="S76" s="29"/>
-      <c r="T76" s="19"/>
+      <c r="T76" s="28"/>
       <c r="U76" s="29"/>
       <c r="V76" s="29"/>
       <c r="W76" s="29"/>
       <c r="X76" s="29"/>
       <c r="Y76" s="29"/>
       <c r="Z76" s="29"/>
-      <c r="AA76" s="29"/>
-      <c r="AB76" s="29"/>
-      <c r="AC76" s="29"/>
-      <c r="AD76" s="29"/>
-      <c r="AE76" s="29"/>
-      <c r="AF76" s="29"/>
-      <c r="AG76" s="29"/>
-      <c r="AH76" s="29"/>
-      <c r="AI76" s="29"/>
-      <c r="AJ76" s="29"/>
-      <c r="AK76" s="29"/>
-      <c r="AL76" s="28"/>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>63</v>
       </c>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="29"/>
+      <c r="B77" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="29">
+        <v>2</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22">
+        <v>4</v>
+      </c>
+      <c r="O77" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" s="29">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
       <c r="T77" s="19"/>
-      <c r="U77" s="29"/>
-      <c r="V77" s="29"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="29"/>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="29"/>
-      <c r="AA77" s="29"/>
-      <c r="AB77" s="29"/>
-      <c r="AC77" s="29"/>
-      <c r="AD77" s="29"/>
-      <c r="AE77" s="29"/>
-      <c r="AF77" s="29"/>
-      <c r="AG77" s="29"/>
-      <c r="AH77" s="29"/>
-      <c r="AI77" s="29"/>
-      <c r="AJ77" s="29"/>
-      <c r="AK77" s="29"/>
+      <c r="U77" s="22"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="22"/>
+      <c r="Y77" s="22"/>
+      <c r="Z77" s="22"/>
+      <c r="AA77" s="22"/>
+      <c r="AB77" s="22"/>
+      <c r="AC77" s="22"/>
+      <c r="AD77" s="23"/>
+      <c r="AE77" s="22"/>
+      <c r="AF77" s="22"/>
+      <c r="AG77" s="22"/>
+      <c r="AH77" s="22"/>
+      <c r="AI77" s="22"/>
+      <c r="AJ77" s="22"/>
+      <c r="AK77" s="22"/>
       <c r="AL77" s="28"/>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <v>64</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
+      <c r="B78" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="29">
+        <v>2</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>191</v>
+      </c>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
+      <c r="L78" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
+      <c r="N78" s="29">
+        <v>6</v>
+      </c>
+      <c r="O78" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="P78" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
       <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
+      <c r="R78" s="29">
+        <v>2</v>
+      </c>
       <c r="S78" s="29"/>
       <c r="T78" s="19"/>
       <c r="U78" s="29"/>
@@ -6830,7 +6921,7 @@
       </c>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
-      <c r="D79" s="42"/>
+      <c r="D79" s="46"/>
       <c r="E79" s="29"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
@@ -6840,69 +6931,39 @@
       <c r="K79" s="29"/>
       <c r="L79" s="29"/>
       <c r="M79" s="29"/>
-      <c r="N79" s="29">
-        <f>SUM(N14:N78)</f>
-        <v>103.5</v>
-      </c>
+      <c r="N79" s="29"/>
       <c r="O79" s="29"/>
-      <c r="P79" s="29">
-        <f>SUM(P16:P78)</f>
-        <v>12.8</v>
-      </c>
-      <c r="Q79" s="29">
-        <f>SUM(Q16:Q78)*1.5</f>
-        <v>4.875</v>
-      </c>
-      <c r="R79" s="29">
-        <f>SUM(R16:R78)</f>
-        <v>13</v>
-      </c>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
       <c r="S79" s="29"/>
-      <c r="T79" s="31">
-        <f>SUM(T16:T78)*1.5</f>
-        <v>219.75</v>
-      </c>
+      <c r="T79" s="19"/>
       <c r="U79" s="29"/>
-      <c r="V79" s="31">
-        <f>SUM(V16:V78)*1.5</f>
-        <v>114</v>
-      </c>
-      <c r="W79" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z79" s="29">
-        <f>SUM(Z14:Z78)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AA79" s="31">
-        <f>SUM(AA14:AA78)</f>
-        <v>0.125</v>
-      </c>
-      <c r="AB79" s="29">
-        <f>SUM(AB14:AB78)</f>
-        <v>14</v>
-      </c>
-      <c r="AC79" s="29">
-        <f>SUM(AC13:AC78)*1.3</f>
-        <v>38.675000000000004</v>
-      </c>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="29"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="29"/>
+      <c r="AC79" s="29"/>
       <c r="AD79" s="29"/>
-      <c r="AE79" s="49" t="s">
-        <v>103</v>
-      </c>
+      <c r="AE79" s="29"/>
+      <c r="AF79" s="29"/>
+      <c r="AG79" s="29"/>
       <c r="AH79" s="29"/>
       <c r="AI79" s="29"/>
       <c r="AJ79" s="29"/>
       <c r="AK79" s="29"/>
       <c r="AL79" s="28"/>
     </row>
-    <row r="80" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <v>66</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="48"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="40"/>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
@@ -6918,7 +6979,7 @@
       <c r="Q80" s="29"/>
       <c r="R80" s="29"/>
       <c r="S80" s="29"/>
-      <c r="T80" s="29"/>
+      <c r="T80" s="19"/>
       <c r="U80" s="29"/>
       <c r="V80" s="29"/>
       <c r="W80" s="29"/>
@@ -6938,15 +6999,129 @@
       <c r="AK80" s="29"/>
       <c r="AL80" s="28"/>
     </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A81" s="18">
+        <v>67</v>
+      </c>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29">
+        <f>SUM(N14:N80)</f>
+        <v>103.5</v>
+      </c>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29">
+        <f>SUM(P18:P80)</f>
+        <v>12.8</v>
+      </c>
+      <c r="Q81" s="29">
+        <f>SUM(Q18:Q80)*1.5</f>
+        <v>4.875</v>
+      </c>
+      <c r="R81" s="29">
+        <f>SUM(R18:R80)</f>
+        <v>13</v>
+      </c>
+      <c r="S81" s="29"/>
+      <c r="T81" s="30">
+        <f>SUM(T18:T80)*1.5</f>
+        <v>219.75</v>
+      </c>
+      <c r="U81" s="29"/>
+      <c r="V81" s="30">
+        <f>SUM(V18:V80)*1.5</f>
+        <v>114</v>
+      </c>
+      <c r="W81" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z81" s="29">
+        <f>SUM(Z14:Z80)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA81" s="30">
+        <f>SUM(AA14:AA80)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB81" s="29">
+        <f>SUM(AB14:AB80)</f>
+        <v>14</v>
+      </c>
+      <c r="AC81" s="29">
+        <f>SUM(AC13:AC80)*1.3</f>
+        <v>38.675000000000004</v>
+      </c>
+      <c r="AD81" s="29"/>
+      <c r="AE81" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH81" s="29"/>
+      <c r="AI81" s="29"/>
+      <c r="AJ81" s="29"/>
+      <c r="AK81" s="29"/>
+      <c r="AL81" s="28"/>
+    </row>
+    <row r="82" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18">
+        <v>68</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
+      <c r="X82" s="29"/>
+      <c r="Y82" s="29"/>
+      <c r="Z82" s="29"/>
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="29"/>
+      <c r="AC82" s="29"/>
+      <c r="AD82" s="29"/>
+      <c r="AE82" s="29"/>
+      <c r="AF82" s="29"/>
+      <c r="AG82" s="29"/>
+      <c r="AH82" s="29"/>
+      <c r="AI82" s="29"/>
+      <c r="AJ82" s="29"/>
+      <c r="AK82" s="29"/>
+      <c r="AL82" s="28"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A14:AR80"/>
+  <autoFilter ref="A14:AR82"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="AH79:AL79 Z79:AE79 AE59:AL66 I59:I64 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ50:AR50 B53:H53 H52:H57 I52 I54:I57 J51:J54 J60:K68 H59:H74 J70:L73 I69:J69 B34:D34 F34:G34 H80:AL80 H79:W79 H13:M13 H51:AR51 A14:AL14 H50:AO50 H58:AR58 J74:Z74 P52:P58 D37 B37:C39 B35:G36 D38:E39 F37:G39 B16:AL19 B15:I15 K15:AL15 B20:I21 K21:AL21 L20:AL20 J20 K59 B27:AL30 B31:I32 B43:AR49 P74:P76 H75:AL78 H33:AL42 B33:G33 B26:I26 K26:AL26 B22:AL25 K52:Z57 K31:AL32 M59:AD73 B50:G80 L63:L69 B40:G42">
+  <conditionalFormatting sqref="AH81:AL81 Z81:AE81 AE61:AL68 I61:I66 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B55:H55 H54:H59 I54 I56:I59 J53:J56 J62:K70 H61:H76 J72:L75 I71:J71 B36:D36 F36:G36 H82:AL82 H81:W81 H13:M13 A14:AL14 H52:AO52 J76:Z76 P54:P60 D39 B39:C41 B37:G38 D40:E41 F39:G41 K15:AL17 B22:I23 K23:AL23 L22:AL22 J22 K61 B33:I34 B45:AR51 P76:P78 H77:AL80 H35:AL44 B35:G35 B28:I28 K28:AL28 B24:AL27 K54:Z59 K33:AL34 M61:AD75 B52:G82 L65:L71 B42:G44 B31:AL32 B30:H30 J30:AL30 B15:I17 B18:AL18 B29:AL29 B20:AL21 B19:H19 J19:AL19 H53:AR53 H60:AR60">
     <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V51:AD51 P51:T51 E51:N51 P52:P58 P15 P31:P32 P26">
+  <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P54:P60 P15:P17 P33:P34 P28">
     <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
@@ -6954,22 +7129,22 @@
       <formula>NOT(ISERROR(SEARCH("已完成",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V51:AD51 P51:T51 E51:N51 P52:P58 AJ14 AJ16:AJ25 P15 AJ27:AJ30 P31:P32 P26">
+  <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P54:P60 AJ14 AJ18:AJ27 P15:P17 AJ29:AJ32 P33:P34 P28">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
+  <conditionalFormatting sqref="J59">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34 E37">
+  <conditionalFormatting sqref="E36 E39">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="J23">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -6992,108 +7167,108 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G14" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G15" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="760" windowWidth="33120" windowHeight="19360" tabRatio="500"/>
+    <workbookView xWindow="5280" yWindow="460" windowWidth="33120" windowHeight="19360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑2" sheetId="1" r:id="rId1"/>
-    <sheet name="表1" sheetId="2" r:id="rId2"/>
+    <sheet name="问题记录" sheetId="2" r:id="rId2"/>
+    <sheet name="任务细分" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑2!$A$14:$AR$82</definedName>
@@ -28,429 +29,425 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="404">
   <si>
     <t>背包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>里程碑完成度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>05月27日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6月3日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6月10日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6月17日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6月24日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>策划分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文档反馈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文档分析</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数值反馈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户端缩减后</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户端分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务器缩减后</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务器分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>开发备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>策划配置缩减后</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>配置bug修复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>QA备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>里程碑完成度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>详细描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宠物基础架构</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>认为只是宠物相关的基础内容，不包含各种宠物相关的功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主角属性，账号基础数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-伤害公式计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>包含补充开发内容和添加log</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-AI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不包括ui动画效果(后面的ui都不包括ui特效)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-换宠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
   </si>
   <si>
     <t>核心战斗-照妖镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>抓宠、封妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务器时间算在结算了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局，技能动画表现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用例和测试放到每个本和怪身上具体测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>技能系统（服务器计算？对局内操作？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>按照xw说的非常简单的技能逻辑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文档分析和用例只考虑了文档修改部分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本基础逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>非同步pve</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>副本-照妖镜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本结算功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落表现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>内容项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人天*1.5，debug时间，和很多不确定因素，包括一些卡点，未知的文档，以及文档反馈修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文档分析时间为基础时间*1.5（与策划反馈修改）
 用例时间为基础时间*1.3（走读修改）
 测试时间为基础时间*2（提bug，验bug，出现不可预知阻碍，多机型兼容性）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2W2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2W1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2W3</t>
@@ -463,51 +460,51 @@
   </si>
   <si>
     <t>QA测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>策划文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>内容项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>参考内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>xw、胖子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
@@ -517,7 +514,7 @@
   </si>
   <si>
     <t>商店文档（商城、npc商店）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>社交</t>
@@ -548,150 +545,150 @@
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面（包括上阵宠物选择，各个坑接口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初期商业模型细化（次存保证、前3天付费）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>孔老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7天任务内容更新（修改成新版本任务系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>任务系统功能（包含对话配置方式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>动态战力变化模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本时间，难度调整模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本选择(副本信息）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>day6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>策划众人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小星day4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day6（小星day4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>团队克制设计、团队数值模型搭建（技能价值考虑，被动技能价值，针对不同玩法，尤其考虑pvp赛季循环设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>通天塔功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>通天塔内容设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>好友功能设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>社交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>已安排到响应项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>文档/配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
@@ -704,538 +701,526 @@
   </si>
   <si>
     <t>背包服务器数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day2,程序开发,封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>程序开发,封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day1,封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>QA测试</t>
   </si>
   <si>
     <t>QA测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day2,程序开发,封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>QA测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>程序开发,封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本-地形配置格式确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本-地形生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本-寻路部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本-互动元素添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>策划文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>策划文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普通难度5*3对局-文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗流程（进程，战斗）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手玩法指引方案（对局，副本）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物-动作*14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3出需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物-原画*8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物-3D*14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景-3D*1套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景-原画*1套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术制作规范回归</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、项目方向确定下来后，每个leader规划一下组内分工，确定一下各组员的主要负责模块以及辅助负责内容。让每个人对自己未来的工作可以有一个规划和计划，明确方向的侧重点。</t>
+  </si>
+  <si>
+    <t>在每个里程碑或者周版本内，根据工作侧重方向以及时间限制再做调整。如果有时间赶不上的情况，可能需要安排其他人员辅助主要人员的工作。</t>
+  </si>
+  <si>
+    <t>PM负责跟进工作安排情况，对于不合理的问题进行调整。</t>
+  </si>
+  <si>
+    <t>之前验收的内容任务点不够细，程序、策划、测试都需要注意（看之前的道具文档）</t>
+  </si>
+  <si>
+    <t>3、程序做的一些设计架构、配置或者规范存档一下，方便其他人查阅等</t>
+  </si>
+  <si>
+    <t>4、程序开发设计文档，评审步骤思考</t>
+  </si>
+  <si>
+    <t>6、开发、测试环境注意：安卓和ios都需要保证可以持续集成</t>
+  </si>
+  <si>
+    <t>7、svn提交内容需要有对应的任务或bug单号</t>
+  </si>
+  <si>
+    <t>8、策划、测试代码权限管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2）提交内容要与任务关联，非任务相关或版本内内容禁止直接提交</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2）测试只可以在分支提交代码？主干提交需要交给程序处理？</t>
+  </si>
+  <si>
+    <t>测试：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总结： 有关项目进展的情况，可以随时广播给大家 </t>
+  </si>
+  <si>
+    <t>程序开发,封文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMO验收后修改内容（不包括上面）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品原型制作-功能，内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物-boss-3D*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物-boss-动作*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6出需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物-原画boss*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手玩法指引方案（对局，副本）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物-动作*14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day3出需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物-原画*8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物-3D*14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景-3D*1套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景-原画*1套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术制作规范回归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、项目方向确定下来后，每个leader规划一下组内分工，确定一下各组员的主要负责模块以及辅助负责内容。让每个人对自己未来的工作可以有一个规划和计划，明确方向的侧重点。</t>
-  </si>
-  <si>
-    <t>在每个里程碑或者周版本内，根据工作侧重方向以及时间限制再做调整。如果有时间赶不上的情况，可能需要安排其他人员辅助主要人员的工作。</t>
-  </si>
-  <si>
-    <t>PM负责跟进工作安排情况，对于不合理的问题进行调整。</t>
-  </si>
-  <si>
-    <t>之前验收的内容任务点不够细，程序、策划、测试都需要注意（看之前的道具文档）</t>
-  </si>
-  <si>
-    <t>3、程序做的一些设计架构、配置或者规范存档一下，方便其他人查阅等</t>
-  </si>
-  <si>
-    <t>4、程序开发设计文档，评审步骤思考</t>
-  </si>
-  <si>
-    <t>6、开发、测试环境注意：安卓和ios都需要保证可以持续集成</t>
-  </si>
-  <si>
-    <t>7、svn提交内容需要有对应的任务或bug单号</t>
-  </si>
-  <si>
-    <t>8、策划、测试代码权限管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2）提交内容要与任务关联，非任务相关或版本内内容禁止直接提交</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2）测试只可以在分支提交代码？主干提交需要交给程序处理？</t>
-  </si>
-  <si>
-    <t>测试：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">总结： 有关项目进展的情况，可以随时广播给大家 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>程序开发,封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day1,封文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档，程序开发（服务器）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档，程序开发（服务器端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作状态机自动生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能-大招操作*？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day4,封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEMO验收后修改内容（不包括上面）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品原型制作-功能，内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物-boss-3D*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物-boss-动作*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day6出需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物-原画boss*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次开三方之后开始进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、美术需求需要开三方，拆分任务，时间预估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、三方，任务细分，时间预估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1）策划是否可以直接查看代码？提交权限限制到资源和配置？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划需要修改内容，提交需要遵循第7条规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要再尝试，确认这个问题。多问一下其他项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts、zz讨论确认谁负责提交的审核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑1延迟原因需要像大家说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本结点广播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑2目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">必须完成 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*3个对局制作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏原型设计-功能，内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏各系统设计文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>底线目标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠、封妖-程序制作完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中怪物阵容搭配设计，初期商业模型细化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具、任务等服务器功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">美术 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本基础功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪*14，boss*1，场景*1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码结构整理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
-  </si>
-  <si>
-    <t>封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序开发,封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三方前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三方前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day1,封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封文档，程序开发（服务器）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封文档，程序开发（服务器端）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作状态机自动生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次开三方之后开始进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、美术需求需要开三方，拆分任务，时间预估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、三方，任务细分，时间预估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1）策划是否可以直接查看代码？提交权限限制到资源和配置？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划需要修改内容，提交需要遵循第7条规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要再尝试，确认这个问题。多问一下其他项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts、zz讨论确认谁负责提交的审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑1延迟原因需要像大家说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本结点广播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑2目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">必须完成 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5*3个对局制作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏原型设计-功能，内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏各系统设计文档</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>底线目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓宠、封妖-程序制作完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏中怪物阵容搭配设计，初期商业模型细化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具、任务等服务器功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">美术 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>超额任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本基础功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪*14，boss*1，场景*1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码结构整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-服务器统计系统、任务配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-服务器任务交付、奖励发放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-服务器任务刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本-服务器端基础接口（进本的检测扣除返回随机种子和结算的验证和结果返回）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
     <rPh sb="0" eb="1">
       <t>te'xiao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>完成级别说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>三方后问题解决和Leader级别同意</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>策划验收</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>负责策划验收， 保证一致性和完整性，策划内部体验，有配置内容的功能，产出配置说明和测试数据， 意见收集。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>QA测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>按原来需求主要Bug解决</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>集体测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全员测试，Bug解决，收集反馈意见， 解决明显阻外， CB1拿出手。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>策划文档</t>
@@ -1245,7 +1230,7 @@
     <rPh sb="2" eb="3">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
@@ -1255,7 +1240,7 @@
     <rPh sb="2" eb="3">
       <t>qian</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
@@ -1265,7 +1250,7 @@
     <rPh sb="2" eb="3">
       <t>kai'fa</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>策划设计文档完成，主策划验收通过</t>
@@ -1290,7 +1275,7 @@
     <rPh sb="14" eb="15">
       <t>tong'guo</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>策划文档分析完成，达到三方前状态</t>
@@ -1315,7 +1300,7 @@
     <rPh sb="14" eb="15">
       <t>zhuang'tai</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>程序任务完成，主程验收通过，可以提交策划验收</t>
@@ -1349,7 +1334,7 @@
     <rPh sb="20" eb="21">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>副本配置5*3对局（音乐-临时资源，音效找旧资源</t>
@@ -1371,85 +1356,567 @@
     <rPh sb="22" eb="23">
       <t>zi'yuan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务端基础结构和配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>协议确定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对局功能完善（除了投喂），达到见玩家的程度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务器、客户端联调</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务器道具消耗和奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务器端装备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>day2,三方前</t>
     <rPh sb="5" eb="6">
       <t>san'fang'qian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
     <rPh sb="0" eb="1">
       <t>san'fang'qian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day3，三方前</t>
     <rPh sb="5" eb="6">
       <t>san'fang'qian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局，技能动画表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-大招操作*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前：程序开发</t>
+    <rPh sb="0" eb="1">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wan'ch</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：程序开发</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'xu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估时间</t>
+    <rPh sb="0" eb="1">
+      <t>yu'gu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计划预估时间</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'gu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>道具配置表</t>
+  </si>
+  <si>
+    <t>道具数据结构</t>
+  </si>
+  <si>
+    <t>宝箱获得道具ui动画</t>
+  </si>
+  <si>
+    <t>道具使用失败各种失败原因提示</t>
+  </si>
+  <si>
+    <t>道具绑定ui</t>
+  </si>
+  <si>
+    <t>道具Icon，tips，排版</t>
+    <rPh sb="12" eb="13">
+      <t>pai'ban</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备比较功能</t>
+  </si>
+  <si>
+    <t>道具操作界面按钮功能</t>
+  </si>
+  <si>
+    <t>置灰内容不做后统计时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <rPh sb="0" eb="1">
+      <t>zong'ji</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
+  </si>
+  <si>
+    <t>已完成</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统-服务端基础结构和配置</t>
+  </si>
+  <si>
+    <t>道具系统-服务器端装备</t>
+  </si>
+  <si>
+    <t>道具宝箱使用</t>
+  </si>
+  <si>
+    <t>奖励列表，奖励组</t>
+    <rPh sb="5" eb="6">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局UI-血条动画</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局UI-掉血弹数字动画</t>
+  </si>
+  <si>
+    <t>对局UI-buff图标替代规则修改</t>
+  </si>
+  <si>
+    <t>对局UI-ui挂特效-如大招</t>
+  </si>
+  <si>
+    <t>对局UI-集火UI能挂在弱点上</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'huo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局UI-buff去掉图标</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局换宠-ui增加能量条</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan'chong</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局换宠-换怪特效</t>
+  </si>
+  <si>
+    <t>对局照妖镜-弱点受击特效</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'yao'jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>te'xiao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局照妖镜-弱点死亡表现</t>
+  </si>
+  <si>
+    <t>对局照妖镜-照妖镜数据表配置（弱点类别，属性介绍，文字介绍，提示信息）</t>
+  </si>
+  <si>
+    <t>对局照妖镜-照妖镜对隐藏小怪处理</t>
+  </si>
+  <si>
+    <t>对局动画-进程动画具体设计</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>对局动画-开战动画</t>
+  </si>
+  <si>
+    <t>对局动画-胜利失败动画</t>
+  </si>
+  <si>
+    <t>对局动画- 前置动画删除了</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong'hua</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局流程-取消集火逻辑</t>
+  </si>
+  <si>
+    <t>对局流程-加速</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia'su</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局流程-服务器客户端上阵宠物数据同步</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>f'w'q</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局流程-切换条件判定</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>对局流程-对局成功失败条件判定</t>
+  </si>
+  <si>
+    <t>对局流程-副本对局配置拆大表</t>
+  </si>
+  <si>
+    <t>多语言</t>
+  </si>
+  <si>
+    <t>副本对局配置拆大表</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <rPh sb="0" eb="1">
+      <t>mo'kuai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <rPh sb="0" eb="1">
+      <t>fen'lei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <rPh sb="0" eb="1">
+      <t>da'zhao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术大招:成功失败逻辑</t>
+  </si>
+  <si>
+    <t>法术大招ui表现</t>
+  </si>
+  <si>
+    <t>法术大招伤害动画升格逻辑</t>
+  </si>
+  <si>
+    <t>物理大招最后一次伤害动画升格逻辑</t>
+  </si>
+  <si>
+    <t>物理大招ui表现</t>
+  </si>
+  <si>
+    <t>大招打断逻辑</t>
+  </si>
+  <si>
+    <t>大招打断表现</t>
+  </si>
+  <si>
+    <t>大招速度重算逻辑</t>
+  </si>
+  <si>
+    <t>大招配置走一套</t>
+  </si>
+  <si>
+    <t>//大招结束后中断对局</t>
+  </si>
+  <si>
+    <t>原计划是6个表现，目前是2个大招表现</t>
+  </si>
+  <si>
+    <t>延期：封文档</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>feng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具链接到相关界面功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <rPh sb="0" eb="1">
+      <t>zan'ting</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整：程序开发</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包画魂</t>
+    <rPh sb="0" eb="1">
+      <t>wai'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua'hun</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6（除画魂）</t>
+    <rPh sb="5" eb="6">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hua'hun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>封文档</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1540,8 +2007,43 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1551,6 +2053,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,304 +2124,335 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="142">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="144" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="144" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="144"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="142">
+  <cellStyles count="147">
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -1984,8 +2523,11 @@
     <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="144"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -2056,8 +2598,10 @@
     <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2123,48 +2667,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2512,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J60" sqref="I60:J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2527,7 +3029,9 @@
     <col min="7" max="7" width="8.85546875" style="5" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="5" customWidth="1"/>
-    <col min="10" max="12" width="8.7109375" style="5"/>
+    <col min="10" max="10" width="8.7109375" style="5"/>
+    <col min="11" max="11" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="5"/>
     <col min="13" max="13" width="17" style="5" customWidth="1"/>
     <col min="14" max="15" width="8.85546875" style="5" customWidth="1"/>
     <col min="16" max="17" width="8.7109375" style="5"/>
@@ -2544,10 +3048,10 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="50"/>
@@ -2559,20 +3063,20 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I3" s="49"/>
       <c r="P3" s="7"/>
@@ -2582,20 +3086,20 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I4" s="49"/>
       <c r="P4" s="8"/>
@@ -2606,17 +3110,17 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I5" s="49"/>
       <c r="P5" s="8"/>
@@ -2627,17 +3131,17 @@
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I6" s="49"/>
       <c r="P6" s="8"/>
@@ -2648,17 +3152,17 @@
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -2669,14 +3173,14 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -2687,14 +3191,14 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -2704,10 +3208,10 @@
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="F10" s="7"/>
       <c r="P10" s="7"/>
@@ -2717,13 +3221,13 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F11" s="8"/>
       <c r="P11" s="8"/>
@@ -2764,7 +3268,7 @@
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -2793,7 +3297,7 @@
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>1</v>
@@ -2814,25 +3318,25 @@
         <v>5</v>
       </c>
       <c r="H14" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="K14" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="L14" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>108</v>
-      </c>
       <c r="M14" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>12</v>
@@ -2912,25 +3416,29 @@
         <v>1</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="I15" s="22"/>
+        <v>246</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>330</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
@@ -2969,21 +3477,21 @@
         <v>62</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E16" s="21">
         <v>1</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="22"/>
@@ -3023,21 +3531,25 @@
         <v>62</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E17" s="21">
         <v>1</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22" t="s">
-        <v>319</v>
+        <v>315</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>315</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="22"/>
@@ -3086,14 +3598,14 @@
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -3167,14 +3679,14 @@
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -3245,14 +3757,14 @@
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -3316,22 +3828,22 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E21" s="19">
         <v>1</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -3396,23 +3908,23 @@
         <v>1</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -3460,18 +3972,18 @@
         <v>1</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
@@ -3538,20 +4050,20 @@
         <v>1</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
@@ -3616,21 +4128,21 @@
         <v>1</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19" t="s">
@@ -3694,19 +4206,21 @@
         <v>1</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G26" s="19"/>
+        <v>234</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>397</v>
+      </c>
       <c r="H26" s="19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19">
@@ -3727,7 +4241,7 @@
         <v>12</v>
       </c>
       <c r="U26" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
@@ -3766,23 +4280,23 @@
         <v>47</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
@@ -3819,7 +4333,7 @@
         <v>51</v>
       </c>
       <c r="AE27" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
@@ -3840,21 +4354,23 @@
         <v>47</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="22" t="s">
-        <v>264</v>
+      <c r="I28" s="69" t="s">
+        <v>260</v>
       </c>
       <c r="J28" s="9"/>
-      <c r="K28" s="22"/>
+      <c r="K28" s="22" t="s">
+        <v>399</v>
+      </c>
       <c r="L28" s="22"/>
       <c r="M28" s="19"/>
       <c r="N28" s="22"/>
@@ -3891,32 +4407,32 @@
         <v>35</v>
       </c>
       <c r="C29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O29" s="29" t="s">
         <v>38</v>
@@ -3951,7 +4467,7 @@
         <v>51</v>
       </c>
       <c r="AE29" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
@@ -3966,28 +4482,31 @@
         <v>16</v>
       </c>
       <c r="B30" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>76</v>
-      </c>
       <c r="D30" s="52" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19" t="s">
-        <v>238</v>
+        <v>403</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>395</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19">
@@ -4024,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="AD30" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE30" s="20" t="s">
         <v>77</v>
-      </c>
-      <c r="AE30" s="20" t="s">
-        <v>78</v>
       </c>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
@@ -4042,23 +4561,23 @@
         <v>17</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E31" s="19">
         <v>1</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -4066,10 +4585,10 @@
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -4100,23 +4619,23 @@
         <v>18</v>
       </c>
       <c r="B32" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>113</v>
-      </c>
       <c r="D32" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E32" s="19">
         <v>1</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
@@ -4127,7 +4646,7 @@
         <v>20</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P32" s="19">
         <f>N32*0.2</f>
@@ -4161,26 +4680,26 @@
         <v>19</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="D33" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E33" s="21">
         <v>1</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="9"/>
       <c r="K33" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="19"/>
@@ -4188,7 +4707,7 @@
         <v>3</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P33" s="19">
         <v>0.25</v>
@@ -4221,19 +4740,19 @@
         <v>20</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -4241,14 +4760,14 @@
       <c r="J34" s="9"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="22">
         <v>12</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P34" s="19">
         <v>0.25</v>
@@ -4283,24 +4802,26 @@
         <v>21</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C35" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>218</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>220</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G35" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>400</v>
+      </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -4337,27 +4858,29 @@
         <v>22</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E36" s="22">
         <v>1</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="29"/>
       <c r="I36" s="22" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="K36" s="22" t="s">
+        <v>401</v>
+      </c>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -4391,26 +4914,26 @@
         <v>23</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E37" s="22">
         <v>1</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
@@ -4445,29 +4968,29 @@
         <v>24</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E38" s="22">
         <v>1</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -4501,27 +5024,27 @@
         <v>25</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E39" s="22">
         <v>1</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="29"/>
       <c r="I39" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -4557,28 +5080,28 @@
         <v>26</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E40" s="22">
         <v>1</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
@@ -4613,29 +5136,29 @@
         <v>27</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E41" s="22">
         <v>1</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
       <c r="J41" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K41" s="22"/>
       <c r="L41" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -4669,27 +5192,27 @@
         <v>28</v>
       </c>
       <c r="B42" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>167</v>
-      </c>
       <c r="D42" s="37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E42" s="22">
         <v>1</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -4725,19 +5248,19 @@
         <v>29</v>
       </c>
       <c r="B43" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>167</v>
-      </c>
       <c r="D43" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E43" s="22">
         <v>1</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -4745,7 +5268,7 @@
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -4779,17 +5302,17 @@
         <v>30</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D44" s="48"/>
       <c r="E44" s="22">
         <v>1</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
@@ -4829,42 +5352,42 @@
         <v>31</v>
       </c>
       <c r="B45" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="D45" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="E45" s="19">
         <v>2</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G45" s="19"/>
       <c r="H45" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O45" s="26" t="s">
         <v>59</v>
       </c>
       <c r="P45" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q45" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
@@ -4878,10 +5401,10 @@
         <v>3</v>
       </c>
       <c r="W45" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="X45" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="X45" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
@@ -4893,7 +5416,7 @@
         <v>4</v>
       </c>
       <c r="AD45" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
@@ -4905,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="AJ45" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK45" s="19"/>
       <c r="AL45" s="19"/>
@@ -4924,24 +5447,24 @@
         <v>35</v>
       </c>
       <c r="C46" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>86</v>
       </c>
       <c r="E46" s="19">
         <v>2</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
@@ -4989,25 +5512,25 @@
         <v>33</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E47" s="19">
         <v>2</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
@@ -5049,26 +5572,26 @@
         <v>34</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48" s="19">
         <v>2</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
@@ -5109,26 +5632,26 @@
         <v>35</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E49" s="19">
         <v>2</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
       <c r="K49" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
@@ -5169,19 +5692,19 @@
         <v>36</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E50" s="19">
         <v>2</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
@@ -5189,7 +5712,7 @@
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
@@ -5229,23 +5752,23 @@
         <v>37</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D51" s="54" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E51" s="19">
         <v>2</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G51" s="19"/>
       <c r="H51" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
@@ -5289,27 +5812,27 @@
         <v>38</v>
       </c>
       <c r="B52" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="40" t="s">
         <v>87</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>88</v>
       </c>
       <c r="E52" s="19">
         <v>2</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
@@ -5338,7 +5861,7 @@
         <v>8</v>
       </c>
       <c r="W52" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X52" s="19"/>
       <c r="Y52" s="19"/>
@@ -5379,27 +5902,27 @@
         <v>39</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E53" s="19">
         <v>2</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
@@ -5408,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P53" s="19">
         <v>0.25</v>
@@ -5465,27 +5988,27 @@
         <v>40</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E54" s="29">
         <v>2</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -5494,7 +6017,7 @@
         <v>5</v>
       </c>
       <c r="O54" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P54" s="19">
         <v>0.25</v>
@@ -5517,33 +6040,33 @@
         <v>41</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" s="29">
         <v>3</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
       <c r="L55" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M55" s="29"/>
       <c r="N55" s="29">
         <v>5</v>
       </c>
       <c r="O55" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P55" s="19">
         <v>0.25</v>
@@ -5566,19 +6089,19 @@
         <v>42</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E56" s="29">
         <v>3</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
@@ -5586,14 +6109,14 @@
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
       <c r="L56" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M56" s="29"/>
       <c r="N56" s="29">
         <v>4</v>
       </c>
       <c r="O56" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P56" s="19">
         <v>0.25</v>
@@ -5614,26 +6137,26 @@
         <v>43</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E57" s="29">
         <v>2</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="19"/>
       <c r="J57" s="9"/>
       <c r="K57" s="29" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
@@ -5641,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P57" s="19">
         <v>0.25</v>
@@ -5662,26 +6185,26 @@
         <v>44</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" s="29">
         <v>2</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
       <c r="I58" s="19"/>
       <c r="J58" s="9"/>
       <c r="K58" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
@@ -5689,7 +6212,7 @@
         <v>3</v>
       </c>
       <c r="O58" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P58" s="19">
         <v>0.25</v>
@@ -5710,25 +6233,25 @@
         <v>45</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E59" s="29">
         <v>2</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="29"/>
@@ -5737,7 +6260,7 @@
         <v>4</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P59" s="19">
         <v>0.25</v>
@@ -5761,24 +6284,24 @@
         <v>35</v>
       </c>
       <c r="C60" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>92</v>
       </c>
       <c r="E60" s="29">
         <v>2</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="19"/>
@@ -5787,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="O60" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P60" s="19">
         <v>0.25</v>
@@ -5828,37 +6351,37 @@
         <v>47</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" s="29">
         <v>2</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N61" s="19">
         <v>4</v>
       </c>
       <c r="O61" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P61" s="19" t="s">
         <v>50</v>
@@ -5878,7 +6401,7 @@
         <v>18</v>
       </c>
       <c r="W61" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X61" s="19"/>
       <c r="Y61" s="19"/>
@@ -5891,7 +6414,7 @@
         <v>4</v>
       </c>
       <c r="AD61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
@@ -5907,24 +6430,28 @@
         <v>48</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E62" s="29">
         <v>2</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19" t="s">
-        <v>168</v>
+        <v>192</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="I62" s="70" t="s">
+        <v>167</v>
       </c>
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
@@ -5961,25 +6488,25 @@
         <v>49</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E63" s="29">
         <v>2</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="9"/>
@@ -6015,26 +6542,26 @@
         <v>50</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E64" s="29">
         <v>2</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
       <c r="K64" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="19"/>
@@ -6069,19 +6596,19 @@
         <v>51</v>
       </c>
       <c r="B65" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="D65" s="32" t="s">
         <v>122</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>123</v>
       </c>
       <c r="E65" s="29">
         <v>2</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
@@ -6089,14 +6616,14 @@
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
       <c r="L65" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M65" s="19"/>
       <c r="N65" s="19">
         <v>2.5</v>
       </c>
       <c r="O65" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P65" s="29">
         <f t="shared" ref="P65:P66" si="0">N65*0.2</f>
@@ -6130,25 +6657,25 @@
         <v>52</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C66" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>124</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>125</v>
       </c>
       <c r="E66" s="29">
         <v>2</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="19" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
@@ -6191,29 +6718,29 @@
         <v>53</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C67" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="32" t="s">
         <v>126</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>127</v>
       </c>
       <c r="E67" s="29">
         <v>2</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="9"/>
       <c r="J67" s="19"/>
       <c r="K67" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M67" s="19"/>
       <c r="N67" s="19">
@@ -6241,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="V67" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W67" s="19">
         <v>1</v>
@@ -6250,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="Y67" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z67" s="19"/>
       <c r="AA67" s="19"/>
@@ -6263,7 +6790,7 @@
         <v>0.5</v>
       </c>
       <c r="AF67" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG67" s="43"/>
       <c r="AH67" s="43"/>
@@ -6277,28 +6804,28 @@
         <v>54</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E68" s="29">
         <v>2</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="J68" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K68" s="19"/>
       <c r="L68" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M68" s="19"/>
       <c r="N68" s="19">
@@ -6325,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="Y68" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z68" s="30"/>
       <c r="AA68" s="19"/>
@@ -6346,10 +6873,10 @@
         <v>55</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D69" s="40" t="s">
         <v>0</v>
@@ -6358,24 +6885,24 @@
         <v>2</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="9"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L69" s="29" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M69" s="29"/>
       <c r="N69" s="29">
         <v>2</v>
       </c>
       <c r="O69" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P69" s="29">
         <f>N69*0.2</f>
@@ -6416,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="AD69" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
@@ -6424,26 +6951,26 @@
         <v>56</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E70" s="29">
         <v>2</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="9"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
@@ -6470,26 +6997,28 @@
         <v>57</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E71" s="29">
         <v>2</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="G71" s="29"/>
+        <v>192</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>400</v>
+      </c>
       <c r="H71" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>176</v>
+        <v>398</v>
       </c>
       <c r="J71" s="29"/>
       <c r="L71" s="29"/>
@@ -6498,14 +7027,14 @@
         <v>3</v>
       </c>
       <c r="O71" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P71" s="29">
         <f>N71*0.2</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q71" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R71" s="29"/>
       <c r="S71" s="29"/>
@@ -6540,23 +7069,25 @@
         <v>58</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E72" s="29">
         <v>2</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="G72" s="29"/>
+        <v>192</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>329</v>
+      </c>
       <c r="H72" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
@@ -6573,7 +7104,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="Q72" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
@@ -6581,13 +7112,13 @@
         <v>12</v>
       </c>
       <c r="U72" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V72" s="29">
         <v>18</v>
       </c>
       <c r="W72" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X72" s="28"/>
       <c r="Y72" s="29"/>
@@ -6600,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="AD72" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
@@ -6608,24 +7139,26 @@
         <v>59</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E73" s="29">
         <v>2</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="G73" s="29"/>
+        <v>192</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>329</v>
+      </c>
       <c r="H73" s="29"/>
       <c r="I73" s="29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
@@ -6654,24 +7187,26 @@
         <v>60</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E74" s="29">
         <v>2</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="G74" s="29"/>
+        <v>192</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>329</v>
+      </c>
       <c r="H74" s="29"/>
       <c r="I74" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
@@ -6700,25 +7235,27 @@
         <v>61</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E75" s="29">
         <v>2</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="G75" s="29"/>
+        <v>192</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>329</v>
+      </c>
       <c r="H75" s="29"/>
       <c r="I75" s="29"/>
       <c r="J75" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
@@ -6746,27 +7283,28 @@
         <v>62</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E76" s="29">
         <v>2</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
       <c r="J76" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L76" s="29"/>
       <c r="M76" s="29"/>
@@ -6796,26 +7334,26 @@
         <v>63</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E77" s="29">
         <v>2</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
@@ -6857,19 +7395,19 @@
         <v>64</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E78" s="29">
         <v>2</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
@@ -6877,14 +7415,14 @@
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
       <c r="L78" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M78" s="29"/>
       <c r="N78" s="29">
         <v>6</v>
       </c>
       <c r="O78" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P78" s="29">
         <f t="shared" si="1"/>
@@ -7043,7 +7581,7 @@
         <v>114</v>
       </c>
       <c r="W81" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z81" s="29">
         <f>SUM(Z14:Z80)</f>
@@ -7063,7 +7601,7 @@
       </c>
       <c r="AD81" s="29"/>
       <c r="AE81" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH81" s="29"/>
       <c r="AI81" s="29"/>
@@ -7115,43 +7653,53 @@
     </row>
   </sheetData>
   <autoFilter ref="A14:AR82"/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="AH81:AL81 Z81:AE81 AE61:AL68 I61:I66 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B55:H55 H54:H59 I54 I56:I59 J53:J56 J62:K70 H61:H76 J72:L75 I71:J71 B36:D36 F36:G36 H82:AL82 H81:W81 H13:M13 A14:AL14 H52:AO52 J76:Z76 P54:P60 D39 B39:C41 B37:G38 D40:E41 F39:G41 K15:AL17 B22:I23 K23:AL23 L22:AL22 J22 K61 B33:I34 B45:AR51 P76:P78 H77:AL80 H35:AL44 B35:G35 B28:I28 K28:AL28 B24:AL27 K54:Z59 K33:AL34 M61:AD75 B52:G82 L65:L71 B42:G44 B31:AL32 B30:H30 J30:AL30 B15:I17 B18:AL18 B29:AL29 B20:AL21 B19:H19 J19:AL19 H53:AR53 H60:AR60">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="AH81:AL81 Z81:AE81 AE61:AL68 I61:I66 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B55:H55 H54:H59 I54 I56:I59 J53:J56 J62:K70 J72:L75 I71:J71 B36:D36 F36:G36 H82:AL82 H81:W81 H13:M13 A14:AL14 H52:AO52 J76:Z76 P54:P60 D39 B39:C41 B37:G38 D40:E41 F39:G41 K15:AL17 B22:I23 K23:AL23 L22:AL22 J22 K61 B33:I34 B45:AR51 P76:P78 H77:AL80 H35:AL44 B35:G35 B28:I28 K28:AL28 B24:AL27 K54:Z59 K33:AL34 M61:AD75 L65:L71 B42:G44 B31:AL32 B30:H30 J30:AL30 B18:AL18 B29:AL29 B20:AL21 B19:H19 J19:AL19 H53:AR53 H60:AR60 B17:H17 B15:I16 B52:G82 H61:H76">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P54:P60 P15:P17 P33:P34 P28">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P54:P60 AJ14 AJ18:AJ27 P15:P17 AJ29:AJ32 P33:P34 P28">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36 E39">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7163,117 +7711,817 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="64">
+        <v>1</v>
+      </c>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="64">
+        <v>2</v>
+      </c>
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="64">
+        <v>1</v>
+      </c>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="64">
+        <v>1</v>
+      </c>
+      <c r="E5" s="65"/>
+    </row>
+    <row r="6" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="64">
+        <v>1</v>
+      </c>
+      <c r="E6" s="65"/>
+    </row>
+    <row r="7" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="64">
+        <v>1</v>
+      </c>
+      <c r="E8" s="65"/>
+    </row>
+    <row r="9" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="64">
+        <v>1</v>
+      </c>
+      <c r="E9" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="D10" s="64">
+        <v>1</v>
+      </c>
+      <c r="E10" s="65"/>
+    </row>
+    <row r="11" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="64">
+        <v>1</v>
+      </c>
+      <c r="E11" s="65"/>
+    </row>
+    <row r="12" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="64">
+        <v>2</v>
+      </c>
+      <c r="E12" s="65"/>
+    </row>
+    <row r="13" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="64">
+        <v>2</v>
+      </c>
+      <c r="E13" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" s="65"/>
+    </row>
+    <row r="15" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="64">
+        <v>1</v>
+      </c>
+      <c r="E15" s="65"/>
+    </row>
+    <row r="16" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="D16" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="65"/>
+    </row>
+    <row r="17" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" s="64">
+        <v>0</v>
+      </c>
+      <c r="E17" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="65"/>
+    </row>
+    <row r="19" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="D19" s="64">
+        <v>1</v>
+      </c>
+      <c r="E19" s="65"/>
+    </row>
+    <row r="20" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" s="64">
+        <v>1</v>
+      </c>
+      <c r="E20" s="65"/>
+    </row>
+    <row r="21" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="E21" s="65"/>
+    </row>
+    <row r="22" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" s="64">
+        <v>1</v>
+      </c>
+      <c r="E23" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" s="64">
+        <v>1</v>
+      </c>
+      <c r="E24" s="65"/>
+    </row>
+    <row r="25" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="D25" s="63">
+        <v>20.5</v>
+      </c>
+      <c r="E25" s="63">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="65"/>
+      <c r="B26" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="64">
+        <v>1</v>
+      </c>
+      <c r="E26" s="65"/>
+    </row>
+    <row r="27" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="D27" s="63">
+        <v>1</v>
+      </c>
+      <c r="E27" s="63"/>
+    </row>
+    <row r="29" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="D29" s="57">
+        <v>2</v>
+      </c>
+      <c r="E29" s="57"/>
+    </row>
+    <row r="30" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57" t="s">
+        <v>385</v>
+      </c>
+      <c r="D30" s="57">
+        <v>2</v>
+      </c>
+      <c r="E30" s="57"/>
+    </row>
+    <row r="31" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D31" s="57">
+        <v>2</v>
+      </c>
+      <c r="E31" s="57"/>
+    </row>
+    <row r="32" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="D32" s="57">
+        <v>1</v>
+      </c>
+      <c r="E32" s="57"/>
+    </row>
+    <row r="33" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" s="57">
+        <v>2</v>
+      </c>
+      <c r="E33" s="57"/>
+    </row>
+    <row r="34" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="D34" s="57">
+        <v>1</v>
+      </c>
+      <c r="E34" s="57"/>
+    </row>
+    <row r="35" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="D35" s="57">
+        <v>1</v>
+      </c>
+      <c r="E35" s="57"/>
+    </row>
+    <row r="36" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36" s="57">
+        <v>1</v>
+      </c>
+      <c r="E36" s="57"/>
+    </row>
+    <row r="37" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="D37" s="57">
+        <v>1</v>
+      </c>
+      <c r="E37" s="57"/>
+    </row>
+    <row r="38" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="D38" s="57">
+        <v>0</v>
+      </c>
+      <c r="E38" s="57"/>
+    </row>
+    <row r="39" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D39" s="68">
+        <v>13</v>
+      </c>
+      <c r="E39" s="68">
+        <v>12</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="61" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="58"/>
+      <c r="B42" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" s="59">
+        <v>2</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="58"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="D43" s="59">
+        <v>1</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="58"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="D44" s="59">
+        <v>1</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="58"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="D45" s="59">
+        <v>2</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="D46" s="59">
+        <v>1</v>
+      </c>
+      <c r="E46" s="56"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" s="59">
+        <v>4</v>
+      </c>
+      <c r="E47" s="56"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="58"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="D48" s="60">
+        <v>5</v>
+      </c>
+      <c r="E48" s="56"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="58"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="D49" s="60">
+        <v>4</v>
+      </c>
+      <c r="E49" s="56"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="D50" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="56"/>
+      <c r="F50" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="D51" s="55">
+        <v>20.5</v>
+      </c>
+      <c r="E51" s="55">
+        <v>12</v>
+      </c>
+      <c r="F51" s="62">
+        <f>SUM(D42:D50)-D49-D48</f>
+        <v>11.5</v>
+      </c>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="58"/>
+      <c r="B52" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="E53" s="56"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="58"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="59" t="s">
+        <v>349</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="E54" s="56"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="E55" s="56"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="58"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="D56" s="59">
+        <v>2</v>
+      </c>
+      <c r="E56" s="56"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="58"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D57" s="59">
+        <v>2</v>
+      </c>
+      <c r="E57" s="56"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" s="55">
+        <v>4</v>
+      </c>
+      <c r="E58" s="55">
+        <v>18</v>
+      </c>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="460" windowWidth="33120" windowHeight="19360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑2" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑2!$A$14:$AR$82</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="412">
   <si>
     <t>背包</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -708,10 +703,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>程序开发,封文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>封文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -732,14 +723,6 @@
   </si>
   <si>
     <t>day2,程序开发,封文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序开发,封文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1364,10 +1347,6 @@
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议确定</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1897,12 +1876,124 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：QA测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前：QA测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序开发,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>封文档</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>延期：程序开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，QA测试</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>延期：程序开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，QA测试</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议确定（角色、登录，宠物）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：程序开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序开发,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>封文档</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前：程序开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>程序开发，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>提前：QA测试</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2042,6 +2133,12 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2124,7 +2221,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2274,6 +2371,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2416,9 +2521,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2451,81 +2553,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="147">
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="155">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="144"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -2600,8 +2632,96 @@
     <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3014,11 +3134,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J60" sqref="I60:J61"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="6" customWidth="1"/>
@@ -3029,8 +3153,7 @@
     <col min="7" max="7" width="8.85546875" style="5" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="5"/>
-    <col min="11" max="11" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" style="5"/>
     <col min="13" max="13" width="17" style="5" customWidth="1"/>
     <col min="14" max="15" width="8.85546875" style="5" customWidth="1"/>
@@ -3039,19 +3162,19 @@
     <col min="28" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="F1" s="1"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="B2" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="50"/>
@@ -3061,22 +3184,22 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="B3" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="I3" s="49"/>
       <c r="P3" s="7"/>
@@ -3084,22 +3207,22 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="B4" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="I4" s="49"/>
       <c r="P4" s="8"/>
@@ -3107,20 +3230,20 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I5" s="49"/>
       <c r="P5" s="8"/>
@@ -3128,20 +3251,20 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="I6" s="49"/>
       <c r="P6" s="8"/>
@@ -3149,69 +3272,69 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7"/>
       <c r="P10" s="7"/>
@@ -3219,15 +3342,15 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="B11" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F11" s="8"/>
       <c r="P11" s="8"/>
@@ -3235,7 +3358,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="D12" s="6"/>
       <c r="F12" s="7"/>
       <c r="P12" s="7"/>
@@ -3243,7 +3366,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3295,7 +3418,7 @@
       <c r="AK13" s="14"/>
       <c r="AL13" s="15"/>
     </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="15">
       <c r="A14" s="12" t="s">
         <v>113</v>
       </c>
@@ -3411,33 +3534,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15">
       <c r="A15" s="18">
         <v>1</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
       </c>
       <c r="F15" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H15" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>249</v>
-      </c>
       <c r="I15" s="22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="22"/>
@@ -3469,7 +3592,7 @@
       <c r="AK15" s="22"/>
       <c r="AL15" s="24"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15">
       <c r="A16" s="18">
         <v>2</v>
       </c>
@@ -3480,18 +3603,20 @@
         <v>109</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>314</v>
+        <v>406</v>
       </c>
       <c r="E16" s="21">
         <v>1</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="G16" s="22"/>
+        <v>311</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>400</v>
+      </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="22"/>
@@ -3523,7 +3648,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="24"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15">
       <c r="A17" s="18">
         <v>3</v>
       </c>
@@ -3534,22 +3659,22 @@
         <v>109</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E17" s="21">
         <v>1</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="I17" s="69" t="s">
-        <v>315</v>
+        <v>324</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>311</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="22"/>
@@ -3581,7 +3706,7 @@
       <c r="AK17" s="22"/>
       <c r="AL17" s="24"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18" s="18">
         <v>4</v>
       </c>
@@ -3598,16 +3723,18 @@
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19" t="s">
-        <v>180</v>
-      </c>
       <c r="I18" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="J18" s="19"/>
+        <v>177</v>
+      </c>
+      <c r="J18" s="9"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -3662,7 +3789,7 @@
       <c r="AK18" s="28"/>
       <c r="AL18" s="28"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19" s="18">
         <v>5</v>
       </c>
@@ -3681,12 +3808,17 @@
       <c r="F19" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>400</v>
+      </c>
       <c r="H19" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="J19" s="19" t="s">
-        <v>178</v>
+      <c r="I19" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="J19" s="70" t="s">
+        <v>177</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -3740,7 +3872,7 @@
       <c r="AK19" s="28"/>
       <c r="AL19" s="28"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20" s="18">
         <v>6</v>
       </c>
@@ -3761,12 +3893,14 @@
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J20" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>401</v>
+      </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -3817,7 +3951,7 @@
       <c r="AK20" s="28"/>
       <c r="AL20" s="28"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15">
       <c r="A21" s="18">
         <v>7</v>
       </c>
@@ -3828,7 +3962,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E21" s="19">
         <v>1</v>
@@ -3838,12 +3972,12 @@
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -3891,7 +4025,7 @@
       <c r="AK21" s="28"/>
       <c r="AL21" s="28"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15">
       <c r="A22" s="18">
         <v>8</v>
       </c>
@@ -3915,10 +4049,10 @@
         <v>134</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
@@ -3955,7 +4089,7 @@
       <c r="AK22" s="28"/>
       <c r="AL22" s="28"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23" s="18">
         <v>9</v>
       </c>
@@ -3979,11 +4113,13 @@
         <v>116</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="J23" s="19"/>
+        <v>408</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>407</v>
+      </c>
       <c r="K23" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
@@ -4033,7 +4169,7 @@
       <c r="AK23" s="28"/>
       <c r="AL23" s="28"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15">
       <c r="A24" s="18">
         <v>10</v>
       </c>
@@ -4057,13 +4193,13 @@
         <v>116</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>168</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
@@ -4111,7 +4247,7 @@
       <c r="AK24" s="28"/>
       <c r="AL24" s="28"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25" s="18">
         <v>11</v>
       </c>
@@ -4135,14 +4271,16 @@
         <v>116</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="K25" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="L25" s="70" t="s">
+        <v>177</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19" t="s">
@@ -4189,7 +4327,7 @@
       <c r="AK25" s="28"/>
       <c r="AL25" s="28"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15">
       <c r="A26" s="18">
         <v>12</v>
       </c>
@@ -4206,16 +4344,16 @@
         <v>1</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
@@ -4241,7 +4379,7 @@
         <v>12</v>
       </c>
       <c r="U26" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
@@ -4269,7 +4407,7 @@
       <c r="AK26" s="28"/>
       <c r="AL26" s="33"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27" s="18">
         <v>13</v>
       </c>
@@ -4280,7 +4418,7 @@
         <v>47</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
@@ -4293,12 +4431,14 @@
         <v>116</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>182</v>
+        <v>403</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="K27" s="19"/>
+        <v>404</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>401</v>
+      </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19" t="s">
@@ -4343,7 +4483,7 @@
       <c r="AK27" s="28"/>
       <c r="AL27" s="28"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="15">
       <c r="A28" s="18">
         <v>14</v>
       </c>
@@ -4354,22 +4494,22 @@
         <v>47</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="69" t="s">
-        <v>260</v>
+      <c r="I28" s="68" t="s">
+        <v>257</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="19"/>
@@ -4399,7 +4539,7 @@
       <c r="AK28" s="22"/>
       <c r="AL28" s="24"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29" s="18">
         <v>15</v>
       </c>
@@ -4420,15 +4560,17 @@
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="I29" s="70" t="s">
+        <v>180</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="K29" s="19"/>
+        <v>405</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>401</v>
+      </c>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="19" t="s">
@@ -4477,7 +4619,7 @@
       <c r="AK29" s="28"/>
       <c r="AL29" s="28"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30" s="18">
         <v>16</v>
       </c>
@@ -4487,8 +4629,8 @@
       <c r="C30" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="52" t="s">
-        <v>327</v>
+      <c r="D30" s="25" t="s">
+        <v>323</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
@@ -4498,15 +4640,17 @@
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
+      <c r="K30" s="19" t="s">
+        <v>410</v>
+      </c>
       <c r="L30" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19">
@@ -4556,7 +4700,7 @@
       <c r="AK30" s="28"/>
       <c r="AL30" s="28"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="15">
       <c r="A31" s="18">
         <v>17</v>
       </c>
@@ -4567,7 +4711,7 @@
         <v>109</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E31" s="19">
         <v>1</v>
@@ -4614,7 +4758,7 @@
       <c r="AK31" s="28"/>
       <c r="AL31" s="24"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="15">
       <c r="A32" s="18">
         <v>18</v>
       </c>
@@ -4625,7 +4769,7 @@
         <v>112</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E32" s="19">
         <v>1</v>
@@ -4675,7 +4819,7 @@
       <c r="AK32" s="28"/>
       <c r="AL32" s="24"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" ht="15">
       <c r="A33" s="18">
         <v>19</v>
       </c>
@@ -4686,20 +4830,20 @@
         <v>99</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E33" s="21">
         <v>1</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="9"/>
       <c r="K33" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="19"/>
@@ -4735,7 +4879,7 @@
       <c r="AK33" s="22"/>
       <c r="AL33" s="28"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" ht="15">
       <c r="A34" s="18">
         <v>20</v>
       </c>
@@ -4746,13 +4890,13 @@
         <v>159</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -4797,31 +4941,31 @@
       <c r="AK34" s="22"/>
       <c r="AL34" s="28"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" ht="15">
       <c r="A35" s="18">
         <v>21</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -4853,7 +4997,7 @@
       <c r="AK35" s="29"/>
       <c r="AL35" s="28"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" ht="15">
       <c r="A36" s="18">
         <v>22</v>
       </c>
@@ -4864,22 +5008,22 @@
         <v>43</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E36" s="22">
         <v>1</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="29"/>
       <c r="I36" s="22" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="22" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
@@ -4909,7 +5053,7 @@
       <c r="AK36" s="22"/>
       <c r="AL36" s="38"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" ht="15">
       <c r="A37" s="18">
         <v>23</v>
       </c>
@@ -4920,20 +5064,20 @@
         <v>43</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E37" s="22">
         <v>1</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
@@ -4963,7 +5107,7 @@
       <c r="AK37" s="22"/>
       <c r="AL37" s="38"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" ht="15">
       <c r="A38" s="18">
         <v>24</v>
       </c>
@@ -4974,23 +5118,23 @@
         <v>43</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E38" s="22">
         <v>1</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -5019,7 +5163,7 @@
       <c r="AK38" s="22"/>
       <c r="AL38" s="38"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" ht="15">
       <c r="A39" s="18">
         <v>25</v>
       </c>
@@ -5030,21 +5174,21 @@
         <v>43</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E39" s="22">
         <v>1</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="29"/>
       <c r="I39" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -5075,7 +5219,7 @@
       <c r="AK39" s="22"/>
       <c r="AL39" s="38"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" ht="15">
       <c r="A40" s="18">
         <v>26</v>
       </c>
@@ -5086,22 +5230,22 @@
         <v>43</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E40" s="22">
         <v>1</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
@@ -5131,7 +5275,7 @@
       <c r="AK40" s="22"/>
       <c r="AL40" s="38"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" ht="15">
       <c r="A41" s="18">
         <v>27</v>
       </c>
@@ -5142,23 +5286,23 @@
         <v>43</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E41" s="22">
         <v>1</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
       <c r="J41" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K41" s="22"/>
       <c r="L41" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -5187,7 +5331,7 @@
       <c r="AK41" s="22"/>
       <c r="AL41" s="38"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" ht="15">
       <c r="A42" s="18">
         <v>28</v>
       </c>
@@ -5198,21 +5342,21 @@
         <v>166</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E42" s="22">
         <v>1</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -5243,7 +5387,7 @@
       <c r="AK42" s="22"/>
       <c r="AL42" s="38"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" ht="15">
       <c r="A43" s="18">
         <v>29</v>
       </c>
@@ -5254,13 +5398,13 @@
         <v>166</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E43" s="22">
         <v>1</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -5268,7 +5412,7 @@
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -5297,22 +5441,22 @@
       <c r="AK43" s="22"/>
       <c r="AL43" s="38"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" ht="15">
       <c r="A44" s="18">
         <v>30</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D44" s="48"/>
       <c r="E44" s="22">
         <v>1</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
@@ -5347,7 +5491,7 @@
       <c r="AK44" s="22"/>
       <c r="AL44" s="38"/>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" ht="15">
       <c r="A45" s="18">
         <v>31</v>
       </c>
@@ -5364,7 +5508,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G45" s="19"/>
       <c r="H45" s="19" t="s">
@@ -5372,7 +5516,7 @@
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
@@ -5439,7 +5583,7 @@
       <c r="AQ45" s="39"/>
       <c r="AR45" s="40"/>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" ht="15">
       <c r="A46" s="18">
         <v>32</v>
       </c>
@@ -5456,15 +5600,15 @@
         <v>2</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
@@ -5507,7 +5651,7 @@
       <c r="AQ46" s="39"/>
       <c r="AR46" s="40"/>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" ht="15">
       <c r="A47" s="18">
         <v>33</v>
       </c>
@@ -5518,13 +5662,13 @@
         <v>169</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E47" s="19">
         <v>2</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
@@ -5567,7 +5711,7 @@
       <c r="AQ47" s="39"/>
       <c r="AR47" s="40"/>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" ht="15">
       <c r="A48" s="18">
         <v>34</v>
       </c>
@@ -5578,13 +5722,13 @@
         <v>169</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E48" s="19">
         <v>2</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
@@ -5627,7 +5771,7 @@
       <c r="AQ48" s="39"/>
       <c r="AR48" s="40"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" ht="15">
       <c r="A49" s="18">
         <v>35</v>
       </c>
@@ -5638,13 +5782,13 @@
         <v>169</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E49" s="19">
         <v>2</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
@@ -5687,7 +5831,7 @@
       <c r="AQ49" s="39"/>
       <c r="AR49" s="40"/>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" ht="15">
       <c r="A50" s="18">
         <v>36</v>
       </c>
@@ -5698,13 +5842,13 @@
         <v>169</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E50" s="19">
         <v>2</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
@@ -5747,7 +5891,7 @@
       <c r="AQ50" s="39"/>
       <c r="AR50" s="40"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" ht="15">
       <c r="A51" s="18">
         <v>37</v>
       </c>
@@ -5757,14 +5901,14 @@
       <c r="C51" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="54" t="s">
-        <v>293</v>
+      <c r="D51" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="E51" s="19">
         <v>2</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G51" s="19"/>
       <c r="H51" s="19" t="s">
@@ -5807,7 +5951,7 @@
       <c r="AQ51" s="39"/>
       <c r="AR51" s="40"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" ht="15">
       <c r="A52" s="18">
         <v>38</v>
       </c>
@@ -5824,7 +5968,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="19" t="s">
@@ -5832,7 +5976,7 @@
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
@@ -5897,7 +6041,7 @@
       <c r="AQ52" s="39"/>
       <c r="AR52" s="40"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" ht="15">
       <c r="A53" s="18">
         <v>39</v>
       </c>
@@ -5914,7 +6058,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
@@ -5922,7 +6066,7 @@
         <v>144</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
@@ -5983,7 +6127,7 @@
       <c r="AQ53" s="39"/>
       <c r="AR53" s="40"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" ht="15">
       <c r="A54" s="18">
         <v>40</v>
       </c>
@@ -6000,7 +6144,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
@@ -6035,7 +6179,7 @@
       <c r="Y54" s="29"/>
       <c r="Z54" s="29"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" ht="15">
       <c r="A55" s="18">
         <v>41</v>
       </c>
@@ -6052,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
@@ -6084,7 +6228,7 @@
       <c r="Y55" s="29"/>
       <c r="Z55" s="29"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" ht="15">
       <c r="A56" s="18">
         <v>42</v>
       </c>
@@ -6095,13 +6239,13 @@
         <v>136</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E56" s="29">
         <v>3</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
@@ -6109,7 +6253,7 @@
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
       <c r="L56" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M56" s="29"/>
       <c r="N56" s="29">
@@ -6132,7 +6276,7 @@
       <c r="Y56" s="29"/>
       <c r="Z56" s="29"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" ht="15">
       <c r="A57" s="18">
         <v>43</v>
       </c>
@@ -6149,14 +6293,14 @@
         <v>2</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="19"/>
       <c r="J57" s="9"/>
       <c r="K57" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
@@ -6180,7 +6324,7 @@
       <c r="Y57" s="29"/>
       <c r="Z57" s="29"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" ht="15">
       <c r="A58" s="18">
         <v>44</v>
       </c>
@@ -6197,7 +6341,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
@@ -6228,7 +6372,7 @@
       <c r="Y58" s="29"/>
       <c r="Z58" s="29"/>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" ht="15">
       <c r="A59" s="18">
         <v>45</v>
       </c>
@@ -6245,13 +6389,13 @@
         <v>2</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="29"/>
@@ -6276,7 +6420,7 @@
       <c r="Y59" s="29"/>
       <c r="Z59" s="29"/>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" ht="15">
       <c r="A60" s="18">
         <v>46</v>
       </c>
@@ -6293,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
@@ -6301,7 +6445,7 @@
         <v>147</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="19"/>
@@ -6346,7 +6490,7 @@
       <c r="AQ60" s="39"/>
       <c r="AR60" s="40"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" ht="15">
       <c r="A61" s="18">
         <v>47</v>
       </c>
@@ -6363,19 +6507,19 @@
         <v>2</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N61" s="19">
         <v>4</v>
@@ -6425,7 +6569,7 @@
       <c r="AK61" s="19"/>
       <c r="AL61" s="19"/>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" ht="15">
       <c r="A62" s="18">
         <v>48</v>
       </c>
@@ -6436,21 +6580,21 @@
         <v>92</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E62" s="29">
         <v>2</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="I62" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="I62" s="69" t="s">
         <v>167</v>
       </c>
       <c r="J62" s="19"/>
@@ -6483,7 +6627,7 @@
       <c r="AK62" s="43"/>
       <c r="AL62" s="43"/>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" ht="15">
       <c r="A63" s="18">
         <v>49</v>
       </c>
@@ -6494,13 +6638,13 @@
         <v>92</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E63" s="29">
         <v>2</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
@@ -6537,7 +6681,7 @@
       <c r="AK63" s="43"/>
       <c r="AL63" s="43"/>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" ht="15">
       <c r="A64" s="18">
         <v>50</v>
       </c>
@@ -6548,13 +6692,13 @@
         <v>92</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E64" s="29">
         <v>2</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
@@ -6591,7 +6735,7 @@
       <c r="AK64" s="43"/>
       <c r="AL64" s="43"/>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="15">
       <c r="A65" s="18">
         <v>51</v>
       </c>
@@ -6608,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
@@ -6652,7 +6796,7 @@
       <c r="AK65" s="43"/>
       <c r="AL65" s="43"/>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="15">
       <c r="A66" s="18">
         <v>52</v>
       </c>
@@ -6669,13 +6813,13 @@
         <v>2</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
@@ -6713,7 +6857,7 @@
       <c r="AK66" s="43"/>
       <c r="AL66" s="43"/>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="15">
       <c r="A67" s="18">
         <v>53</v>
       </c>
@@ -6730,7 +6874,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
@@ -6740,7 +6884,7 @@
         <v>144</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M67" s="19"/>
       <c r="N67" s="19">
@@ -6799,7 +6943,7 @@
       <c r="AK67" s="43"/>
       <c r="AL67" s="43"/>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="15">
       <c r="A68" s="18">
         <v>54</v>
       </c>
@@ -6809,23 +6953,23 @@
       <c r="C68" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="53" t="s">
+      <c r="D68" s="52" t="s">
         <v>135</v>
       </c>
       <c r="E68" s="29">
         <v>2</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="J68" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K68" s="19"/>
       <c r="L68" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M68" s="19"/>
       <c r="N68" s="19">
@@ -6868,7 +7012,7 @@
       <c r="AK68" s="43"/>
       <c r="AL68" s="43"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="15">
       <c r="A69" s="18">
         <v>55</v>
       </c>
@@ -6885,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
@@ -6895,7 +7039,7 @@
         <v>134</v>
       </c>
       <c r="L69" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M69" s="29"/>
       <c r="N69" s="29">
@@ -6946,7 +7090,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" ht="15">
       <c r="A70" s="18">
         <v>56</v>
       </c>
@@ -6963,7 +7107,7 @@
         <v>2</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
@@ -6992,7 +7136,7 @@
       <c r="AC70" s="29"/>
       <c r="AD70" s="29"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="15">
       <c r="A71" s="18">
         <v>57</v>
       </c>
@@ -7003,22 +7147,22 @@
         <v>95</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E71" s="29">
         <v>2</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H71" s="36" t="s">
         <v>144</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J71" s="29"/>
       <c r="L71" s="29"/>
@@ -7064,7 +7208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="15">
       <c r="A72" s="18">
         <v>58</v>
       </c>
@@ -7075,16 +7219,16 @@
         <v>121</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E72" s="29">
         <v>2</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H72" s="29" t="s">
         <v>167</v>
@@ -7134,7 +7278,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="15">
       <c r="A73" s="18">
         <v>59</v>
       </c>
@@ -7145,20 +7289,20 @@
         <v>121</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E73" s="29">
         <v>2</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H73" s="29"/>
       <c r="I73" s="29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
@@ -7182,7 +7326,7 @@
       <c r="AC73" s="45"/>
       <c r="AD73" s="45"/>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="15">
       <c r="A74" s="18">
         <v>60</v>
       </c>
@@ -7193,16 +7337,16 @@
         <v>121</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E74" s="29">
         <v>2</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H74" s="29"/>
       <c r="I74" s="29" t="s">
@@ -7230,7 +7374,7 @@
       <c r="AC74" s="45"/>
       <c r="AD74" s="45"/>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="15">
       <c r="A75" s="18">
         <v>61</v>
       </c>
@@ -7247,10 +7391,10 @@
         <v>2</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H75" s="29"/>
       <c r="I75" s="29"/>
@@ -7278,7 +7422,7 @@
       <c r="AC75" s="45"/>
       <c r="AD75" s="45"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="15">
       <c r="A76" s="18">
         <v>62</v>
       </c>
@@ -7295,7 +7439,7 @@
         <v>2</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
@@ -7304,7 +7448,7 @@
         <v>144</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L76" s="29"/>
       <c r="M76" s="29"/>
@@ -7329,7 +7473,7 @@
       <c r="Y76" s="29"/>
       <c r="Z76" s="29"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" ht="15">
       <c r="A77" s="18">
         <v>63</v>
       </c>
@@ -7346,14 +7490,14 @@
         <v>2</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
@@ -7390,12 +7534,12 @@
       <c r="AK77" s="22"/>
       <c r="AL77" s="28"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" ht="15">
       <c r="A78" s="18">
         <v>64</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C78" s="36" t="s">
         <v>161</v>
@@ -7407,7 +7551,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
@@ -7453,7 +7597,7 @@
       <c r="AK78" s="29"/>
       <c r="AL78" s="28"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38">
       <c r="A79" s="18">
         <v>65</v>
       </c>
@@ -7495,7 +7639,7 @@
       <c r="AK79" s="29"/>
       <c r="AL79" s="28"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38">
       <c r="A80" s="18">
         <v>66</v>
       </c>
@@ -7537,7 +7681,7 @@
       <c r="AK80" s="29"/>
       <c r="AL80" s="28"/>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" ht="15">
       <c r="A81" s="18">
         <v>67</v>
       </c>
@@ -7609,7 +7753,7 @@
       <c r="AK81" s="29"/>
       <c r="AL81" s="28"/>
     </row>
-    <row r="82" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" ht="15" customHeight="1">
       <c r="A82" s="18">
         <v>68</v>
       </c>
@@ -7654,56 +7798,66 @@
   </sheetData>
   <autoFilter ref="A14:AR82"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="AH81:AL81 Z81:AE81 AE61:AL68 I61:I66 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B55:H55 H54:H59 I54 I56:I59 J53:J56 J62:K70 J72:L75 I71:J71 B36:D36 F36:G36 H82:AL82 H81:W81 H13:M13 A14:AL14 H52:AO52 J76:Z76 P54:P60 D39 B39:C41 B37:G38 D40:E41 F39:G41 K15:AL17 B22:I23 K23:AL23 L22:AL22 J22 K61 B33:I34 B45:AR51 P76:P78 H77:AL80 H35:AL44 B35:G35 B28:I28 K28:AL28 B24:AL27 K54:Z59 K33:AL34 M61:AD75 L65:L71 B42:G44 B31:AL32 B30:H30 J30:AL30 B18:AL18 B29:AL29 B20:AL21 B19:H19 J19:AL19 H53:AR53 H60:AR60 B17:H17 B15:I16 B52:G82 H61:H76">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+  <conditionalFormatting sqref="AH81:AL81 Z81:AE81 AE61:AL68 I61:I66 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B55:H55 H54:H59 I54 I56:I59 J53:J56 J62:K70 J72:L75 I71:J71 B36:D36 F36:G36 H82:AL82 H81:W81 H13:M13 A14:AL14 H52:AO52 J76:Z76 P54:P60 D39 B39:C41 B37:G38 D40:E41 F39:G41 B22:I23 K23:AL23 L22:AL22 J22 K61 B33:I34 B45:AR51 P76:P78 H77:AL80 H35:AL44 B35:G35 B28:I28 K28:AL28 K54:Z59 K33:AL34 M61:AD75 L65:L71 B42:G44 B31:AL32 B30:H30 J30:AL30 B19:H19 J19:AL19 H53:AR53 H60:AR60 B17:H17 B15:I16 B52:G82 H61:H76 B20:AL21 B18:I18 K15:AL18 B24:AL27 B29:AL29">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P54:P60 P15:P17 P33:P34 P28">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P54:P60 AJ14 AJ18:AJ27 P15:P17 AJ29:AJ32 P33:P34 P28">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36 E39">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36 E39">
+  <conditionalFormatting sqref="J23">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="I2:I6">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="I19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7715,114 +7869,119 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="H8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>224</v>
-      </c>
-      <c r="H8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="G16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>264</v>
-      </c>
-      <c r="G14" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>229</v>
-      </c>
-      <c r="G15" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7834,694 +7993,699 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:6" s="66" customFormat="1">
+      <c r="A1" s="66" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="65" customFormat="1">
+      <c r="A2" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="63">
+        <v>1</v>
+      </c>
+      <c r="E2" s="64"/>
+    </row>
+    <row r="3" spans="1:6" s="65" customFormat="1">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="63">
+        <v>2</v>
+      </c>
+      <c r="E3" s="64"/>
+    </row>
+    <row r="4" spans="1:6" s="65" customFormat="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" s="63">
+        <v>1</v>
+      </c>
+      <c r="E4" s="64"/>
+    </row>
+    <row r="5" spans="1:6" s="65" customFormat="1">
+      <c r="C5" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="63">
+        <v>1</v>
+      </c>
+      <c r="E5" s="64"/>
+    </row>
+    <row r="6" spans="1:6" s="65" customFormat="1">
+      <c r="C6" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="63">
+        <v>1</v>
+      </c>
+      <c r="E6" s="64"/>
+    </row>
+    <row r="7" spans="1:6" s="65" customFormat="1">
+      <c r="C7" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="65" customFormat="1">
+      <c r="C8" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="63">
+        <v>1</v>
+      </c>
+      <c r="E8" s="64"/>
+    </row>
+    <row r="9" spans="1:6" s="65" customFormat="1">
+      <c r="C9" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="63">
+        <v>1</v>
+      </c>
+      <c r="E9" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="65" customFormat="1">
+      <c r="C10" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="63">
+        <v>1</v>
+      </c>
+      <c r="E10" s="64"/>
+    </row>
+    <row r="11" spans="1:6" s="65" customFormat="1">
+      <c r="C11" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="63">
+        <v>1</v>
+      </c>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="1:6" s="65" customFormat="1">
+      <c r="C12" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="63">
+        <v>2</v>
+      </c>
+      <c r="E12" s="64"/>
+    </row>
+    <row r="13" spans="1:6" s="65" customFormat="1">
+      <c r="C13" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="63">
+        <v>2</v>
+      </c>
+      <c r="E13" s="63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="65" customFormat="1">
+      <c r="C14" s="63" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="64"/>
+    </row>
+    <row r="15" spans="1:6" s="65" customFormat="1">
+      <c r="C15" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="63">
+        <v>1</v>
+      </c>
+      <c r="E15" s="64"/>
+    </row>
+    <row r="16" spans="1:6" s="65" customFormat="1">
+      <c r="C16" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="64"/>
+    </row>
+    <row r="17" spans="1:5" s="65" customFormat="1">
+      <c r="C17" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="63">
+        <v>0</v>
+      </c>
+      <c r="E17" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="65" customFormat="1">
+      <c r="C18" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="64"/>
+    </row>
+    <row r="19" spans="1:5" s="65" customFormat="1">
+      <c r="C19" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="D19" s="63">
+        <v>1</v>
+      </c>
+      <c r="E19" s="64"/>
+    </row>
+    <row r="20" spans="1:5" s="65" customFormat="1">
+      <c r="C20" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" s="63">
+        <v>1</v>
+      </c>
+      <c r="E20" s="64"/>
+    </row>
+    <row r="21" spans="1:5" s="65" customFormat="1">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="E21" s="64"/>
+    </row>
+    <row r="22" spans="1:5" s="65" customFormat="1">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="64"/>
+    </row>
+    <row r="23" spans="1:5" s="65" customFormat="1">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="63">
+        <v>1</v>
+      </c>
+      <c r="E23" s="63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="65" customFormat="1">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="63">
+        <v>1</v>
+      </c>
+      <c r="E24" s="64"/>
+    </row>
+    <row r="25" spans="1:5" s="65" customFormat="1">
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="62">
+        <v>20.5</v>
+      </c>
+      <c r="E25" s="62">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="65" customFormat="1">
+      <c r="A26" s="64"/>
+      <c r="B26" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="D26" s="63">
+        <v>1</v>
+      </c>
+      <c r="E26" s="64"/>
+    </row>
+    <row r="27" spans="1:5" s="65" customFormat="1">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="62">
+        <v>1</v>
+      </c>
+      <c r="E27" s="62"/>
+    </row>
+    <row r="29" spans="1:5" s="60" customFormat="1">
+      <c r="A29" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="D29" s="56">
+        <v>2</v>
+      </c>
+      <c r="E29" s="56"/>
+    </row>
+    <row r="30" spans="1:5" s="60" customFormat="1">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="D30" s="56">
+        <v>2</v>
+      </c>
+      <c r="E30" s="56"/>
+    </row>
+    <row r="31" spans="1:5" s="60" customFormat="1">
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="67" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1" s="68" t="s">
+      <c r="D31" s="56">
+        <v>2</v>
+      </c>
+      <c r="E31" s="56"/>
+    </row>
+    <row r="32" spans="1:5" s="60" customFormat="1">
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" s="56">
+        <v>1</v>
+      </c>
+      <c r="E32" s="56"/>
+    </row>
+    <row r="33" spans="1:8" s="60" customFormat="1">
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="D33" s="56">
+        <v>2</v>
+      </c>
+      <c r="E33" s="56"/>
+    </row>
+    <row r="34" spans="1:8" s="60" customFormat="1">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56" t="s">
+        <v>385</v>
+      </c>
+      <c r="D34" s="56">
+        <v>1</v>
+      </c>
+      <c r="E34" s="56"/>
+    </row>
+    <row r="35" spans="1:8" s="60" customFormat="1">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="56">
+        <v>1</v>
+      </c>
+      <c r="E35" s="56"/>
+    </row>
+    <row r="36" spans="1:8" s="60" customFormat="1">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="D36" s="56">
+        <v>1</v>
+      </c>
+      <c r="E36" s="56"/>
+    </row>
+    <row r="37" spans="1:8" s="60" customFormat="1">
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="D37" s="56">
+        <v>1</v>
+      </c>
+      <c r="E37" s="56"/>
+    </row>
+    <row r="38" spans="1:8" s="60" customFormat="1">
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="D38" s="56">
+        <v>0</v>
+      </c>
+      <c r="E38" s="56"/>
+    </row>
+    <row r="39" spans="1:8" s="60" customFormat="1">
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" s="67">
+        <v>13</v>
+      </c>
+      <c r="E39" s="67">
+        <v>12</v>
+      </c>
+      <c r="F39" s="60" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="60" customFormat="1"/>
+    <row r="41" spans="1:8">
+      <c r="A41" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="57"/>
+      <c r="B42" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="D42" s="58">
+        <v>2</v>
+      </c>
+      <c r="E42" s="55"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="57"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="D43" s="58">
+        <v>1</v>
+      </c>
+      <c r="E43" s="55"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="57"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="58" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="D44" s="58">
+        <v>1</v>
+      </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="57"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="64" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" s="64">
+      <c r="D45" s="58">
+        <v>2</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="57"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="D46" s="58">
         <v>1</v>
       </c>
-      <c r="E2" s="65"/>
-    </row>
-    <row r="3" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="64" t="s">
-        <v>355</v>
-      </c>
-      <c r="D3" s="64">
-        <v>2</v>
-      </c>
-      <c r="E3" s="65"/>
-    </row>
-    <row r="4" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="D4" s="64">
-        <v>1</v>
-      </c>
-      <c r="E4" s="65"/>
-    </row>
-    <row r="5" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="D5" s="64">
-        <v>1</v>
-      </c>
-      <c r="E5" s="65"/>
-    </row>
-    <row r="6" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="64" t="s">
-        <v>358</v>
-      </c>
-      <c r="D6" s="64">
-        <v>1</v>
-      </c>
-      <c r="E6" s="65"/>
-    </row>
-    <row r="7" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="64" t="s">
-        <v>359</v>
-      </c>
-      <c r="D7" s="64">
+      <c r="E46" s="55"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="57"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="D47" s="58">
+        <v>4</v>
+      </c>
+      <c r="E47" s="55"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="57"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="D48" s="59">
+        <v>5</v>
+      </c>
+      <c r="E48" s="55"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="57"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="D49" s="59">
+        <v>4</v>
+      </c>
+      <c r="E49" s="55"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="57"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="58">
         <v>0.5</v>
       </c>
-      <c r="E7" s="64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D8" s="64">
-        <v>1</v>
-      </c>
-      <c r="E8" s="65"/>
-    </row>
-    <row r="9" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" s="64">
-        <v>1</v>
-      </c>
-      <c r="E9" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="D10" s="64">
-        <v>1</v>
-      </c>
-      <c r="E10" s="65"/>
-    </row>
-    <row r="11" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="64" t="s">
-        <v>363</v>
-      </c>
-      <c r="D11" s="64">
-        <v>1</v>
-      </c>
-      <c r="E11" s="65"/>
-    </row>
-    <row r="12" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="64" t="s">
-        <v>364</v>
-      </c>
-      <c r="D12" s="64">
-        <v>2</v>
-      </c>
-      <c r="E12" s="65"/>
-    </row>
-    <row r="13" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="64" t="s">
-        <v>365</v>
-      </c>
-      <c r="D13" s="64">
-        <v>2</v>
-      </c>
-      <c r="E13" s="64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>367</v>
-      </c>
-      <c r="E14" s="65"/>
-    </row>
-    <row r="15" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="D15" s="64">
-        <v>1</v>
-      </c>
-      <c r="E15" s="65"/>
-    </row>
-    <row r="16" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="64" t="s">
-        <v>369</v>
-      </c>
-      <c r="D16" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="65"/>
-    </row>
-    <row r="17" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="64" t="s">
-        <v>370</v>
-      </c>
-      <c r="D17" s="64">
-        <v>0</v>
-      </c>
-      <c r="E17" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="64" t="s">
-        <v>371</v>
-      </c>
-      <c r="D18" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="65"/>
-    </row>
-    <row r="19" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="64" t="s">
-        <v>372</v>
-      </c>
-      <c r="D19" s="64">
-        <v>1</v>
-      </c>
-      <c r="E19" s="65"/>
-    </row>
-    <row r="20" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="64" t="s">
-        <v>373</v>
-      </c>
-      <c r="D20" s="64">
-        <v>1</v>
-      </c>
-      <c r="E20" s="65"/>
-    </row>
-    <row r="21" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="E21" s="65"/>
-    </row>
-    <row r="22" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="D22" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="E22" s="65"/>
-    </row>
-    <row r="23" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="64" t="s">
-        <v>377</v>
-      </c>
-      <c r="D23" s="64">
-        <v>1</v>
-      </c>
-      <c r="E23" s="64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="64" t="s">
-        <v>378</v>
-      </c>
-      <c r="D24" s="64">
-        <v>1</v>
-      </c>
-      <c r="E24" s="65"/>
-    </row>
-    <row r="25" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="63" t="s">
-        <v>345</v>
-      </c>
-      <c r="D25" s="63">
+      <c r="E50" s="55"/>
+      <c r="F50" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="57"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" s="54">
         <v>20.5</v>
       </c>
-      <c r="E25" s="63">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>379</v>
-      </c>
-      <c r="D26" s="64">
-        <v>1</v>
-      </c>
-      <c r="E26" s="65"/>
-    </row>
-    <row r="27" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="63" t="s">
-        <v>345</v>
-      </c>
-      <c r="D27" s="63">
-        <v>1</v>
-      </c>
-      <c r="E27" s="63"/>
-    </row>
-    <row r="29" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>335</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>384</v>
-      </c>
-      <c r="D29" s="57">
-        <v>2</v>
-      </c>
-      <c r="E29" s="57"/>
-    </row>
-    <row r="30" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="D30" s="57">
-        <v>2</v>
-      </c>
-      <c r="E30" s="57"/>
-    </row>
-    <row r="31" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57" t="s">
-        <v>386</v>
-      </c>
-      <c r="D31" s="57">
-        <v>2</v>
-      </c>
-      <c r="E31" s="57"/>
-    </row>
-    <row r="32" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="D32" s="57">
-        <v>1</v>
-      </c>
-      <c r="E32" s="57"/>
-    </row>
-    <row r="33" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57" t="s">
-        <v>388</v>
-      </c>
-      <c r="D33" s="57">
-        <v>2</v>
-      </c>
-      <c r="E33" s="57"/>
-    </row>
-    <row r="34" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57" t="s">
-        <v>389</v>
-      </c>
-      <c r="D34" s="57">
-        <v>1</v>
-      </c>
-      <c r="E34" s="57"/>
-    </row>
-    <row r="35" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57" t="s">
-        <v>390</v>
-      </c>
-      <c r="D35" s="57">
-        <v>1</v>
-      </c>
-      <c r="E35" s="57"/>
-    </row>
-    <row r="36" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57" t="s">
-        <v>391</v>
-      </c>
-      <c r="D36" s="57">
-        <v>1</v>
-      </c>
-      <c r="E36" s="57"/>
-    </row>
-    <row r="37" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57" t="s">
-        <v>392</v>
-      </c>
-      <c r="D37" s="57">
-        <v>1</v>
-      </c>
-      <c r="E37" s="57"/>
-    </row>
-    <row r="38" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57" t="s">
-        <v>393</v>
-      </c>
-      <c r="D38" s="57">
-        <v>0</v>
-      </c>
-      <c r="E38" s="57"/>
-    </row>
-    <row r="39" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="68" t="s">
-        <v>345</v>
-      </c>
-      <c r="D39" s="68">
-        <v>13</v>
-      </c>
-      <c r="E39" s="68">
+      <c r="E51" s="54">
         <v>12</v>
       </c>
-      <c r="F39" s="61" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="61" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59" t="s">
-        <v>335</v>
-      </c>
-      <c r="C42" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="D42" s="59">
-        <v>2</v>
-      </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="59" t="s">
-        <v>337</v>
-      </c>
-      <c r="D43" s="59">
-        <v>1</v>
-      </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="59" t="s">
-        <v>338</v>
-      </c>
-      <c r="D44" s="59">
-        <v>1</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="59" t="s">
-        <v>339</v>
-      </c>
-      <c r="D45" s="59">
-        <v>2</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="D46" s="59">
-        <v>1</v>
-      </c>
-      <c r="E46" s="56"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="D47" s="59">
-        <v>4</v>
-      </c>
-      <c r="E47" s="56"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="D48" s="60">
-        <v>5</v>
-      </c>
-      <c r="E48" s="56"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="D49" s="60">
-        <v>4</v>
-      </c>
-      <c r="E49" s="56"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="D50" s="59">
-        <v>0.5</v>
-      </c>
-      <c r="E50" s="56"/>
-      <c r="F50" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="55" t="s">
-        <v>345</v>
-      </c>
-      <c r="D51" s="55">
-        <v>20.5</v>
-      </c>
-      <c r="E51" s="55">
-        <v>12</v>
-      </c>
-      <c r="F51" s="62">
+      <c r="F51" s="61">
         <f>SUM(D42:D50)-D49-D48</f>
         <v>11.5</v>
       </c>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59" t="s">
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="57"/>
+      <c r="B52" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="57"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="E53" s="55"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="57"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="E54" s="55"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="57"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="59" t="s">
+      <c r="D55" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="E55" s="55"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="57"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D56" s="58">
+        <v>2</v>
+      </c>
+      <c r="E56" s="55"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="57"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="E53" s="56"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="59" t="s">
-        <v>349</v>
-      </c>
-      <c r="D54" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="E54" s="56"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="59" t="s">
-        <v>350</v>
-      </c>
-      <c r="D55" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="E55" s="56"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="D56" s="59">
+      <c r="D57" s="58">
         <v>2</v>
       </c>
-      <c r="E56" s="56"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="D57" s="59">
-        <v>2</v>
-      </c>
-      <c r="E57" s="56"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="55" t="s">
-        <v>345</v>
-      </c>
-      <c r="D58" s="55">
+      <c r="E57" s="55"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="D58" s="54">
         <v>4</v>
       </c>
-      <c r="E58" s="55">
+      <c r="E58" s="54">
         <v>18</v>
       </c>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="5940" yWindow="80" windowWidth="35780" windowHeight="18860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="414">
   <si>
     <t>背包</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -305,10 +305,6 @@
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能系统（服务器计算？对局内操作？）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -579,10 +575,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>day3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>动态战力变化模型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -599,10 +591,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>day6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>策划众人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -708,10 +696,6 @@
   </si>
   <si>
     <t>day4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>day1,封文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1924,21 +1908,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>延期：程序开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，QA测试</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>协议确定（角色、登录，宠物）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1987,6 +1956,52 @@
       <t>提前：QA测试</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>延期：程序开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，QA测试</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统（除表现）</t>
+    <rPh sb="5" eb="6">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：程序开发，QA测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4,封文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效，对局、大招特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月26日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2221,7 +2236,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2379,8 +2394,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2556,8 +2573,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="157">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="144"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -2636,6 +2656,7 @@
     <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -2712,9 +2733,43 @@
     <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3135,11 +3190,11 @@
   <dimension ref="A1:AR82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="E11" sqref="E11"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3154,7 +3209,7 @@
     <col min="8" max="8" width="18.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="5" customWidth="1"/>
     <col min="10" max="11" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="5"/>
+    <col min="12" max="12" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="5" customWidth="1"/>
     <col min="14" max="15" width="8.85546875" style="5" customWidth="1"/>
     <col min="16" max="17" width="8.7109375" style="5"/>
@@ -3171,10 +3226,10 @@
     </row>
     <row r="2" spans="1:38">
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="50"/>
@@ -3186,20 +3241,20 @@
     </row>
     <row r="3" spans="1:38">
       <c r="B3" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I3" s="49"/>
       <c r="P3" s="7"/>
@@ -3209,20 +3264,20 @@
     </row>
     <row r="4" spans="1:38">
       <c r="B4" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I4" s="49"/>
       <c r="P4" s="8"/>
@@ -3233,17 +3288,17 @@
     <row r="5" spans="1:38">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I5" s="49"/>
       <c r="P5" s="8"/>
@@ -3254,17 +3309,17 @@
     <row r="6" spans="1:38">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I6" s="49"/>
       <c r="P6" s="8"/>
@@ -3275,17 +3330,17 @@
     <row r="7" spans="1:38">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -3296,14 +3351,14 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -3314,14 +3369,14 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -3331,10 +3386,10 @@
     <row r="10" spans="1:38">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="F10" s="7"/>
       <c r="P10" s="7"/>
@@ -3344,13 +3399,13 @@
     </row>
     <row r="11" spans="1:38">
       <c r="B11" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F11" s="8"/>
       <c r="P11" s="8"/>
@@ -3391,7 +3446,7 @@
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -3420,7 +3475,7 @@
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="15">
       <c r="A14" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>1</v>
@@ -3441,25 +3496,25 @@
         <v>5</v>
       </c>
       <c r="H14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="K14" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="L14" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="M14" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>12</v>
@@ -3539,28 +3594,28 @@
         <v>1</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="22"/>
@@ -3600,23 +3655,23 @@
         <v>62</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E16" s="21">
         <v>1</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="22"/>
@@ -3656,25 +3711,25 @@
         <v>62</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E17" s="21">
         <v>1</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="22"/>
@@ -3706,7 +3761,7 @@
       <c r="AK17" s="22"/>
       <c r="AL17" s="24"/>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" ht="15">
       <c r="A18" s="18">
         <v>4</v>
       </c>
@@ -3723,16 +3778,16 @@
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="19"/>
@@ -3789,7 +3844,7 @@
       <c r="AK18" s="28"/>
       <c r="AL18" s="28"/>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" ht="15">
       <c r="A19" s="18">
         <v>5</v>
       </c>
@@ -3806,19 +3861,19 @@
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H19" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="J19" s="70" t="s">
         <v>173</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="J19" s="70" t="s">
-        <v>177</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -3872,7 +3927,7 @@
       <c r="AK19" s="28"/>
       <c r="AL19" s="28"/>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" ht="15">
       <c r="A20" s="18">
         <v>6</v>
       </c>
@@ -3889,17 +3944,17 @@
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I20" s="70" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -3962,22 +4017,22 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E21" s="19">
         <v>1</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -4042,23 +4097,23 @@
         <v>1</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -4089,7 +4144,7 @@
       <c r="AK22" s="28"/>
       <c r="AL22" s="28"/>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" ht="15">
       <c r="A23" s="18">
         <v>9</v>
       </c>
@@ -4106,20 +4161,20 @@
         <v>1</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
@@ -4186,20 +4241,20 @@
         <v>1</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
@@ -4247,7 +4302,7 @@
       <c r="AK24" s="28"/>
       <c r="AL24" s="28"/>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" ht="15">
       <c r="A25" s="18">
         <v>11</v>
       </c>
@@ -4264,23 +4319,23 @@
         <v>1</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K25" s="70" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L25" s="70" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19" t="s">
@@ -4344,21 +4399,21 @@
         <v>1</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19">
@@ -4379,7 +4434,7 @@
         <v>12</v>
       </c>
       <c r="U26" s="19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
@@ -4407,7 +4462,7 @@
       <c r="AK26" s="28"/>
       <c r="AL26" s="33"/>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" ht="15">
       <c r="A27" s="18">
         <v>13</v>
       </c>
@@ -4418,26 +4473,26 @@
         <v>47</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -4483,7 +4538,7 @@
       <c r="AK27" s="28"/>
       <c r="AL27" s="28"/>
     </row>
-    <row r="28" spans="1:38" ht="15">
+    <row r="28" spans="1:38">
       <c r="A28" s="18">
         <v>14</v>
       </c>
@@ -4494,24 +4549,23 @@
         <v>47</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="68" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J28" s="9"/>
-      <c r="K28" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="L28" s="22"/>
+      <c r="L28" s="22" t="s">
+        <v>391</v>
+      </c>
       <c r="M28" s="19"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
@@ -4539,7 +4593,7 @@
       <c r="AK28" s="22"/>
       <c r="AL28" s="24"/>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" ht="15">
       <c r="A29" s="18">
         <v>15</v>
       </c>
@@ -4550,31 +4604,29 @@
         <v>70</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>71</v>
+        <v>408</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I29" s="70" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>401</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O29" s="29" t="s">
         <v>38</v>
@@ -4609,7 +4661,7 @@
         <v>51</v>
       </c>
       <c r="AE29" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
@@ -4624,33 +4676,33 @@
         <v>16</v>
       </c>
       <c r="B30" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>75</v>
-      </c>
       <c r="D30" s="25" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J30" s="19"/>
-      <c r="K30" s="19" t="s">
-        <v>410</v>
+      <c r="K30" s="70" t="s">
+        <v>405</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>178</v>
+        <v>409</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19">
@@ -4687,10 +4739,10 @@
         <v>2</v>
       </c>
       <c r="AD30" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE30" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="AE30" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
@@ -4705,23 +4757,23 @@
         <v>17</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E31" s="19">
         <v>1</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -4729,10 +4781,10 @@
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -4763,23 +4815,23 @@
         <v>18</v>
       </c>
       <c r="B32" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>112</v>
-      </c>
       <c r="D32" s="25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E32" s="19">
         <v>1</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
@@ -4790,7 +4842,7 @@
         <v>20</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P32" s="19">
         <f>N32*0.2</f>
@@ -4824,26 +4876,26 @@
         <v>19</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="D33" s="34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E33" s="21">
         <v>1</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="9"/>
       <c r="K33" s="22" t="s">
-        <v>176</v>
+        <v>410</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="19"/>
@@ -4851,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P33" s="19">
         <v>0.25</v>
@@ -4884,19 +4936,19 @@
         <v>20</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -4904,14 +4956,14 @@
       <c r="J34" s="9"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22" t="s">
-        <v>142</v>
+        <v>411</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="22">
         <v>12</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P34" s="19">
         <v>0.25</v>
@@ -4946,26 +4998,26 @@
         <v>21</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -4997,33 +5049,33 @@
       <c r="AK35" s="29"/>
       <c r="AL35" s="28"/>
     </row>
-    <row r="36" spans="1:44" ht="15">
+    <row r="36" spans="1:44">
       <c r="A36" s="18">
         <v>22</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E36" s="22">
         <v>1</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="29"/>
       <c r="I36" s="22" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J36" s="22"/>
-      <c r="K36" s="22" t="s">
-        <v>397</v>
+      <c r="K36" s="71" t="s">
+        <v>393</v>
       </c>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
@@ -5058,26 +5110,26 @@
         <v>23</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E37" s="22">
         <v>1</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
@@ -5107,34 +5159,34 @@
       <c r="AK37" s="22"/>
       <c r="AL37" s="38"/>
     </row>
-    <row r="38" spans="1:44" ht="15">
+    <row r="38" spans="1:44">
       <c r="A38" s="18">
         <v>24</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E38" s="22">
         <v>1</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22" t="s">
-        <v>209</v>
+        <v>200</v>
+      </c>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68" t="s">
+        <v>205</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -5163,35 +5215,35 @@
       <c r="AK38" s="22"/>
       <c r="AL38" s="38"/>
     </row>
-    <row r="39" spans="1:44" ht="15">
+    <row r="39" spans="1:44">
       <c r="A39" s="18">
         <v>25</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E39" s="22">
         <v>1</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="29"/>
       <c r="I39" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="J39" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -5219,35 +5271,35 @@
       <c r="AK39" s="22"/>
       <c r="AL39" s="38"/>
     </row>
-    <row r="40" spans="1:44" ht="15">
+    <row r="40" spans="1:44">
       <c r="A40" s="18">
         <v>26</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E40" s="22">
         <v>1</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="L40" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="L40" s="68"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -5275,34 +5327,34 @@
       <c r="AK40" s="22"/>
       <c r="AL40" s="38"/>
     </row>
-    <row r="41" spans="1:44" ht="15">
+    <row r="41" spans="1:44">
       <c r="A41" s="18">
         <v>27</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E41" s="22">
         <v>1</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22" t="s">
-        <v>238</v>
+      <c r="J41" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68" t="s">
+        <v>234</v>
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -5331,35 +5383,35 @@
       <c r="AK41" s="22"/>
       <c r="AL41" s="38"/>
     </row>
-    <row r="42" spans="1:44" ht="15">
+    <row r="42" spans="1:44">
       <c r="A42" s="18">
         <v>28</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E42" s="22">
         <v>1</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
+        <v>200</v>
+      </c>
+      <c r="J42" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -5387,32 +5439,32 @@
       <c r="AK42" s="22"/>
       <c r="AL42" s="38"/>
     </row>
-    <row r="43" spans="1:44" ht="15">
+    <row r="43" spans="1:44">
       <c r="A43" s="18">
         <v>29</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E43" s="22">
         <v>1</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22" t="s">
-        <v>238</v>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68" t="s">
+        <v>234</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -5441,29 +5493,33 @@
       <c r="AK43" s="22"/>
       <c r="AL43" s="38"/>
     </row>
-    <row r="44" spans="1:44" ht="15">
+    <row r="44" spans="1:44">
       <c r="A44" s="18">
         <v>30</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="D44" s="48"/>
+        <v>288</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>412</v>
+      </c>
       <c r="E44" s="22">
         <v>1</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
+      <c r="L44" s="22" t="s">
+        <v>413</v>
+      </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -5496,42 +5552,42 @@
         <v>31</v>
       </c>
       <c r="B45" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="D45" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="E45" s="19">
         <v>2</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G45" s="19"/>
       <c r="H45" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O45" s="26" t="s">
         <v>59</v>
       </c>
       <c r="P45" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q45" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
@@ -5545,10 +5601,10 @@
         <v>3</v>
       </c>
       <c r="W45" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="X45" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="X45" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
@@ -5560,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="AD45" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
@@ -5572,7 +5628,7 @@
         <v>4</v>
       </c>
       <c r="AJ45" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK45" s="19"/>
       <c r="AL45" s="19"/>
@@ -5591,24 +5647,24 @@
         <v>35</v>
       </c>
       <c r="C46" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>84</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>85</v>
       </c>
       <c r="E46" s="19">
         <v>2</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
@@ -5656,25 +5712,25 @@
         <v>33</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E47" s="19">
         <v>2</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
@@ -5716,26 +5772,26 @@
         <v>34</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E48" s="19">
         <v>2</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
@@ -5776,26 +5832,26 @@
         <v>35</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E49" s="19">
         <v>2</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
       <c r="K49" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
@@ -5836,19 +5892,19 @@
         <v>36</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E50" s="19">
         <v>2</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
@@ -5856,7 +5912,7 @@
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
@@ -5896,23 +5952,23 @@
         <v>37</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E51" s="19">
         <v>2</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G51" s="19"/>
       <c r="H51" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
@@ -5956,27 +6012,27 @@
         <v>38</v>
       </c>
       <c r="B52" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="E52" s="19">
         <v>2</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
@@ -6005,7 +6061,7 @@
         <v>8</v>
       </c>
       <c r="W52" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X52" s="19"/>
       <c r="Y52" s="19"/>
@@ -6046,27 +6102,27 @@
         <v>39</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E53" s="19">
         <v>2</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
@@ -6075,7 +6131,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P53" s="19">
         <v>0.25</v>
@@ -6131,86 +6187,107 @@
       <c r="A54" s="18">
         <v>40</v>
       </c>
-      <c r="B54" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" s="40" t="s">
-        <v>152</v>
+      <c r="B54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="E54" s="29">
         <v>2</v>
       </c>
-      <c r="F54" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="F54" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
       <c r="I54" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="J54" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29">
-        <v>5</v>
-      </c>
-      <c r="O54" s="29" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19">
+        <v>1</v>
+      </c>
+      <c r="O54" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="P54" s="19">
         <v>0.25</v>
       </c>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29">
-        <v>4</v>
-      </c>
-      <c r="S54" s="29"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="29"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19">
+        <v>1</v>
+      </c>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="19"/>
+      <c r="AG54" s="19"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="20"/>
+      <c r="AL54" s="19"/>
+      <c r="AM54" s="39"/>
+      <c r="AN54" s="39"/>
+      <c r="AO54" s="28"/>
+      <c r="AP54" s="39"/>
+      <c r="AQ54" s="39"/>
+      <c r="AR54" s="40"/>
     </row>
     <row r="55" spans="1:44" ht="15">
       <c r="A55" s="18">
         <v>41</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E55" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
-      <c r="J55" s="29"/>
+      <c r="I55" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="K55" s="29"/>
-      <c r="L55" s="20" t="s">
-        <v>151</v>
-      </c>
+      <c r="L55" s="29"/>
       <c r="M55" s="29"/>
       <c r="N55" s="29">
         <v>5</v>
       </c>
       <c r="O55" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P55" s="19">
         <v>0.25</v>
@@ -6233,40 +6310,41 @@
         <v>42</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="40" t="s">
         <v>136</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>201</v>
       </c>
       <c r="E56" s="29">
         <v>3</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
-      <c r="I56" s="19"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
-      <c r="L56" s="29" t="s">
-        <v>200</v>
+      <c r="L56" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="M56" s="29"/>
       <c r="N56" s="29">
-        <v>4</v>
-      </c>
-      <c r="O56" s="22" t="s">
-        <v>119</v>
+        <v>5</v>
+      </c>
+      <c r="O56" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="P56" s="19">
         <v>0.25</v>
       </c>
       <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
+      <c r="R56" s="29">
+        <v>4</v>
+      </c>
       <c r="S56" s="29"/>
       <c r="T56" s="28"/>
       <c r="U56" s="29"/>
@@ -6280,35 +6358,35 @@
       <c r="A57" s="18">
         <v>43</v>
       </c>
-      <c r="B57" s="19" t="s">
-        <v>98</v>
+      <c r="B57" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="E57" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="19"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="L57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="M57" s="29"/>
       <c r="N57" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="P57" s="19">
         <v>0.25</v>
@@ -6329,34 +6407,34 @@
         <v>44</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E58" s="29">
         <v>2</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
       <c r="I58" s="19"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="19" t="s">
-        <v>138</v>
+      <c r="K58" s="29" t="s">
+        <v>249</v>
       </c>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
       <c r="N58" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O58" s="22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P58" s="19">
         <v>0.25</v>
@@ -6377,34 +6455,34 @@
         <v>45</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E59" s="29">
         <v>2</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="19"/>
-      <c r="J59" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="K59" s="19"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
       <c r="N59" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="P59" s="19">
         <v>0.25</v>
@@ -6425,107 +6503,85 @@
         <v>46</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>91</v>
+        <v>97</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="E60" s="29">
         <v>2</v>
       </c>
-      <c r="F60" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19" t="s">
-        <v>147</v>
-      </c>
+      <c r="F60" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="19"/>
       <c r="J60" s="19" t="s">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19">
-        <v>1</v>
-      </c>
-      <c r="O60" s="26" t="s">
-        <v>117</v>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29">
+        <v>4</v>
+      </c>
+      <c r="O60" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="P60" s="19">
         <v>0.25</v>
       </c>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19">
-        <v>1</v>
-      </c>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="19"/>
-      <c r="AG60" s="19"/>
-      <c r="AH60" s="19"/>
-      <c r="AI60" s="19"/>
-      <c r="AJ60" s="19"/>
-      <c r="AK60" s="20"/>
-      <c r="AL60" s="19"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="39"/>
-      <c r="AO60" s="28"/>
-      <c r="AP60" s="39"/>
-      <c r="AQ60" s="39"/>
-      <c r="AR60" s="40"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
     </row>
     <row r="61" spans="1:44" ht="15">
       <c r="A61" s="18">
         <v>47</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E61" s="29">
         <v>2</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N61" s="19">
         <v>4</v>
       </c>
       <c r="O61" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P61" s="19" t="s">
         <v>50</v>
@@ -6545,7 +6601,7 @@
         <v>18</v>
       </c>
       <c r="W61" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X61" s="19"/>
       <c r="Y61" s="19"/>
@@ -6558,7 +6614,7 @@
         <v>4</v>
       </c>
       <c r="AD61" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
@@ -6574,28 +6630,28 @@
         <v>48</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E62" s="29">
         <v>2</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I62" s="69" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
@@ -6632,25 +6688,25 @@
         <v>49</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E63" s="29">
         <v>2</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="9"/>
@@ -6686,26 +6742,26 @@
         <v>50</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E64" s="29">
         <v>2</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
       <c r="K64" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="19"/>
@@ -6740,19 +6796,19 @@
         <v>51</v>
       </c>
       <c r="B65" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="D65" s="32" t="s">
         <v>121</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>122</v>
       </c>
       <c r="E65" s="29">
         <v>2</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
@@ -6760,14 +6816,14 @@
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
       <c r="L65" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M65" s="19"/>
       <c r="N65" s="19">
         <v>2.5</v>
       </c>
       <c r="O65" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P65" s="29">
         <f t="shared" ref="P65:P66" si="0">N65*0.2</f>
@@ -6801,25 +6857,25 @@
         <v>52</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C66" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>123</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>124</v>
       </c>
       <c r="E66" s="29">
         <v>2</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
@@ -6862,29 +6918,29 @@
         <v>53</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="32" t="s">
         <v>125</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>126</v>
       </c>
       <c r="E67" s="29">
         <v>2</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="9"/>
       <c r="J67" s="19"/>
       <c r="K67" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M67" s="19"/>
       <c r="N67" s="19">
@@ -6912,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="V67" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W67" s="19">
         <v>1</v>
@@ -6921,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="Y67" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z67" s="19"/>
       <c r="AA67" s="19"/>
@@ -6934,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AF67" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG67" s="43"/>
       <c r="AH67" s="43"/>
@@ -6948,28 +7004,28 @@
         <v>54</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E68" s="29">
         <v>2</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="J68" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K68" s="19"/>
       <c r="L68" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M68" s="19"/>
       <c r="N68" s="19">
@@ -6996,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="Y68" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z68" s="30"/>
       <c r="AA68" s="19"/>
@@ -7017,10 +7073,10 @@
         <v>55</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D69" s="40" t="s">
         <v>0</v>
@@ -7029,24 +7085,24 @@
         <v>2</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="9"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L69" s="29" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M69" s="29"/>
       <c r="N69" s="29">
         <v>2</v>
       </c>
       <c r="O69" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P69" s="29">
         <f>N69*0.2</f>
@@ -7087,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="AD69" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:38" ht="15">
@@ -7095,26 +7151,26 @@
         <v>56</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E70" s="29">
         <v>2</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="9"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
@@ -7141,28 +7197,28 @@
         <v>57</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E71" s="29">
         <v>2</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J71" s="29"/>
       <c r="L71" s="29"/>
@@ -7171,14 +7227,14 @@
         <v>3</v>
       </c>
       <c r="O71" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P71" s="29">
         <f>N71*0.2</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q71" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R71" s="29"/>
       <c r="S71" s="29"/>
@@ -7213,25 +7269,25 @@
         <v>58</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E72" s="29">
         <v>2</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
@@ -7248,7 +7304,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="Q72" s="29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
@@ -7256,13 +7312,13 @@
         <v>12</v>
       </c>
       <c r="U72" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V72" s="29">
         <v>18</v>
       </c>
       <c r="W72" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X72" s="28"/>
       <c r="Y72" s="29"/>
@@ -7275,7 +7331,7 @@
         <v>2</v>
       </c>
       <c r="AD72" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:38" ht="15">
@@ -7283,26 +7339,26 @@
         <v>59</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E73" s="29">
         <v>2</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H73" s="29"/>
       <c r="I73" s="29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
@@ -7331,26 +7387,26 @@
         <v>60</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E74" s="29">
         <v>2</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H74" s="29"/>
       <c r="I74" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
@@ -7379,27 +7435,27 @@
         <v>61</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E75" s="29">
         <v>2</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H75" s="29"/>
       <c r="I75" s="29"/>
       <c r="J75" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
@@ -7427,28 +7483,28 @@
         <v>62</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E76" s="29">
         <v>2</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
       <c r="J76" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L76" s="29"/>
       <c r="M76" s="29"/>
@@ -7478,26 +7534,26 @@
         <v>63</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E77" s="29">
         <v>2</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
@@ -7539,19 +7595,19 @@
         <v>64</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E78" s="29">
         <v>2</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
@@ -7559,14 +7615,14 @@
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
       <c r="L78" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M78" s="29"/>
       <c r="N78" s="29">
         <v>6</v>
       </c>
       <c r="O78" s="29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P78" s="29">
         <f t="shared" si="1"/>
@@ -7725,7 +7781,7 @@
         <v>114</v>
       </c>
       <c r="W81" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="29">
         <f>SUM(Z14:Z80)</f>
@@ -7745,7 +7801,7 @@
       </c>
       <c r="AD81" s="29"/>
       <c r="AE81" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH81" s="29"/>
       <c r="AI81" s="29"/>
@@ -7798,57 +7854,75 @@
   </sheetData>
   <autoFilter ref="A14:AR82"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="AH81:AL81 Z81:AE81 AE61:AL68 I61:I66 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B55:H55 H54:H59 I54 I56:I59 J53:J56 J62:K70 J72:L75 I71:J71 B36:D36 F36:G36 H82:AL82 H81:W81 H13:M13 A14:AL14 H52:AO52 J76:Z76 P54:P60 D39 B39:C41 B37:G38 D40:E41 F39:G41 B22:I23 K23:AL23 L22:AL22 J22 K61 B33:I34 B45:AR51 P76:P78 H77:AL80 H35:AL44 B35:G35 B28:I28 K28:AL28 K54:Z59 K33:AL34 M61:AD75 L65:L71 B42:G44 B31:AL32 B30:H30 J30:AL30 B19:H19 J19:AL19 H53:AR53 H60:AR60 B17:H17 B15:I16 B52:G82 H61:H76 B20:AL21 B18:I18 K15:AL18 B24:AL27 B29:AL29">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+  <conditionalFormatting sqref="AH81:AL81 Z81:AE81 AE61:AL68 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B56:H56 I55 I57:I66 J62:K70 J72:L75 I71:J71 B36:D36 F36:G36 H82:AL82 H81:W81 H13:M13 A14:AL14 H52:AO52 J76:Z76 D39 B39:C41 B37:G38 D40:E41 F39:G41 B22:I23 K23:AL23 L22:AL22 J22 K61 B33:I34 B45:AR51 P76:P78 H77:AL80 H35:AL44 B35:G35 B28:I28 K55:Z60 K33:AL34 M61:AD75 L65:L71 B42:G44 B31:AL32 B30:H30 J30:AL30 B19:H19 J19:AL19 H53:AR53 B17:H17 B15:I16 B52:G53 H55:H76 B20:AL21 B18:I18 K15:AL18 B24:AL27 J55:J57 B55:G82 B29:AL29 L28:AL28">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P54:P60 P15:P17 P33:P34 P28">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+  <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P55:P60 P15:P17 P33:P34 P28">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P54:P60 AJ14 AJ18:AJ27 P15:P17 AJ29:AJ32 P33:P34 P28">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+  <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P55:P60 AJ14 AJ18:AJ27 P15:P17 AJ29:AJ32 P33:P34 P28">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="J60">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36 E39">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I6">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36 E39">
+  <conditionalFormatting sqref="I30">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="I19">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="B54:AR54">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"TBD"</formula>
+  <conditionalFormatting sqref="P54">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",P54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"TBD"</formula>
+  <conditionalFormatting sqref="P54">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7873,104 +7947,104 @@
   <sheetData>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8002,33 +8076,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="66" customFormat="1">
       <c r="A1" s="66" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="65" customFormat="1">
       <c r="A2" s="62" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D2" s="63">
         <v>1</v>
@@ -8039,7 +8113,7 @@
       <c r="A3" s="64"/>
       <c r="B3" s="64"/>
       <c r="C3" s="63" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D3" s="63">
         <v>2</v>
@@ -8050,7 +8124,7 @@
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
       <c r="C4" s="63" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D4" s="63">
         <v>1</v>
@@ -8059,7 +8133,7 @@
     </row>
     <row r="5" spans="1:6" s="65" customFormat="1">
       <c r="C5" s="63" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D5" s="63">
         <v>1</v>
@@ -8068,7 +8142,7 @@
     </row>
     <row r="6" spans="1:6" s="65" customFormat="1">
       <c r="C6" s="63" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D6" s="63">
         <v>1</v>
@@ -8077,7 +8151,7 @@
     </row>
     <row r="7" spans="1:6" s="65" customFormat="1">
       <c r="C7" s="63" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D7" s="63">
         <v>0.5</v>
@@ -8088,7 +8162,7 @@
     </row>
     <row r="8" spans="1:6" s="65" customFormat="1">
       <c r="C8" s="63" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D8" s="63">
         <v>1</v>
@@ -8097,7 +8171,7 @@
     </row>
     <row r="9" spans="1:6" s="65" customFormat="1">
       <c r="C9" s="63" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D9" s="63">
         <v>1</v>
@@ -8108,7 +8182,7 @@
     </row>
     <row r="10" spans="1:6" s="65" customFormat="1">
       <c r="C10" s="63" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D10" s="63">
         <v>1</v>
@@ -8117,7 +8191,7 @@
     </row>
     <row r="11" spans="1:6" s="65" customFormat="1">
       <c r="C11" s="63" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D11" s="63">
         <v>1</v>
@@ -8126,7 +8200,7 @@
     </row>
     <row r="12" spans="1:6" s="65" customFormat="1">
       <c r="C12" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D12" s="63">
         <v>2</v>
@@ -8135,7 +8209,7 @@
     </row>
     <row r="13" spans="1:6" s="65" customFormat="1">
       <c r="C13" s="63" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D13" s="63">
         <v>2</v>
@@ -8146,16 +8220,16 @@
     </row>
     <row r="14" spans="1:6" s="65" customFormat="1">
       <c r="C14" s="63" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E14" s="64"/>
     </row>
     <row r="15" spans="1:6" s="65" customFormat="1">
       <c r="C15" s="63" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D15" s="63">
         <v>1</v>
@@ -8164,7 +8238,7 @@
     </row>
     <row r="16" spans="1:6" s="65" customFormat="1">
       <c r="C16" s="63" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D16" s="63">
         <v>0.5</v>
@@ -8173,7 +8247,7 @@
     </row>
     <row r="17" spans="1:5" s="65" customFormat="1">
       <c r="C17" s="63" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D17" s="63">
         <v>0</v>
@@ -8184,7 +8258,7 @@
     </row>
     <row r="18" spans="1:5" s="65" customFormat="1">
       <c r="C18" s="63" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D18" s="63">
         <v>0.5</v>
@@ -8193,7 +8267,7 @@
     </row>
     <row r="19" spans="1:5" s="65" customFormat="1">
       <c r="C19" s="63" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D19" s="63">
         <v>1</v>
@@ -8202,7 +8276,7 @@
     </row>
     <row r="20" spans="1:5" s="65" customFormat="1">
       <c r="C20" s="63" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D20" s="63">
         <v>1</v>
@@ -8213,10 +8287,10 @@
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="63" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E21" s="64"/>
     </row>
@@ -8224,10 +8298,10 @@
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="63" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E22" s="64"/>
     </row>
@@ -8235,7 +8309,7 @@
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="63" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D23" s="63">
         <v>1</v>
@@ -8248,7 +8322,7 @@
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D24" s="63">
         <v>1</v>
@@ -8259,7 +8333,7 @@
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="62" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D25" s="62">
         <v>20.5</v>
@@ -8271,10 +8345,10 @@
     <row r="26" spans="1:5" s="65" customFormat="1">
       <c r="A26" s="64"/>
       <c r="B26" s="63" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D26" s="63">
         <v>1</v>
@@ -8285,7 +8359,7 @@
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="62" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D27" s="62">
         <v>1</v>
@@ -8294,13 +8368,13 @@
     </row>
     <row r="29" spans="1:5" s="60" customFormat="1">
       <c r="A29" s="67" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D29" s="56">
         <v>2</v>
@@ -8311,7 +8385,7 @@
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
       <c r="C30" s="56" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D30" s="56">
         <v>2</v>
@@ -8322,7 +8396,7 @@
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="56" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D31" s="56">
         <v>2</v>
@@ -8333,7 +8407,7 @@
       <c r="A32" s="56"/>
       <c r="B32" s="56"/>
       <c r="C32" s="56" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D32" s="56">
         <v>1</v>
@@ -8344,7 +8418,7 @@
       <c r="A33" s="56"/>
       <c r="B33" s="56"/>
       <c r="C33" s="56" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D33" s="56">
         <v>2</v>
@@ -8355,7 +8429,7 @@
       <c r="A34" s="56"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D34" s="56">
         <v>1</v>
@@ -8366,7 +8440,7 @@
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
       <c r="C35" s="56" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D35" s="56">
         <v>1</v>
@@ -8377,7 +8451,7 @@
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
       <c r="C36" s="56" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D36" s="56">
         <v>1</v>
@@ -8388,7 +8462,7 @@
       <c r="A37" s="56"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D37" s="56">
         <v>1</v>
@@ -8399,7 +8473,7 @@
       <c r="A38" s="56"/>
       <c r="B38" s="56"/>
       <c r="C38" s="56" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D38" s="56">
         <v>0</v>
@@ -8410,7 +8484,7 @@
       <c r="A39" s="56"/>
       <c r="B39" s="56"/>
       <c r="C39" s="67" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D39" s="67">
         <v>13</v>
@@ -8419,13 +8493,13 @@
         <v>12</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="60" customFormat="1"/>
     <row r="41" spans="1:8">
       <c r="A41" s="54" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -8435,10 +8509,10 @@
     <row r="42" spans="1:8">
       <c r="A42" s="57"/>
       <c r="B42" s="58" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D42" s="58">
         <v>2</v>
@@ -8452,7 +8526,7 @@
       <c r="A43" s="57"/>
       <c r="B43" s="55"/>
       <c r="C43" s="58" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D43" s="58">
         <v>1</v>
@@ -8466,7 +8540,7 @@
       <c r="A44" s="57"/>
       <c r="B44" s="55"/>
       <c r="C44" s="58" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D44" s="58">
         <v>1</v>
@@ -8480,7 +8554,7 @@
       <c r="A45" s="57"/>
       <c r="B45" s="55"/>
       <c r="C45" s="58" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D45" s="58">
         <v>2</v>
@@ -8494,7 +8568,7 @@
       <c r="A46" s="57"/>
       <c r="B46" s="55"/>
       <c r="C46" s="58" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D46" s="58">
         <v>1</v>
@@ -8508,7 +8582,7 @@
       <c r="A47" s="57"/>
       <c r="B47" s="55"/>
       <c r="C47" s="58" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D47" s="58">
         <v>4</v>
@@ -8522,7 +8596,7 @@
       <c r="A48" s="57"/>
       <c r="B48" s="55"/>
       <c r="C48" s="59" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D48" s="59">
         <v>5</v>
@@ -8536,7 +8610,7 @@
       <c r="A49" s="57"/>
       <c r="B49" s="55"/>
       <c r="C49" s="59" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D49" s="59">
         <v>4</v>
@@ -8550,14 +8624,14 @@
       <c r="A50" s="57"/>
       <c r="B50" s="55"/>
       <c r="C50" s="58" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D50" s="58">
         <v>0.5</v>
       </c>
       <c r="E50" s="55"/>
       <c r="F50" s="60" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G50" s="60"/>
       <c r="H50" s="60"/>
@@ -8566,7 +8640,7 @@
       <c r="A51" s="57"/>
       <c r="B51" s="55"/>
       <c r="C51" s="54" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D51" s="54">
         <v>20.5</v>
@@ -8584,7 +8658,7 @@
     <row r="52" spans="1:8">
       <c r="A52" s="57"/>
       <c r="B52" s="58" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
@@ -8597,10 +8671,10 @@
       <c r="A53" s="57"/>
       <c r="B53" s="55"/>
       <c r="C53" s="58" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D53" s="58" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E53" s="55"/>
       <c r="F53" s="57"/>
@@ -8611,10 +8685,10 @@
       <c r="A54" s="57"/>
       <c r="B54" s="55"/>
       <c r="C54" s="58" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E54" s="55"/>
       <c r="F54" s="57"/>
@@ -8625,10 +8699,10 @@
       <c r="A55" s="57"/>
       <c r="B55" s="55"/>
       <c r="C55" s="58" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E55" s="55"/>
       <c r="F55" s="57"/>
@@ -8639,7 +8713,7 @@
       <c r="A56" s="57"/>
       <c r="B56" s="55"/>
       <c r="C56" s="58" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D56" s="58">
         <v>2</v>
@@ -8653,7 +8727,7 @@
       <c r="A57" s="57"/>
       <c r="B57" s="55"/>
       <c r="C57" s="58" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D57" s="58">
         <v>2</v>
@@ -8667,7 +8741,7 @@
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="54" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D58" s="54">
         <v>4</v>

--- a/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="80" windowWidth="35780" windowHeight="18860" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="22880" windowHeight="19660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑2" sheetId="1" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="任务细分" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑2!$A$14:$AR$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑2!$A$14:$AR$85</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="426">
   <si>
     <t>背包</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -774,10 +779,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>普通难度5*3对局-文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>核心战斗流程（进程，战斗）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -933,10 +934,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>美术资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>策划配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1125,10 +1122,6 @@
   </si>
   <si>
     <t>任务系统-服务器统计系统、任务配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务系统-服务器任务交付、奖励发放</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1302,28 +1295,6 @@
       <t>yan'shou</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本配置5*3对局（音乐-临时资源，音效找旧资源</t>
-    <rPh sb="13" eb="14">
-      <t>lin'shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yin'xiao</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>zhao</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>jiu</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>zi'yuan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务端基础结构和配置</t>
@@ -2003,12 +1974,197 @@
     <t>6月26日</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>体现0.2版本玩法的对局设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通难度5*3对局-文档</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>副本配置-体现0.2版本玩法的对局设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5*3对局（音乐-临时资源，音效找旧资源)</t>
+    </r>
+    <rPh sb="28" eb="29">
+      <t>lin'shi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：美术资源</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mei'shu'zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：封文档</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>feng'wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：三方前</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>san'fang'qian</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，待排期</t>
+    <rPh sb="0" eb="1">
+      <t>wei'wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai'pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方完成，等客户端拆任务</t>
+    <rPh sb="0" eb="1">
+      <t>san'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng'ke'hu'duan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统-服务器任务交付、奖励发放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统-服务器基础数据结构（不包括日常）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统-服务器配置表数据映射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期:程序开发</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增：程序开发</t>
+    <rPh sb="0" eb="1">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统-服务器任务初始化</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi't</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'w'q</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chu'shi'hua</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <rPh sb="0" eb="1">
+      <t>zan'ting</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wan'ch</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2154,6 +2310,10 @@
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2236,7 +2396,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="157">
+  <cellStyleXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2396,8 +2556,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2576,8 +2739,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="157">
+  <cellStyles count="158">
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 12" xfId="157"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="144"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -2657,86 +2905,140 @@
     <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3187,25 +3489,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR82"/>
+  <dimension ref="A1:AR85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="E11" sqref="E11"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="6" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="5"/>
-    <col min="7" max="7" width="8.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="5" customWidth="1"/>
     <col min="10" max="11" width="18" style="5" bestFit="1" customWidth="1"/>
@@ -3217,19 +3519,19 @@
     <col min="28" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F1" s="1"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="50"/>
@@ -3239,22 +3541,22 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="I3" s="49"/>
       <c r="P3" s="7"/>
@@ -3262,22 +3564,22 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="I4" s="49"/>
       <c r="P4" s="8"/>
@@ -3285,20 +3587,20 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I5" s="49"/>
       <c r="P5" s="8"/>
@@ -3306,20 +3608,20 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="I6" s="49"/>
       <c r="P6" s="8"/>
@@ -3327,69 +3629,69 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7"/>
       <c r="P10" s="7"/>
@@ -3397,15 +3699,15 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="F11" s="8"/>
       <c r="P11" s="8"/>
@@ -3413,7 +3715,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="F12" s="7"/>
       <c r="P12" s="7"/>
@@ -3421,7 +3723,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3473,7 +3775,7 @@
       <c r="AK13" s="14"/>
       <c r="AL13" s="15"/>
     </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="15">
+    <row r="14" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>112</v>
       </c>
@@ -3589,33 +3891,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>1</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="22"/>
@@ -3647,7 +3949,7 @@
       <c r="AK15" s="22"/>
       <c r="AL15" s="24"/>
     </row>
-    <row r="16" spans="1:38" ht="15">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>2</v>
       </c>
@@ -3658,20 +3960,20 @@
         <v>108</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E16" s="21">
         <v>1</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="22"/>
@@ -3703,7 +4005,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="24"/>
     </row>
-    <row r="17" spans="1:38" ht="15">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>3</v>
       </c>
@@ -3714,22 +4016,22 @@
         <v>108</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E17" s="21">
         <v>1</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="22"/>
@@ -3761,7 +4063,7 @@
       <c r="AK17" s="22"/>
       <c r="AL17" s="24"/>
     </row>
-    <row r="18" spans="1:38" ht="15">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>4</v>
       </c>
@@ -3781,7 +4083,7 @@
         <v>174</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>175</v>
@@ -3844,7 +4146,7 @@
       <c r="AK18" s="28"/>
       <c r="AL18" s="28"/>
     </row>
-    <row r="19" spans="1:38" ht="15">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>5</v>
       </c>
@@ -3864,13 +4166,13 @@
         <v>107</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>170</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J19" s="70" t="s">
         <v>173</v>
@@ -3927,7 +4229,7 @@
       <c r="AK19" s="28"/>
       <c r="AL19" s="28"/>
     </row>
-    <row r="20" spans="1:38" ht="15">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>6</v>
       </c>
@@ -3946,7 +4248,9 @@
       <c r="F20" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="19" t="s">
+        <v>425</v>
+      </c>
       <c r="H20" s="19" t="s">
         <v>175</v>
       </c>
@@ -3954,7 +4258,7 @@
         <v>173</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -4006,7 +4310,7 @@
       <c r="AK20" s="28"/>
       <c r="AL20" s="28"/>
     </row>
-    <row r="21" spans="1:38" ht="15">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>7</v>
       </c>
@@ -4017,7 +4321,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" s="19">
         <v>1</v>
@@ -4027,7 +4331,7 @@
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
@@ -4080,7 +4384,7 @@
       <c r="AK21" s="28"/>
       <c r="AL21" s="28"/>
     </row>
-    <row r="22" spans="1:38" ht="15">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>8</v>
       </c>
@@ -4099,12 +4403,14 @@
       <c r="F22" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>388</v>
+      </c>
       <c r="H22" s="19" t="s">
         <v>133</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>173</v>
@@ -4144,7 +4450,7 @@
       <c r="AK22" s="28"/>
       <c r="AL22" s="28"/>
     </row>
-    <row r="23" spans="1:38" ht="15">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>9</v>
       </c>
@@ -4168,10 +4474,10 @@
         <v>115</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>173</v>
@@ -4224,7 +4530,7 @@
       <c r="AK23" s="28"/>
       <c r="AL23" s="28"/>
     </row>
-    <row r="24" spans="1:38" ht="15">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>10</v>
       </c>
@@ -4302,7 +4608,7 @@
       <c r="AK24" s="28"/>
       <c r="AL24" s="28"/>
     </row>
-    <row r="25" spans="1:38" ht="15">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>11</v>
       </c>
@@ -4329,10 +4635,10 @@
         <v>171</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K25" s="70" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L25" s="70" t="s">
         <v>173</v>
@@ -4382,7 +4688,7 @@
       <c r="AK25" s="28"/>
       <c r="AL25" s="28"/>
     </row>
-    <row r="26" spans="1:38" ht="15">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>12</v>
       </c>
@@ -4399,16 +4705,16 @@
         <v>1</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
@@ -4434,7 +4740,7 @@
         <v>12</v>
       </c>
       <c r="U26" s="19" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
@@ -4462,7 +4768,7 @@
       <c r="AK26" s="28"/>
       <c r="AL26" s="33"/>
     </row>
-    <row r="27" spans="1:38" ht="15">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>13</v>
       </c>
@@ -4473,7 +4779,7 @@
         <v>47</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
@@ -4486,13 +4792,13 @@
         <v>115</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -4538,7 +4844,7 @@
       <c r="AK27" s="28"/>
       <c r="AL27" s="28"/>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>14</v>
       </c>
@@ -4549,7 +4855,7 @@
         <v>47</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
@@ -4560,11 +4866,11 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="68" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J28" s="9"/>
       <c r="L28" s="22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="22"/>
@@ -4593,7 +4899,7 @@
       <c r="AK28" s="22"/>
       <c r="AL28" s="24"/>
     </row>
-    <row r="29" spans="1:38" ht="15">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>15</v>
       </c>
@@ -4604,7 +4910,7 @@
         <v>70</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
@@ -4612,7 +4918,9 @@
       <c r="F29" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>388</v>
+      </c>
       <c r="H29" s="19" t="s">
         <v>177</v>
       </c>
@@ -4620,7 +4928,7 @@
         <v>176</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -4671,7 +4979,7 @@
       <c r="AK29" s="28"/>
       <c r="AL29" s="28"/>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>16</v>
       </c>
@@ -4682,7 +4990,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
@@ -4692,17 +5000,17 @@
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="L30" s="35" t="s">
         <v>405</v>
-      </c>
-      <c r="L30" s="35" t="s">
-        <v>409</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19">
@@ -4752,7 +5060,7 @@
       <c r="AK30" s="28"/>
       <c r="AL30" s="28"/>
     </row>
-    <row r="31" spans="1:38" ht="15">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>17</v>
       </c>
@@ -4763,7 +5071,7 @@
         <v>108</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E31" s="19">
         <v>1</v>
@@ -4810,7 +5118,7 @@
       <c r="AK31" s="28"/>
       <c r="AL31" s="24"/>
     </row>
-    <row r="32" spans="1:38" ht="15">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>18</v>
       </c>
@@ -4821,7 +5129,7 @@
         <v>111</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="19">
         <v>1</v>
@@ -4871,7 +5179,7 @@
       <c r="AK32" s="28"/>
       <c r="AL32" s="24"/>
     </row>
-    <row r="33" spans="1:44" ht="15">
+    <row r="33" spans="1:44" ht="32" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>19</v>
       </c>
@@ -4882,20 +5190,20 @@
         <v>98</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>192</v>
+        <v>410</v>
       </c>
       <c r="E33" s="21">
         <v>1</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="9"/>
       <c r="K33" s="22" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="19"/>
@@ -4931,7 +5239,7 @@
       <c r="AK33" s="22"/>
       <c r="AL33" s="28"/>
     </row>
-    <row r="34" spans="1:44" ht="15">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>20</v>
       </c>
@@ -4942,13 +5250,13 @@
         <v>156</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>304</v>
+        <v>411</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -4956,7 +5264,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="22">
@@ -4993,18 +5301,18 @@
       <c r="AK34" s="22"/>
       <c r="AL34" s="28"/>
     </row>
-    <row r="35" spans="1:44" ht="15">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>21</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>210</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>211</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
@@ -5013,11 +5321,11 @@
         <v>188</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -5049,7 +5357,7 @@
       <c r="AK35" s="29"/>
       <c r="AL35" s="28"/>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>22</v>
       </c>
@@ -5060,22 +5368,22 @@
         <v>43</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E36" s="22">
         <v>1</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="29"/>
       <c r="I36" s="22" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="71" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
@@ -5105,7 +5413,7 @@
       <c r="AK36" s="22"/>
       <c r="AL36" s="38"/>
     </row>
-    <row r="37" spans="1:44" ht="15">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>23</v>
       </c>
@@ -5116,20 +5424,22 @@
         <v>43</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37" s="22">
         <v>1</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="22"/>
+        <v>205</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>385</v>
+      </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
@@ -5159,7 +5469,7 @@
       <c r="AK37" s="22"/>
       <c r="AL37" s="38"/>
     </row>
-    <row r="38" spans="1:44">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>24</v>
       </c>
@@ -5170,23 +5480,25 @@
         <v>43</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E38" s="22">
         <v>1</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="22"/>
+        <v>205</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>385</v>
+      </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J38" s="68"/>
       <c r="K38" s="68"/>
       <c r="L38" s="68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -5215,7 +5527,7 @@
       <c r="AK38" s="22"/>
       <c r="AL38" s="38"/>
     </row>
-    <row r="39" spans="1:44">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>25</v>
       </c>
@@ -5226,21 +5538,23 @@
         <v>43</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E39" s="22">
         <v>1</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="G39" s="22"/>
+        <v>203</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>385</v>
+      </c>
       <c r="H39" s="29"/>
       <c r="I39" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J39" s="68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K39" s="68"/>
       <c r="L39" s="68"/>
@@ -5271,7 +5585,7 @@
       <c r="AK39" s="22"/>
       <c r="AL39" s="38"/>
     </row>
-    <row r="40" spans="1:44">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>26</v>
       </c>
@@ -5282,22 +5596,24 @@
         <v>43</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40" s="22">
         <v>1</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="G40" s="22"/>
+        <v>203</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>385</v>
+      </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J40" s="68"/>
       <c r="K40" s="68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L40" s="68"/>
       <c r="M40" s="22"/>
@@ -5327,7 +5643,7 @@
       <c r="AK40" s="22"/>
       <c r="AL40" s="38"/>
     </row>
-    <row r="41" spans="1:44">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>27</v>
       </c>
@@ -5338,23 +5654,25 @@
         <v>43</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E41" s="22">
         <v>1</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41" s="22"/>
+        <v>203</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>385</v>
+      </c>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
       <c r="J41" s="68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K41" s="68"/>
       <c r="L41" s="68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -5383,7 +5701,7 @@
       <c r="AK41" s="22"/>
       <c r="AL41" s="38"/>
     </row>
-    <row r="42" spans="1:44">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>28</v>
       </c>
@@ -5394,23 +5712,25 @@
         <v>163</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E42" s="22">
         <v>1</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J42" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="K42" s="68"/>
+        <v>203</v>
+      </c>
+      <c r="K42" s="72" t="s">
+        <v>412</v>
+      </c>
       <c r="L42" s="68"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -5439,7 +5759,7 @@
       <c r="AK42" s="22"/>
       <c r="AL42" s="38"/>
     </row>
-    <row r="43" spans="1:44">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>29</v>
       </c>
@@ -5450,21 +5770,23 @@
         <v>163</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E43" s="22">
         <v>1</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="G43" s="22"/>
+        <v>205</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>385</v>
+      </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
       <c r="J43" s="68"/>
       <c r="K43" s="68"/>
       <c r="L43" s="68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -5493,24 +5815,24 @@
       <c r="AK43" s="22"/>
       <c r="AL43" s="38"/>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>30</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E44" s="22">
         <v>1</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
@@ -5518,7 +5840,7 @@
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -5547,7 +5869,7 @@
       <c r="AK44" s="22"/>
       <c r="AL44" s="38"/>
     </row>
-    <row r="45" spans="1:44" ht="15">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>31</v>
       </c>
@@ -5571,11 +5893,13 @@
         <v>133</v>
       </c>
       <c r="I45" s="19"/>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="69" t="s">
         <v>171</v>
       </c>
       <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
+      <c r="L45" s="19" t="s">
+        <v>413</v>
+      </c>
       <c r="M45" s="19"/>
       <c r="N45" s="19" t="s">
         <v>71</v>
@@ -5639,7 +5963,7 @@
       <c r="AQ45" s="39"/>
       <c r="AR45" s="40"/>
     </row>
-    <row r="46" spans="1:44" ht="15">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>32</v>
       </c>
@@ -5656,18 +5980,20 @@
         <v>2</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J46" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J46" s="69" t="s">
         <v>171</v>
       </c>
       <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
+      <c r="L46" s="19" t="s">
+        <v>413</v>
+      </c>
       <c r="M46" s="19"/>
       <c r="N46" s="19">
         <v>2</v>
@@ -5707,7 +6033,7 @@
       <c r="AQ46" s="39"/>
       <c r="AR46" s="40"/>
     </row>
-    <row r="47" spans="1:44" ht="15">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>33</v>
       </c>
@@ -5726,7 +6052,9 @@
       <c r="F47" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G47" s="19"/>
+      <c r="G47" s="35" t="s">
+        <v>385</v>
+      </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="19" t="s">
@@ -5767,7 +6095,7 @@
       <c r="AQ47" s="39"/>
       <c r="AR47" s="40"/>
     </row>
-    <row r="48" spans="1:44" ht="15">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>34</v>
       </c>
@@ -5786,7 +6114,9 @@
       <c r="F48" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G48" s="19"/>
+      <c r="G48" s="35" t="s">
+        <v>385</v>
+      </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
@@ -5827,7 +6157,7 @@
       <c r="AQ48" s="39"/>
       <c r="AR48" s="40"/>
     </row>
-    <row r="49" spans="1:44" ht="15">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>35</v>
       </c>
@@ -5846,7 +6176,9 @@
       <c r="F49" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G49" s="19"/>
+      <c r="G49" s="35" t="s">
+        <v>385</v>
+      </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
@@ -5887,7 +6219,7 @@
       <c r="AQ49" s="39"/>
       <c r="AR49" s="40"/>
     </row>
-    <row r="50" spans="1:44" ht="15">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>36</v>
       </c>
@@ -5906,7 +6238,9 @@
       <c r="F50" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="19"/>
+      <c r="G50" s="35" t="s">
+        <v>385</v>
+      </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
@@ -5947,7 +6281,7 @@
       <c r="AQ50" s="39"/>
       <c r="AR50" s="40"/>
     </row>
-    <row r="51" spans="1:44" ht="15">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>37</v>
       </c>
@@ -5958,7 +6292,7 @@
         <v>166</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E51" s="19">
         <v>2</v>
@@ -6007,7 +6341,7 @@
       <c r="AQ51" s="39"/>
       <c r="AR51" s="40"/>
     </row>
-    <row r="52" spans="1:44" ht="15">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>38</v>
       </c>
@@ -6026,13 +6360,15 @@
       <c r="F52" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G52" s="19"/>
+      <c r="G52" s="19" t="s">
+        <v>414</v>
+      </c>
       <c r="H52" s="19" t="s">
         <v>142</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
@@ -6097,7 +6433,7 @@
       <c r="AQ52" s="39"/>
       <c r="AR52" s="40"/>
     </row>
-    <row r="53" spans="1:44" ht="15">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>39</v>
       </c>
@@ -6121,10 +6457,12 @@
       <c r="I53" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="J53" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="K53" s="19"/>
+      <c r="J53" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>415</v>
+      </c>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
       <c r="N53" s="19">
@@ -6183,7 +6521,7 @@
       <c r="AQ53" s="39"/>
       <c r="AR53" s="40"/>
     </row>
-    <row r="54" spans="1:44" ht="15">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <v>40</v>
       </c>
@@ -6207,11 +6545,13 @@
       <c r="I54" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J54" s="19" t="s">
-        <v>316</v>
+      <c r="J54" s="69" t="s">
+        <v>312</v>
       </c>
       <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
+      <c r="L54" s="19" t="s">
+        <v>415</v>
+      </c>
       <c r="M54" s="19"/>
       <c r="N54" s="19">
         <v>1</v>
@@ -6253,7 +6593,7 @@
       <c r="AQ54" s="39"/>
       <c r="AR54" s="40"/>
     </row>
-    <row r="55" spans="1:44" ht="15">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <v>41</v>
       </c>
@@ -6272,7 +6612,9 @@
       <c r="F55" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="G55" s="29"/>
+      <c r="G55" s="29" t="s">
+        <v>414</v>
+      </c>
       <c r="H55" s="29"/>
       <c r="I55" s="19" t="s">
         <v>133</v>
@@ -6305,7 +6647,7 @@
       <c r="Y55" s="29"/>
       <c r="Z55" s="29"/>
     </row>
-    <row r="56" spans="1:44" ht="15">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
         <v>42</v>
       </c>
@@ -6354,7 +6696,7 @@
       <c r="Y56" s="29"/>
       <c r="Z56" s="29"/>
     </row>
-    <row r="57" spans="1:44" ht="15">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <v>43</v>
       </c>
@@ -6365,7 +6707,7 @@
         <v>135</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E57" s="29">
         <v>3</v>
@@ -6379,7 +6721,7 @@
       <c r="J57" s="29"/>
       <c r="K57" s="29"/>
       <c r="L57" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M57" s="29"/>
       <c r="N57" s="29">
@@ -6402,7 +6744,7 @@
       <c r="Y57" s="29"/>
       <c r="Z57" s="29"/>
     </row>
-    <row r="58" spans="1:44" ht="15">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <v>44</v>
       </c>
@@ -6421,12 +6763,14 @@
       <c r="F58" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="29"/>
+      <c r="G58" s="35" t="s">
+        <v>385</v>
+      </c>
       <c r="H58" s="29"/>
       <c r="I58" s="19"/>
       <c r="J58" s="9"/>
       <c r="K58" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
@@ -6450,7 +6794,7 @@
       <c r="Y58" s="29"/>
       <c r="Z58" s="29"/>
     </row>
-    <row r="59" spans="1:44" ht="15">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>45</v>
       </c>
@@ -6498,7 +6842,7 @@
       <c r="Y59" s="29"/>
       <c r="Z59" s="29"/>
     </row>
-    <row r="60" spans="1:44" ht="15">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>46</v>
       </c>
@@ -6517,7 +6861,9 @@
       <c r="F60" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="G60" s="29"/>
+      <c r="G60" s="29" t="s">
+        <v>416</v>
+      </c>
       <c r="H60" s="29"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19" t="s">
@@ -6546,7 +6892,7 @@
       <c r="Y60" s="29"/>
       <c r="Z60" s="29"/>
     </row>
-    <row r="61" spans="1:44" ht="15">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>47</v>
       </c>
@@ -6563,15 +6909,17 @@
         <v>2</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="G61" s="19"/>
+        <v>280</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>417</v>
+      </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="19" t="s">
@@ -6625,7 +6973,7 @@
       <c r="AK61" s="19"/>
       <c r="AL61" s="19"/>
     </row>
-    <row r="62" spans="1:44" ht="15">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>48</v>
       </c>
@@ -6636,7 +6984,7 @@
         <v>91</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E62" s="29">
         <v>2</v>
@@ -6645,10 +6993,10 @@
         <v>185</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I62" s="69" t="s">
         <v>164</v>
@@ -6683,7 +7031,7 @@
       <c r="AK62" s="43"/>
       <c r="AL62" s="43"/>
     </row>
-    <row r="63" spans="1:44" ht="15">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>49</v>
       </c>
@@ -6694,19 +7042,21 @@
         <v>91</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>284</v>
+        <v>419</v>
       </c>
       <c r="E63" s="29">
         <v>2</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
+        <v>297</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H63" s="22"/>
+      <c r="I63" s="69"/>
       <c r="J63" s="19" t="s">
-        <v>164</v>
+        <v>422</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="9"/>
@@ -6737,7 +7087,7 @@
       <c r="AK63" s="43"/>
       <c r="AL63" s="43"/>
     </row>
-    <row r="64" spans="1:44" ht="15">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>50</v>
       </c>
@@ -6748,21 +7098,23 @@
         <v>91</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>285</v>
+        <v>420</v>
       </c>
       <c r="E64" s="29">
         <v>2</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19" t="s">
-        <v>164</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H64" s="22"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="K64" s="19"/>
       <c r="L64" s="9"/>
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
@@ -6791,44 +7143,39 @@
       <c r="AK64" s="43"/>
       <c r="AL64" s="43"/>
     </row>
-    <row r="65" spans="1:38" ht="15">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>51</v>
       </c>
-      <c r="B65" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>120</v>
+      <c r="B65" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>121</v>
+        <v>418</v>
       </c>
       <c r="E65" s="29">
         <v>2</v>
       </c>
-      <c r="F65" s="19" t="s">
-        <v>188</v>
+      <c r="F65" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
+      <c r="J65" s="69" t="s">
+        <v>164</v>
+      </c>
       <c r="K65" s="19"/>
-      <c r="L65" s="22" t="s">
-        <v>142</v>
+      <c r="L65" s="19" t="s">
+        <v>421</v>
       </c>
       <c r="M65" s="19"/>
-      <c r="N65" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="O65" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="P65" s="29">
-        <f t="shared" ref="P65:P66" si="0">N65*0.2</f>
-        <v>0.5</v>
-      </c>
+      <c r="N65" s="19"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="19"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="19"/>
       <c r="S65" s="19"/>
@@ -6852,44 +7199,37 @@
       <c r="AK65" s="43"/>
       <c r="AL65" s="43"/>
     </row>
-    <row r="66" spans="1:38" ht="15">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>52</v>
       </c>
-      <c r="B66" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>122</v>
+      <c r="B66" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c r="E66" s="29">
         <v>2</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
-      <c r="J66" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L66" s="9"/>
       <c r="M66" s="19"/>
-      <c r="N66" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="O66" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P66" s="29">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
+      <c r="N66" s="19"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="19"/>
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
       <c r="S66" s="19"/>
@@ -6913,18 +7253,18 @@
       <c r="AK66" s="43"/>
       <c r="AL66" s="43"/>
     </row>
-    <row r="67" spans="1:38" ht="15">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
         <v>53</v>
       </c>
-      <c r="B67" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>124</v>
+      <c r="B67" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="E67" s="29">
         <v>2</v>
@@ -6934,64 +7274,32 @@
       </c>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="19"/>
       <c r="J67" s="19"/>
-      <c r="K67" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L67" s="20" t="s">
-        <v>251</v>
-      </c>
+      <c r="K67" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="L67" s="9"/>
       <c r="M67" s="19"/>
-      <c r="N67" s="19">
-        <v>2</v>
-      </c>
-      <c r="O67" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P67" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="Q67" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="R67" s="19">
-        <v>1</v>
-      </c>
-      <c r="S67" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="T67" s="19">
-        <v>1</v>
-      </c>
-      <c r="U67" s="19">
-        <v>1</v>
-      </c>
-      <c r="V67" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="W67" s="19">
-        <v>1</v>
-      </c>
-      <c r="X67" s="19">
-        <v>1</v>
-      </c>
-      <c r="Y67" s="19" t="s">
-        <v>127</v>
-      </c>
+      <c r="N67" s="19"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
       <c r="AA67" s="19"/>
       <c r="AB67" s="19"/>
       <c r="AC67" s="19"/>
-      <c r="AD67" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AE67" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AF67" s="19" t="s">
-        <v>128</v>
-      </c>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="43"/>
+      <c r="AF67" s="43"/>
       <c r="AG67" s="43"/>
       <c r="AH67" s="43"/>
       <c r="AI67" s="44"/>
@@ -6999,7 +7307,7 @@
       <c r="AK67" s="43"/>
       <c r="AL67" s="43"/>
     </row>
-    <row r="68" spans="1:38" ht="15">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <v>54</v>
       </c>
@@ -7007,157 +7315,136 @@
         <v>119</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>134</v>
+        <v>120</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>121</v>
       </c>
       <c r="E68" s="29">
         <v>2</v>
       </c>
-      <c r="F68" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="G68" s="19"/>
+      <c r="F68" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G68" s="73" t="s">
+        <v>424</v>
+      </c>
       <c r="H68" s="19"/>
-      <c r="J68" s="19" t="s">
-        <v>198</v>
-      </c>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
       <c r="K68" s="19"/>
-      <c r="L68" s="20" t="s">
-        <v>250</v>
+      <c r="L68" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="M68" s="19"/>
       <c r="N68" s="19">
-        <v>4</v>
-      </c>
-      <c r="O68" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P68" s="19">
-        <v>0.4</v>
+        <v>2.5</v>
+      </c>
+      <c r="O68" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="P68" s="29">
+        <f t="shared" ref="P68:P69" si="0">N68*0.2</f>
+        <v>0.5</v>
       </c>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
       <c r="S68" s="19"/>
-      <c r="T68" s="19">
-        <v>2</v>
-      </c>
-      <c r="U68" s="19">
-        <v>2</v>
-      </c>
-      <c r="V68" s="19"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="30"/>
       <c r="W68" s="19"/>
-      <c r="X68" s="19">
-        <v>1</v>
-      </c>
-      <c r="Y68" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z68" s="30"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
       <c r="AA68" s="19"/>
       <c r="AB68" s="19"/>
-      <c r="AC68" s="23"/>
+      <c r="AC68" s="19"/>
       <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="19"/>
-      <c r="AG68" s="19"/>
-      <c r="AH68" s="19"/>
+      <c r="AE68" s="43"/>
+      <c r="AF68" s="43"/>
+      <c r="AG68" s="43"/>
+      <c r="AH68" s="43"/>
       <c r="AI68" s="44"/>
       <c r="AJ68" s="43"/>
       <c r="AK68" s="43"/>
       <c r="AL68" s="43"/>
     </row>
-    <row r="69" spans="1:38" ht="15">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
         <v>55</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="40" t="s">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="E69" s="29">
         <v>2</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="L69" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29">
-        <v>2</v>
-      </c>
-      <c r="O69" s="29" t="s">
-        <v>95</v>
+        <v>187</v>
+      </c>
+      <c r="G69" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="O69" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="P69" s="29">
-        <f>N69*0.2</f>
-        <v>0.4</v>
-      </c>
-      <c r="Q69" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29">
-        <v>6</v>
-      </c>
-      <c r="U69" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="V69" s="29">
-        <v>6</v>
-      </c>
-      <c r="W69" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="Z69" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="AA69" s="29">
-        <f>Y69*0.25</f>
-        <v>0.125</v>
-      </c>
-      <c r="AB69" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC69" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD69" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:38" ht="15">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="30"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="30"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="43"/>
+      <c r="AF69" s="43"/>
+      <c r="AG69" s="43"/>
+      <c r="AH69" s="43"/>
+      <c r="AI69" s="44"/>
+      <c r="AJ69" s="43"/>
+      <c r="AK69" s="43"/>
+      <c r="AL69" s="43"/>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
         <v>56</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" s="40" t="s">
-        <v>169</v>
+        <v>124</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="E70" s="29">
         <v>2</v>
@@ -7165,45 +7452,87 @@
       <c r="F70" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
+      <c r="G70" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="H70" s="19"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="29"/>
+      <c r="J70" s="19"/>
       <c r="K70" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="29"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="29"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="29"/>
-      <c r="AA70" s="29"/>
-      <c r="AB70" s="29"/>
-      <c r="AC70" s="29"/>
-      <c r="AD70" s="29"/>
-    </row>
-    <row r="71" spans="1:38" ht="15">
+        <v>142</v>
+      </c>
+      <c r="L70" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19">
+        <v>2</v>
+      </c>
+      <c r="O70" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P70" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="Q70" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="R70" s="19">
+        <v>1</v>
+      </c>
+      <c r="S70" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="T70" s="19">
+        <v>1</v>
+      </c>
+      <c r="U70" s="19">
+        <v>1</v>
+      </c>
+      <c r="V70" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="W70" s="19">
+        <v>1</v>
+      </c>
+      <c r="X70" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z70" s="19"/>
+      <c r="AA70" s="19"/>
+      <c r="AB70" s="19"/>
+      <c r="AC70" s="19"/>
+      <c r="AD70" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="AE70" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AF70" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG70" s="43"/>
+      <c r="AH70" s="43"/>
+      <c r="AI70" s="44"/>
+      <c r="AJ70" s="43"/>
+      <c r="AK70" s="43"/>
+      <c r="AL70" s="43"/>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
         <v>57</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="40" t="s">
-        <v>314</v>
+        <v>129</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>134</v>
       </c>
       <c r="E71" s="29">
         <v>2</v>
@@ -7211,60 +7540,59 @@
       <c r="F71" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="G71" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="H71" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="I71" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="J71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29">
-        <v>3</v>
-      </c>
-      <c r="O71" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="P71" s="29">
-        <f>N71*0.2</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="Q71" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29">
-        <v>12</v>
-      </c>
-      <c r="U71" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="V71" s="29">
-        <v>18</v>
-      </c>
-      <c r="W71" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="29"/>
-      <c r="AB71" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="AC71" s="29">
+      <c r="G71" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="J71" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K71" s="19"/>
+      <c r="L71" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19">
+        <v>4</v>
+      </c>
+      <c r="O71" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P71" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19">
         <v>2</v>
       </c>
-      <c r="AD71" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:38" ht="15">
+      <c r="U71" s="19">
+        <v>2</v>
+      </c>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z71" s="30"/>
+      <c r="AA71" s="19"/>
+      <c r="AB71" s="19"/>
+      <c r="AC71" s="23"/>
+      <c r="AD71" s="19"/>
+      <c r="AE71" s="19"/>
+      <c r="AF71" s="19"/>
+      <c r="AG71" s="19"/>
+      <c r="AH71" s="19"/>
+      <c r="AI71" s="44"/>
+      <c r="AJ71" s="43"/>
+      <c r="AK71" s="43"/>
+      <c r="AL71" s="43"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>58</v>
       </c>
@@ -7272,69 +7600,79 @@
         <v>87</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="E72" s="29">
         <v>2</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="H72" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="I72" s="29"/>
+        <v>186</v>
+      </c>
+      <c r="G72" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="H72" s="29"/>
+      <c r="I72" s="9"/>
       <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
+      <c r="K72" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L72" s="29" t="s">
+        <v>246</v>
+      </c>
       <c r="M72" s="29"/>
       <c r="N72" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O72" s="29" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="P72" s="29">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="Q72" s="29" t="s">
-        <v>168</v>
+        <f>N72*0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q72" s="29">
+        <v>0.75</v>
       </c>
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
       <c r="T72" s="29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U72" s="29" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="V72" s="29">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="W72" s="29" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="X72" s="28"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="29"/>
-      <c r="AA72" s="29"/>
+      <c r="Y72" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="Z72" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="AA72" s="29">
+        <f>Y72*0.25</f>
+        <v>0.125</v>
+      </c>
       <c r="AB72" s="29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AC72" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD72" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:38" ht="15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
         <v>59</v>
       </c>
@@ -7342,10 +7680,10 @@
         <v>87</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>312</v>
+        <v>169</v>
       </c>
       <c r="E73" s="29">
         <v>2</v>
@@ -7353,15 +7691,15 @@
       <c r="F73" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="G73" s="22" t="s">
-        <v>321</v>
+      <c r="G73" s="73" t="s">
+        <v>424</v>
       </c>
       <c r="H73" s="29"/>
-      <c r="I73" s="29" t="s">
-        <v>313</v>
-      </c>
+      <c r="I73" s="9"/>
       <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
+      <c r="K73" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
       <c r="N73" s="29"/>
@@ -7377,12 +7715,12 @@
       <c r="X73" s="28"/>
       <c r="Y73" s="29"/>
       <c r="Z73" s="29"/>
-      <c r="AA73" s="45"/>
-      <c r="AB73" s="45"/>
-      <c r="AC73" s="45"/>
-      <c r="AD73" s="45"/>
-    </row>
-    <row r="74" spans="1:38" ht="15">
+      <c r="AA73" s="29"/>
+      <c r="AB73" s="29"/>
+      <c r="AC73" s="29"/>
+      <c r="AD73" s="29"/>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
         <v>60</v>
       </c>
@@ -7390,10 +7728,10 @@
         <v>87</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E74" s="29">
         <v>2</v>
@@ -7402,35 +7740,59 @@
         <v>185</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="H74" s="29"/>
+        <v>388</v>
+      </c>
+      <c r="H74" s="36" t="s">
+        <v>142</v>
+      </c>
       <c r="I74" s="29" t="s">
-        <v>164</v>
+        <v>386</v>
       </c>
       <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
       <c r="L74" s="29"/>
       <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
+      <c r="N74" s="29">
+        <v>3</v>
+      </c>
+      <c r="O74" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P74" s="29">
+        <f>N74*0.2</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Q74" s="29" t="s">
+        <v>96</v>
+      </c>
       <c r="R74" s="29"/>
       <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
-      <c r="U74" s="29"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
+      <c r="T74" s="29">
+        <v>12</v>
+      </c>
+      <c r="U74" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="V74" s="29">
+        <v>18</v>
+      </c>
+      <c r="W74" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="X74" s="28"/>
       <c r="Y74" s="29"/>
       <c r="Z74" s="29"/>
-      <c r="AA74" s="45"/>
-      <c r="AB74" s="45"/>
-      <c r="AC74" s="45"/>
-      <c r="AD74" s="45"/>
-    </row>
-    <row r="75" spans="1:38" ht="15">
+      <c r="AA74" s="29"/>
+      <c r="AB74" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="AC74" s="29">
+        <v>2</v>
+      </c>
+      <c r="AD74" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="18">
         <v>61</v>
       </c>
@@ -7441,7 +7803,7 @@
         <v>120</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>167</v>
+        <v>301</v>
       </c>
       <c r="E75" s="29">
         <v>2</v>
@@ -7450,371 +7812,387 @@
         <v>185</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="H75" s="29"/>
+        <v>317</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="I75" s="29"/>
-      <c r="J75" s="29" t="s">
-        <v>164</v>
-      </c>
+      <c r="J75" s="29"/>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
       <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
+      <c r="N75" s="29">
+        <v>3</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P75" s="29">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Q75" s="29" t="s">
+        <v>168</v>
+      </c>
       <c r="R75" s="29"/>
       <c r="S75" s="29"/>
-      <c r="T75" s="29"/>
-      <c r="U75" s="29"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="29"/>
+      <c r="T75" s="29">
+        <v>12</v>
+      </c>
+      <c r="U75" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="V75" s="29">
+        <v>18</v>
+      </c>
+      <c r="W75" s="29" t="s">
+        <v>127</v>
+      </c>
       <c r="X75" s="28"/>
       <c r="Y75" s="29"/>
       <c r="Z75" s="29"/>
-      <c r="AA75" s="45"/>
-      <c r="AB75" s="45"/>
-      <c r="AC75" s="45"/>
-      <c r="AD75" s="45"/>
-    </row>
-    <row r="76" spans="1:38" ht="15">
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="AC75" s="29">
+        <v>2</v>
+      </c>
+      <c r="AD75" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="18">
         <v>62</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>153</v>
+        <v>308</v>
       </c>
       <c r="E76" s="29">
         <v>2</v>
       </c>
-      <c r="F76" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G76" s="29"/>
+      <c r="F76" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>317</v>
+      </c>
       <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>247</v>
-      </c>
+      <c r="I76" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
       <c r="L76" s="29"/>
       <c r="M76" s="29"/>
-      <c r="N76" s="29">
-        <v>2</v>
-      </c>
-      <c r="O76" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P76" s="29">
-        <f t="shared" ref="P76:P78" si="1">N76*0.2</f>
-        <v>0.4</v>
-      </c>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
       <c r="Q76" s="29"/>
       <c r="R76" s="29"/>
       <c r="S76" s="29"/>
-      <c r="T76" s="28"/>
+      <c r="T76" s="29"/>
       <c r="U76" s="29"/>
       <c r="V76" s="29"/>
       <c r="W76" s="29"/>
-      <c r="X76" s="29"/>
+      <c r="X76" s="28"/>
       <c r="Y76" s="29"/>
       <c r="Z76" s="29"/>
-    </row>
-    <row r="77" spans="1:38" ht="15">
+      <c r="AA76" s="45"/>
+      <c r="AB76" s="45"/>
+      <c r="AC76" s="45"/>
+      <c r="AD76" s="45"/>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>63</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>150</v>
+      <c r="B77" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>307</v>
       </c>
       <c r="E77" s="29">
         <v>2</v>
       </c>
-      <c r="F77" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22">
-        <v>4</v>
-      </c>
-      <c r="O77" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P77" s="29">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="19"/>
-      <c r="U77" s="22"/>
-      <c r="V77" s="22"/>
-      <c r="W77" s="22"/>
-      <c r="X77" s="22"/>
-      <c r="Y77" s="22"/>
-      <c r="Z77" s="22"/>
-      <c r="AA77" s="22"/>
-      <c r="AB77" s="22"/>
-      <c r="AC77" s="22"/>
-      <c r="AD77" s="23"/>
-      <c r="AE77" s="22"/>
-      <c r="AF77" s="22"/>
-      <c r="AG77" s="22"/>
-      <c r="AH77" s="22"/>
-      <c r="AI77" s="22"/>
-      <c r="AJ77" s="22"/>
-      <c r="AK77" s="22"/>
-      <c r="AL77" s="28"/>
-    </row>
-    <row r="78" spans="1:38" ht="15">
+      <c r="F77" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="29"/>
+      <c r="Z77" s="29"/>
+      <c r="AA77" s="45"/>
+      <c r="AB77" s="45"/>
+      <c r="AC77" s="45"/>
+      <c r="AD77" s="45"/>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <v>64</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>151</v>
+      <c r="B78" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>167</v>
       </c>
       <c r="E78" s="29">
         <v>2</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="G78" s="29"/>
+        <v>185</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>317</v>
+      </c>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
+      <c r="J78" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="K78" s="29"/>
-      <c r="L78" s="29" t="s">
-        <v>137</v>
-      </c>
+      <c r="L78" s="29"/>
       <c r="M78" s="29"/>
-      <c r="N78" s="29">
-        <v>6</v>
-      </c>
-      <c r="O78" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="P78" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
-      </c>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
       <c r="Q78" s="29"/>
-      <c r="R78" s="29">
-        <v>2</v>
-      </c>
+      <c r="R78" s="29"/>
       <c r="S78" s="29"/>
-      <c r="T78" s="19"/>
+      <c r="T78" s="29"/>
       <c r="U78" s="29"/>
       <c r="V78" s="29"/>
       <c r="W78" s="29"/>
-      <c r="X78" s="29"/>
+      <c r="X78" s="28"/>
       <c r="Y78" s="29"/>
       <c r="Z78" s="29"/>
-      <c r="AA78" s="29"/>
-      <c r="AB78" s="29"/>
-      <c r="AC78" s="29"/>
-      <c r="AD78" s="29"/>
-      <c r="AE78" s="29"/>
-      <c r="AF78" s="29"/>
-      <c r="AG78" s="29"/>
-      <c r="AH78" s="29"/>
-      <c r="AI78" s="29"/>
-      <c r="AJ78" s="29"/>
-      <c r="AK78" s="29"/>
-      <c r="AL78" s="28"/>
-    </row>
-    <row r="79" spans="1:38">
+      <c r="AA78" s="45"/>
+      <c r="AB78" s="45"/>
+      <c r="AC78" s="45"/>
+      <c r="AD78" s="45"/>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>65</v>
       </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
+      <c r="B79" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" s="29">
+        <v>2</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G79" s="73" t="s">
+        <v>424</v>
+      </c>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
+      <c r="J79" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="L79" s="29"/>
       <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
+      <c r="N79" s="29">
+        <v>2</v>
+      </c>
+      <c r="O79" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P79" s="29">
+        <f t="shared" ref="P79:P81" si="1">N79*0.2</f>
+        <v>0.4</v>
+      </c>
       <c r="Q79" s="29"/>
       <c r="R79" s="29"/>
       <c r="S79" s="29"/>
-      <c r="T79" s="19"/>
+      <c r="T79" s="28"/>
       <c r="U79" s="29"/>
       <c r="V79" s="29"/>
       <c r="W79" s="29"/>
       <c r="X79" s="29"/>
       <c r="Y79" s="29"/>
       <c r="Z79" s="29"/>
-      <c r="AA79" s="29"/>
-      <c r="AB79" s="29"/>
-      <c r="AC79" s="29"/>
-      <c r="AD79" s="29"/>
-      <c r="AE79" s="29"/>
-      <c r="AF79" s="29"/>
-      <c r="AG79" s="29"/>
-      <c r="AH79" s="29"/>
-      <c r="AI79" s="29"/>
-      <c r="AJ79" s="29"/>
-      <c r="AK79" s="29"/>
-      <c r="AL79" s="28"/>
-    </row>
-    <row r="80" spans="1:38">
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <v>66</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
+      <c r="B80" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" s="29">
+        <v>2</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G80" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22">
+        <v>4</v>
+      </c>
+      <c r="O80" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" s="29">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="22"/>
       <c r="T80" s="19"/>
-      <c r="U80" s="29"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="29"/>
-      <c r="X80" s="29"/>
-      <c r="Y80" s="29"/>
-      <c r="Z80" s="29"/>
-      <c r="AA80" s="29"/>
-      <c r="AB80" s="29"/>
-      <c r="AC80" s="29"/>
-      <c r="AD80" s="29"/>
-      <c r="AE80" s="29"/>
-      <c r="AF80" s="29"/>
-      <c r="AG80" s="29"/>
-      <c r="AH80" s="29"/>
-      <c r="AI80" s="29"/>
-      <c r="AJ80" s="29"/>
-      <c r="AK80" s="29"/>
+      <c r="U80" s="22"/>
+      <c r="V80" s="22"/>
+      <c r="W80" s="22"/>
+      <c r="X80" s="22"/>
+      <c r="Y80" s="22"/>
+      <c r="Z80" s="22"/>
+      <c r="AA80" s="22"/>
+      <c r="AB80" s="22"/>
+      <c r="AC80" s="22"/>
+      <c r="AD80" s="23"/>
+      <c r="AE80" s="22"/>
+      <c r="AF80" s="22"/>
+      <c r="AG80" s="22"/>
+      <c r="AH80" s="22"/>
+      <c r="AI80" s="22"/>
+      <c r="AJ80" s="22"/>
+      <c r="AK80" s="22"/>
       <c r="AL80" s="28"/>
     </row>
-    <row r="81" spans="1:38" ht="15">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
         <v>67</v>
       </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
+      <c r="B81" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" s="29">
+        <v>2</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" s="73" t="s">
+        <v>424</v>
+      </c>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
       <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
+      <c r="L81" s="29" t="s">
+        <v>137</v>
+      </c>
       <c r="M81" s="29"/>
       <c r="N81" s="29">
-        <f>SUM(N14:N80)</f>
-        <v>103.5</v>
-      </c>
-      <c r="O81" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="O81" s="29" t="s">
+        <v>152</v>
+      </c>
       <c r="P81" s="29">
-        <f>SUM(P18:P80)</f>
-        <v>12.8</v>
-      </c>
-      <c r="Q81" s="29">
-        <f>SUM(Q18:Q80)*1.5</f>
-        <v>4.875</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="Q81" s="29"/>
       <c r="R81" s="29">
-        <f>SUM(R18:R80)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="S81" s="29"/>
-      <c r="T81" s="30">
-        <f>SUM(T18:T80)*1.5</f>
-        <v>219.75</v>
-      </c>
+      <c r="T81" s="19"/>
       <c r="U81" s="29"/>
-      <c r="V81" s="30">
-        <f>SUM(V18:V80)*1.5</f>
-        <v>114</v>
-      </c>
-      <c r="W81" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z81" s="29">
-        <f>SUM(Z14:Z80)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AA81" s="30">
-        <f>SUM(AA14:AA80)</f>
-        <v>0.125</v>
-      </c>
-      <c r="AB81" s="29">
-        <f>SUM(AB14:AB80)</f>
-        <v>14</v>
-      </c>
-      <c r="AC81" s="29">
-        <f>SUM(AC13:AC80)*1.3</f>
-        <v>38.675000000000004</v>
-      </c>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
+      <c r="X81" s="29"/>
+      <c r="Y81" s="29"/>
+      <c r="Z81" s="29"/>
+      <c r="AA81" s="29"/>
+      <c r="AB81" s="29"/>
+      <c r="AC81" s="29"/>
       <c r="AD81" s="29"/>
-      <c r="AE81" s="47" t="s">
-        <v>101</v>
-      </c>
+      <c r="AE81" s="29"/>
+      <c r="AF81" s="29"/>
+      <c r="AG81" s="29"/>
       <c r="AH81" s="29"/>
       <c r="AI81" s="29"/>
       <c r="AJ81" s="29"/>
       <c r="AK81" s="29"/>
       <c r="AL81" s="28"/>
     </row>
-    <row r="82" spans="1:38" ht="15" customHeight="1">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="18">
         <v>68</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
       <c r="D82" s="46"/>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -7831,7 +8209,7 @@
       <c r="Q82" s="29"/>
       <c r="R82" s="29"/>
       <c r="S82" s="29"/>
-      <c r="T82" s="29"/>
+      <c r="T82" s="19"/>
       <c r="U82" s="29"/>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -7851,87 +8229,248 @@
       <c r="AK82" s="29"/>
       <c r="AL82" s="28"/>
     </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A83" s="18">
+        <v>69</v>
+      </c>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="29"/>
+      <c r="V83" s="29"/>
+      <c r="W83" s="29"/>
+      <c r="X83" s="29"/>
+      <c r="Y83" s="29"/>
+      <c r="Z83" s="29"/>
+      <c r="AA83" s="29"/>
+      <c r="AB83" s="29"/>
+      <c r="AC83" s="29"/>
+      <c r="AD83" s="29"/>
+      <c r="AE83" s="29"/>
+      <c r="AF83" s="29"/>
+      <c r="AG83" s="29"/>
+      <c r="AH83" s="29"/>
+      <c r="AI83" s="29"/>
+      <c r="AJ83" s="29"/>
+      <c r="AK83" s="29"/>
+      <c r="AL83" s="28"/>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A84" s="18">
+        <v>70</v>
+      </c>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29">
+        <f>SUM(N14:N83)</f>
+        <v>103.5</v>
+      </c>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29">
+        <f>SUM(P18:P83)</f>
+        <v>12.8</v>
+      </c>
+      <c r="Q84" s="29">
+        <f>SUM(Q18:Q83)*1.5</f>
+        <v>4.875</v>
+      </c>
+      <c r="R84" s="29">
+        <f>SUM(R18:R83)</f>
+        <v>13</v>
+      </c>
+      <c r="S84" s="29"/>
+      <c r="T84" s="30">
+        <f>SUM(T18:T83)*1.5</f>
+        <v>219.75</v>
+      </c>
+      <c r="U84" s="29"/>
+      <c r="V84" s="30">
+        <f>SUM(V18:V83)*1.5</f>
+        <v>114</v>
+      </c>
+      <c r="W84" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z84" s="29">
+        <f>SUM(Z14:Z83)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA84" s="30">
+        <f>SUM(AA14:AA83)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB84" s="29">
+        <f>SUM(AB14:AB83)</f>
+        <v>14</v>
+      </c>
+      <c r="AC84" s="29">
+        <f>SUM(AC13:AC83)*1.3</f>
+        <v>38.675000000000004</v>
+      </c>
+      <c r="AD84" s="29"/>
+      <c r="AE84" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH84" s="29"/>
+      <c r="AI84" s="29"/>
+      <c r="AJ84" s="29"/>
+      <c r="AK84" s="29"/>
+      <c r="AL84" s="28"/>
+    </row>
+    <row r="85" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="18">
+        <v>71</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="29"/>
+      <c r="AE85" s="29"/>
+      <c r="AF85" s="29"/>
+      <c r="AG85" s="29"/>
+      <c r="AH85" s="29"/>
+      <c r="AI85" s="29"/>
+      <c r="AJ85" s="29"/>
+      <c r="AK85" s="29"/>
+      <c r="AL85" s="28"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A14:AR82"/>
+  <autoFilter ref="A14:AR85"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="AH81:AL81 Z81:AE81 AE61:AL68 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B56:H56 I55 I57:I66 J62:K70 J72:L75 I71:J71 B36:D36 F36:G36 H82:AL82 H81:W81 H13:M13 A14:AL14 H52:AO52 J76:Z76 D39 B39:C41 B37:G38 D40:E41 F39:G41 B22:I23 K23:AL23 L22:AL22 J22 K61 B33:I34 B45:AR51 P76:P78 H77:AL80 H35:AL44 B35:G35 B28:I28 K55:Z60 K33:AL34 M61:AD75 L65:L71 B42:G44 B31:AL32 B30:H30 J30:AL30 B19:H19 J19:AL19 H53:AR53 B17:H17 B15:I16 B52:G53 H55:H76 B20:AL21 B18:I18 K15:AL18 B24:AL27 J55:J57 B55:G82 B29:AL29 L28:AL28">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+  <conditionalFormatting sqref="AH84:AL84 Z84:AE84 AE61:AL71 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B56:H56 I55 I57:I69 J75:L78 I74:J74 B36:D36 F36:G36 H85:AL85 H84:W84 H13:M13 A14:AL14 H52:AO52 J79:Z79 D39 B39:C41 D40:E41 F39:F41 B22:I23 K23:AL23 L22:AL22 J22 K61 B33:I34 P79:P81 H80:AL83 B35:G35 B28:I28 K55:Z60 K33:AL34 M61:AD78 L68:L74 B31:AL32 B30:H30 J30:AL30 B19:H19 J19:AL19 H53:AR53 B17:H17 B15:I16 B52:G53 H55:H79 B20:AL21 B18:I18 K15:AL18 B24:AL27 J55:J57 B29:AL29 L28:AL28 B37:G37 B38:F38 G38:G41 B42:G44 H35:AL44 B45:AR51 J62:K73 D65:G67 B63:C67 B68:G85 E63:G64 B55:G62">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P55:P60 P15:P17 P33:P34 P28">
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P55:P60 AJ14 AJ18:AJ27 P15:P17 AJ29:AJ32 P33:P34 P28">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36 E39">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:AR54">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",P54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7943,119 +8482,114 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
+      <c r="G15" t="s">
         <v>257</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" t="s">
-        <v>223</v>
-      </c>
-      <c r="G16" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8067,91 +8601,91 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="66" customFormat="1">
+    <row r="1" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="65" customFormat="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D2" s="63">
         <v>1</v>
       </c>
       <c r="E2" s="64"/>
     </row>
-    <row r="3" spans="1:6" s="65" customFormat="1">
+    <row r="3" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
       <c r="B3" s="64"/>
       <c r="C3" s="63" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D3" s="63">
         <v>2</v>
       </c>
       <c r="E3" s="64"/>
     </row>
-    <row r="4" spans="1:6" s="65" customFormat="1">
+    <row r="4" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
       <c r="C4" s="63" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D4" s="63">
         <v>1</v>
       </c>
       <c r="E4" s="64"/>
     </row>
-    <row r="5" spans="1:6" s="65" customFormat="1">
+    <row r="5" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="63" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D5" s="63">
         <v>1</v>
       </c>
       <c r="E5" s="64"/>
     </row>
-    <row r="6" spans="1:6" s="65" customFormat="1">
+    <row r="6" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="63" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D6" s="63">
         <v>1</v>
       </c>
       <c r="E6" s="64"/>
     </row>
-    <row r="7" spans="1:6" s="65" customFormat="1">
+    <row r="7" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="63" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D7" s="63">
         <v>0.5</v>
@@ -8160,18 +8694,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="65" customFormat="1">
+    <row r="8" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="63" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D8" s="63">
         <v>1</v>
       </c>
       <c r="E8" s="64"/>
     </row>
-    <row r="9" spans="1:6" s="65" customFormat="1">
+    <row r="9" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="63" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D9" s="63">
         <v>1</v>
@@ -8180,36 +8714,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="65" customFormat="1">
+    <row r="10" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="63" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D10" s="63">
         <v>1</v>
       </c>
       <c r="E10" s="64"/>
     </row>
-    <row r="11" spans="1:6" s="65" customFormat="1">
+    <row r="11" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="63" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D11" s="63">
         <v>1</v>
       </c>
       <c r="E11" s="64"/>
     </row>
-    <row r="12" spans="1:6" s="65" customFormat="1">
+    <row r="12" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="63" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D12" s="63">
         <v>2</v>
       </c>
       <c r="E12" s="64"/>
     </row>
-    <row r="13" spans="1:6" s="65" customFormat="1">
+    <row r="13" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="63" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D13" s="63">
         <v>2</v>
@@ -8218,36 +8752,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="65" customFormat="1">
+    <row r="14" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="63" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E14" s="64"/>
     </row>
-    <row r="15" spans="1:6" s="65" customFormat="1">
+    <row r="15" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="63" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D15" s="63">
         <v>1</v>
       </c>
       <c r="E15" s="64"/>
     </row>
-    <row r="16" spans="1:6" s="65" customFormat="1">
+    <row r="16" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="63" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D16" s="63">
         <v>0.5</v>
       </c>
       <c r="E16" s="64"/>
     </row>
-    <row r="17" spans="1:5" s="65" customFormat="1">
+    <row r="17" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="63" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D17" s="63">
         <v>0</v>
@@ -8256,60 +8790,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="65" customFormat="1">
+    <row r="18" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="63" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D18" s="63">
         <v>0.5</v>
       </c>
       <c r="E18" s="64"/>
     </row>
-    <row r="19" spans="1:5" s="65" customFormat="1">
+    <row r="19" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="63" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D19" s="63">
         <v>1</v>
       </c>
       <c r="E19" s="64"/>
     </row>
-    <row r="20" spans="1:5" s="65" customFormat="1">
+    <row r="20" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="63" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D20" s="63">
         <v>1</v>
       </c>
       <c r="E20" s="64"/>
     </row>
-    <row r="21" spans="1:5" s="65" customFormat="1">
+    <row r="21" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="63" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E21" s="64"/>
     </row>
-    <row r="22" spans="1:5" s="65" customFormat="1">
+    <row r="22" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="63" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E22" s="64"/>
     </row>
-    <row r="23" spans="1:5" s="65" customFormat="1">
+    <row r="23" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="63" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D23" s="63">
         <v>1</v>
@@ -8318,22 +8852,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="65" customFormat="1">
+    <row r="24" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="63" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D24" s="63">
         <v>1</v>
       </c>
       <c r="E24" s="64"/>
     </row>
-    <row r="25" spans="1:5" s="65" customFormat="1">
+    <row r="25" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="62" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D25" s="62">
         <v>20.5</v>
@@ -8342,149 +8876,149 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="65" customFormat="1">
+    <row r="26" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64"/>
       <c r="B26" s="63" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D26" s="63">
         <v>1</v>
       </c>
       <c r="E26" s="64"/>
     </row>
-    <row r="27" spans="1:5" s="65" customFormat="1">
+    <row r="27" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="62" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D27" s="62">
         <v>1</v>
       </c>
       <c r="E27" s="62"/>
     </row>
-    <row r="29" spans="1:5" s="60" customFormat="1">
+    <row r="29" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D29" s="56">
         <v>2</v>
       </c>
       <c r="E29" s="56"/>
     </row>
-    <row r="30" spans="1:5" s="60" customFormat="1">
+    <row r="30" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
       <c r="C30" s="56" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D30" s="56">
         <v>2</v>
       </c>
       <c r="E30" s="56"/>
     </row>
-    <row r="31" spans="1:5" s="60" customFormat="1">
+    <row r="31" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="56" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D31" s="56">
         <v>2</v>
       </c>
       <c r="E31" s="56"/>
     </row>
-    <row r="32" spans="1:5" s="60" customFormat="1">
+    <row r="32" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="56"/>
       <c r="C32" s="56" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D32" s="56">
         <v>1</v>
       </c>
       <c r="E32" s="56"/>
     </row>
-    <row r="33" spans="1:8" s="60" customFormat="1">
+    <row r="33" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="56"/>
       <c r="C33" s="56" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D33" s="56">
         <v>2</v>
       </c>
       <c r="E33" s="56"/>
     </row>
-    <row r="34" spans="1:8" s="60" customFormat="1">
+    <row r="34" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D34" s="56">
         <v>1</v>
       </c>
       <c r="E34" s="56"/>
     </row>
-    <row r="35" spans="1:8" s="60" customFormat="1">
+    <row r="35" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
       <c r="C35" s="56" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D35" s="56">
         <v>1</v>
       </c>
       <c r="E35" s="56"/>
     </row>
-    <row r="36" spans="1:8" s="60" customFormat="1">
+    <row r="36" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
       <c r="C36" s="56" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D36" s="56">
         <v>1</v>
       </c>
       <c r="E36" s="56"/>
     </row>
-    <row r="37" spans="1:8" s="60" customFormat="1">
+    <row r="37" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D37" s="56">
         <v>1</v>
       </c>
       <c r="E37" s="56"/>
     </row>
-    <row r="38" spans="1:8" s="60" customFormat="1">
+    <row r="38" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
       <c r="B38" s="56"/>
       <c r="C38" s="56" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D38" s="56">
         <v>0</v>
       </c>
       <c r="E38" s="56"/>
     </row>
-    <row r="39" spans="1:8" s="60" customFormat="1">
+    <row r="39" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
       <c r="B39" s="56"/>
       <c r="C39" s="67" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D39" s="67">
         <v>13</v>
@@ -8493,26 +9027,26 @@
         <v>12</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="60" customFormat="1"/>
-    <row r="41" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="60" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
       <c r="G41" s="57"/>
       <c r="H41" s="57"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="58" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D42" s="58">
         <v>2</v>
@@ -8522,11 +9056,11 @@
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="55"/>
       <c r="C43" s="58" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D43" s="58">
         <v>1</v>
@@ -8536,11 +9070,11 @@
       <c r="G43" s="57"/>
       <c r="H43" s="57"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="55"/>
       <c r="C44" s="58" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D44" s="58">
         <v>1</v>
@@ -8550,11 +9084,11 @@
       <c r="G44" s="57"/>
       <c r="H44" s="57"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
       <c r="B45" s="55"/>
       <c r="C45" s="58" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D45" s="58">
         <v>2</v>
@@ -8564,11 +9098,11 @@
       <c r="G45" s="57"/>
       <c r="H45" s="57"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
       <c r="B46" s="55"/>
       <c r="C46" s="58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D46" s="58">
         <v>1</v>
@@ -8578,11 +9112,11 @@
       <c r="G46" s="57"/>
       <c r="H46" s="57"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="57"/>
       <c r="B47" s="55"/>
       <c r="C47" s="58" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D47" s="58">
         <v>4</v>
@@ -8592,11 +9126,11 @@
       <c r="G47" s="57"/>
       <c r="H47" s="57"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="55"/>
       <c r="C48" s="59" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D48" s="59">
         <v>5</v>
@@ -8606,11 +9140,11 @@
       <c r="G48" s="57"/>
       <c r="H48" s="57"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="57"/>
       <c r="B49" s="55"/>
       <c r="C49" s="59" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D49" s="59">
         <v>4</v>
@@ -8620,27 +9154,27 @@
       <c r="G49" s="57"/>
       <c r="H49" s="57"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="57"/>
       <c r="B50" s="55"/>
       <c r="C50" s="58" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D50" s="58">
         <v>0.5</v>
       </c>
       <c r="E50" s="55"/>
       <c r="F50" s="60" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G50" s="60"/>
       <c r="H50" s="60"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="57"/>
       <c r="B51" s="55"/>
       <c r="C51" s="54" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D51" s="54">
         <v>20.5</v>
@@ -8655,10 +9189,10 @@
       <c r="G51" s="57"/>
       <c r="H51" s="57"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="57"/>
       <c r="B52" s="58" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
@@ -8667,53 +9201,53 @@
       <c r="G52" s="57"/>
       <c r="H52" s="57"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="57"/>
       <c r="B53" s="55"/>
       <c r="C53" s="58" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D53" s="58" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E53" s="55"/>
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="55"/>
       <c r="C54" s="58" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E54" s="55"/>
       <c r="F54" s="57"/>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="57"/>
       <c r="B55" s="55"/>
       <c r="C55" s="58" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E55" s="55"/>
       <c r="F55" s="57"/>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="57"/>
       <c r="B56" s="55"/>
       <c r="C56" s="58" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D56" s="58">
         <v>2</v>
@@ -8723,11 +9257,11 @@
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="57"/>
       <c r="B57" s="55"/>
       <c r="C57" s="58" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D57" s="58">
         <v>2</v>
@@ -8737,11 +9271,11 @@
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="54" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D58" s="54">
         <v>4</v>
@@ -8756,10 +9290,5 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="22880" windowHeight="19660" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="36980" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑2" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="430">
   <si>
     <t>背包</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1470,10 +1470,6 @@
     <t>道具操作界面按钮功能</t>
   </si>
   <si>
-    <t>置灰内容不做后统计时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>总计</t>
     <rPh sb="0" eb="1">
       <t>zong'ji</t>
@@ -1673,9 +1669,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>对局流程-对局成功失败条件判定</t>
   </si>
   <si>
@@ -1759,10 +1752,6 @@
     <rPh sb="4" eb="5">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具链接到相关界面功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1849,7 +1838,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <charset val="161"/>
       </rPr>
       <t>程序开发,</t>
     </r>
@@ -1872,7 +1861,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <charset val="161"/>
       </rPr>
       <t>，QA测试</t>
     </r>
@@ -1892,7 +1881,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <charset val="161"/>
       </rPr>
       <t>程序开发,</t>
     </r>
@@ -1983,7 +1972,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <charset val="161"/>
       </rPr>
       <t>普通难度5*3对局-文档</t>
     </r>
@@ -1998,7 +1987,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <charset val="161"/>
       </rPr>
       <t>5*3对局（音乐-临时资源，音效找旧资源)</t>
     </r>
@@ -2159,12 +2148,42 @@
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>npc释放大招逻辑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具链接到相关界面功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>置灰内容不做后统计时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2308,11 +2327,18 @@
       <sz val="10"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2396,7 +2422,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="158">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2559,8 +2585,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2745,8 +2773,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="158">
+  <cellStyles count="160">
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -2824,6 +2855,7 @@
     <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="157"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -2905,8 +2937,9 @@
     <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -2932,110 +2965,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3491,12 +3420,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E76" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="E11" sqref="E11"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
+      <selection pane="bottomRight" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3960,7 +3889,7 @@
         <v>108</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E16" s="21">
         <v>1</v>
@@ -3969,7 +3898,7 @@
         <v>303</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="s">
@@ -4083,7 +4012,7 @@
         <v>174</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>175</v>
@@ -4166,13 +4095,13 @@
         <v>107</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>170</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J19" s="70" t="s">
         <v>173</v>
@@ -4249,7 +4178,7 @@
         <v>107</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>175</v>
@@ -4258,7 +4187,7 @@
         <v>173</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -4404,7 +4333,7 @@
         <v>107</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>133</v>
@@ -4469,15 +4398,17 @@
       <c r="F23" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>385</v>
+      </c>
       <c r="H23" s="19" t="s">
         <v>115</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>173</v>
@@ -4549,7 +4480,9 @@
       <c r="F24" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>385</v>
+      </c>
       <c r="H24" s="19" t="s">
         <v>115</v>
       </c>
@@ -4627,7 +4560,9 @@
       <c r="F25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>385</v>
+      </c>
       <c r="H25" s="19" t="s">
         <v>115</v>
       </c>
@@ -4635,10 +4570,10 @@
         <v>171</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K25" s="70" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L25" s="70" t="s">
         <v>173</v>
@@ -4708,7 +4643,7 @@
         <v>226</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>241</v>
@@ -4787,18 +4722,20 @@
       <c r="F27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>427</v>
+      </c>
       <c r="H27" s="19" t="s">
         <v>115</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -4863,14 +4800,16 @@
       <c r="F28" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="22" t="s">
+        <v>429</v>
+      </c>
       <c r="H28" s="22"/>
       <c r="I28" s="68" t="s">
         <v>251</v>
       </c>
       <c r="J28" s="9"/>
       <c r="L28" s="22" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="22"/>
@@ -4910,7 +4849,7 @@
         <v>70</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
@@ -4919,7 +4858,7 @@
         <v>107</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>177</v>
@@ -4928,7 +4867,7 @@
         <v>176</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -5000,17 +4939,17 @@
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19">
@@ -5137,7 +5076,9 @@
       <c r="F32" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="73" t="s">
+        <v>428</v>
+      </c>
       <c r="H32" s="19" t="s">
         <v>115</v>
       </c>
@@ -5190,7 +5131,7 @@
         <v>98</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E33" s="21">
         <v>1</v>
@@ -5198,12 +5139,14 @@
       <c r="F33" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G33" s="22"/>
+      <c r="G33" s="22" t="s">
+        <v>385</v>
+      </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="9"/>
       <c r="K33" s="22" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="19"/>
@@ -5250,7 +5193,7 @@
         <v>156</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
@@ -5264,7 +5207,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="22">
@@ -5321,7 +5264,7 @@
         <v>188</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29" t="s">
@@ -5376,14 +5319,16 @@
       <c r="F36" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="G36" s="22"/>
+      <c r="G36" s="35" t="s">
+        <v>382</v>
+      </c>
       <c r="H36" s="29"/>
       <c r="I36" s="22" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="71" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
@@ -5433,7 +5378,7 @@
         <v>205</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
@@ -5489,7 +5434,7 @@
         <v>205</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22" t="s">
@@ -5547,7 +5492,7 @@
         <v>203</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="22" t="s">
@@ -5605,7 +5550,7 @@
         <v>203</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22" t="s">
@@ -5663,7 +5608,7 @@
         <v>203</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
@@ -5720,7 +5665,9 @@
       <c r="F42" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="G42" s="22"/>
+      <c r="G42" s="22" t="s">
+        <v>385</v>
+      </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22" t="s">
         <v>199</v>
@@ -5729,7 +5676,7 @@
         <v>203</v>
       </c>
       <c r="K42" s="72" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L42" s="68"/>
       <c r="M42" s="22"/>
@@ -5779,7 +5726,7 @@
         <v>205</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
@@ -5826,7 +5773,7 @@
         <v>285</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E44" s="22">
         <v>1</v>
@@ -5840,7 +5787,7 @@
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -5888,7 +5835,9 @@
       <c r="F45" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="G45" s="19"/>
+      <c r="G45" s="35" t="s">
+        <v>382</v>
+      </c>
       <c r="H45" s="19" t="s">
         <v>133</v>
       </c>
@@ -5898,7 +5847,7 @@
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="19" t="s">
@@ -5982,7 +5931,9 @@
       <c r="F46" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="G46" s="19"/>
+      <c r="G46" s="35" t="s">
+        <v>382</v>
+      </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19" t="s">
         <v>194</v>
@@ -5992,7 +5943,7 @@
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M46" s="19"/>
       <c r="N46" s="19">
@@ -6053,7 +6004,7 @@
         <v>185</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -6115,7 +6066,7 @@
         <v>185</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -6177,7 +6128,7 @@
         <v>185</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -6239,7 +6190,7 @@
         <v>185</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -6361,7 +6312,7 @@
         <v>189</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H52" s="19" t="s">
         <v>142</v>
@@ -6452,7 +6403,9 @@
       <c r="F53" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G53" s="19"/>
+      <c r="G53" s="19" t="s">
+        <v>411</v>
+      </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19" t="s">
         <v>142</v>
@@ -6461,7 +6414,7 @@
         <v>312</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
@@ -6540,7 +6493,9 @@
       <c r="F54" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="G54" s="19"/>
+      <c r="G54" s="19" t="s">
+        <v>411</v>
+      </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19" t="s">
         <v>115</v>
@@ -6550,7 +6505,7 @@
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="19" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M54" s="19"/>
       <c r="N54" s="19">
@@ -6613,7 +6568,7 @@
         <v>188</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="19" t="s">
@@ -6666,7 +6621,9 @@
       <c r="F56" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="G56" s="29"/>
+      <c r="G56" s="35" t="s">
+        <v>382</v>
+      </c>
       <c r="H56" s="29"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -6715,7 +6672,9 @@
       <c r="F57" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="29"/>
+      <c r="G57" s="35" t="s">
+        <v>382</v>
+      </c>
       <c r="H57" s="29"/>
       <c r="I57" s="19"/>
       <c r="J57" s="29"/>
@@ -6764,7 +6723,7 @@
         <v>190</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H58" s="29"/>
       <c r="I58" s="19"/>
@@ -6813,7 +6772,9 @@
       <c r="F59" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="G59" s="29"/>
+      <c r="G59" s="35" t="s">
+        <v>382</v>
+      </c>
       <c r="H59" s="29"/>
       <c r="I59" s="19"/>
       <c r="J59" s="9"/>
@@ -6862,7 +6823,7 @@
         <v>188</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H60" s="29"/>
       <c r="I60" s="19"/>
@@ -6912,7 +6873,7 @@
         <v>280</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19" t="s">
@@ -6993,7 +6954,7 @@
         <v>185</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H62" s="22" t="s">
         <v>316</v>
@@ -7042,7 +7003,7 @@
         <v>91</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E63" s="29">
         <v>2</v>
@@ -7051,12 +7012,12 @@
         <v>297</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="69"/>
       <c r="J63" s="19" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="9"/>
@@ -7098,7 +7059,7 @@
         <v>91</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E64" s="29">
         <v>2</v>
@@ -7107,12 +7068,12 @@
         <v>297</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="69"/>
       <c r="J64" s="19" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K64" s="19"/>
       <c r="L64" s="9"/>
@@ -7154,7 +7115,7 @@
         <v>91</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E65" s="29">
         <v>2</v>
@@ -7170,7 +7131,7 @@
       </c>
       <c r="K65" s="19"/>
       <c r="L65" s="19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M65" s="19"/>
       <c r="N65" s="19"/>
@@ -7218,7 +7179,9 @@
       <c r="F66" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="G66" s="19"/>
+      <c r="G66" s="19" t="s">
+        <v>427</v>
+      </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="19"/>
@@ -7264,7 +7227,7 @@
         <v>91</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E67" s="29">
         <v>2</v>
@@ -7272,12 +7235,14 @@
       <c r="F67" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="G67" s="19"/>
+      <c r="G67" s="19" t="s">
+        <v>427</v>
+      </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
       <c r="K67" s="19" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L67" s="9"/>
       <c r="M67" s="19"/>
@@ -7327,7 +7292,7 @@
         <v>188</v>
       </c>
       <c r="G68" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -7390,7 +7355,7 @@
         <v>187</v>
       </c>
       <c r="G69" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -7453,7 +7418,7 @@
         <v>185</v>
       </c>
       <c r="G70" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="9"/>
@@ -7541,7 +7506,7 @@
         <v>185</v>
       </c>
       <c r="G71" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H71" s="19"/>
       <c r="J71" s="19" t="s">
@@ -7612,7 +7577,7 @@
         <v>186</v>
       </c>
       <c r="G72" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H72" s="29"/>
       <c r="I72" s="9"/>
@@ -7692,7 +7657,7 @@
         <v>185</v>
       </c>
       <c r="G73" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H73" s="29"/>
       <c r="I73" s="9"/>
@@ -7740,13 +7705,13 @@
         <v>185</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H74" s="36" t="s">
         <v>142</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J74" s="29"/>
       <c r="L74" s="29"/>
@@ -8026,7 +7991,7 @@
         <v>184</v>
       </c>
       <c r="G79" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
@@ -8079,7 +8044,7 @@
         <v>184</v>
       </c>
       <c r="G80" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -8142,7 +8107,7 @@
         <v>183</v>
       </c>
       <c r="G81" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
@@ -8388,84 +8353,84 @@
   </sheetData>
   <autoFilter ref="A14:AR85"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="AH84:AL84 Z84:AE84 AE61:AL71 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B56:H56 I55 I57:I69 J75:L78 I74:J74 B36:D36 F36:G36 H85:AL85 H84:W84 H13:M13 A14:AL14 H52:AO52 J79:Z79 D39 B39:C41 D40:E41 F39:F41 B22:I23 K23:AL23 L22:AL22 J22 K61 B33:I34 P79:P81 H80:AL83 B35:G35 B28:I28 K55:Z60 K33:AL34 M61:AD78 L68:L74 B31:AL32 B30:H30 J30:AL30 B19:H19 J19:AL19 H53:AR53 B17:H17 B15:I16 B52:G53 H55:H79 B20:AL21 B18:I18 K15:AL18 B24:AL27 J55:J57 B29:AL29 L28:AL28 B37:G37 B38:F38 G38:G41 B42:G44 H35:AL44 B45:AR51 J62:K73 D65:G67 B63:C67 B68:G85 E63:G64 B55:G62">
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+  <conditionalFormatting sqref="AH84:AL84 Z84:AE84 AE61:AL71 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B56:H56 I55 I57:I69 J75:L78 I74:J74 B36:D36 H85:AL85 H84:W84 H13:M13 A14:AL14 J79:Z79 D39 B39:C41 D40:E41 F39:F41 K23:AL23 L22:AL22 B22:J22 K61 B33:I34 P79:P81 H80:AL83 B35:G35 B28:I28 K55:Z60 K33:AL34 M61:AD78 L68:L74 B31:AL31 B30:H30 J30:AL30 B19:H19 J19:AL19 H53:AR53 B17:H17 B15:I16 B52:AO52 H55:H79 B20:AL21 B18:I18 K15:AL18 B26:AL27 J55:J57 B29:AL29 L28:AL28 B37:G37 B38:F38 G38:G41 B42:G44 H35:AL44 J62:K73 D65:G67 B63:C67 B68:G85 E63:G64 H24:AL25 H23:I23 B23:G25 B55:G62 B45:AR51 B32:F32 H32:AL32 F36:G36 B53:F53 G53:G54">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P55:P60 P15:P17 P33:P34 P28">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+  <conditionalFormatting sqref="V53:AD53 P53:T53 E53:F53 P55:P60 P15:P17 P33:P34 P28 H53:N53">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V53:AD53 P53:T53 E53:N53 P55:P60 AJ14 AJ18:AJ27 P15:P17 AJ29:AJ32 P33:P34 P28">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+  <conditionalFormatting sqref="V53:AD53 P53:T53 E53:F53 P55:P60 AJ14 AJ18:AJ27 P15:P17 AJ29:AJ32 P33:P34 P28 H53:N53">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36 E39">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:AR54">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+  <conditionalFormatting sqref="B54:F54 H54:AR54">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",P54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D64">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8595,10 +8560,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8610,13 +8575,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>370</v>
-      </c>
       <c r="C1" s="66" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>320</v>
@@ -8630,13 +8595,13 @@
     </row>
     <row r="2" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2" s="63" t="s">
         <v>323</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D2" s="63">
         <v>1</v>
@@ -8647,7 +8612,7 @@
       <c r="A3" s="64"/>
       <c r="B3" s="64"/>
       <c r="C3" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D3" s="63">
         <v>2</v>
@@ -8658,7 +8623,7 @@
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
       <c r="C4" s="63" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D4" s="63">
         <v>1</v>
@@ -8667,7 +8632,7 @@
     </row>
     <row r="5" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="63">
         <v>1</v>
@@ -8676,7 +8641,7 @@
     </row>
     <row r="6" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="63">
         <v>1</v>
@@ -8685,7 +8650,7 @@
     </row>
     <row r="7" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D7" s="63">
         <v>0.5</v>
@@ -8696,7 +8661,7 @@
     </row>
     <row r="8" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D8" s="63">
         <v>1</v>
@@ -8705,7 +8670,7 @@
     </row>
     <row r="9" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D9" s="63">
         <v>1</v>
@@ -8716,7 +8681,7 @@
     </row>
     <row r="10" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D10" s="63">
         <v>1</v>
@@ -8725,7 +8690,7 @@
     </row>
     <row r="11" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D11" s="63">
         <v>1</v>
@@ -8734,7 +8699,7 @@
     </row>
     <row r="12" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D12" s="63">
         <v>2</v>
@@ -8743,7 +8708,7 @@
     </row>
     <row r="13" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D13" s="63">
         <v>2</v>
@@ -8754,16 +8719,16 @@
     </row>
     <row r="14" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" s="63" t="s">
         <v>354</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>355</v>
       </c>
       <c r="E14" s="64"/>
     </row>
     <row r="15" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D15" s="63">
         <v>1</v>
@@ -8772,7 +8737,7 @@
     </row>
     <row r="16" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D16" s="63">
         <v>0.5</v>
@@ -8781,7 +8746,7 @@
     </row>
     <row r="17" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D17" s="63">
         <v>0</v>
@@ -8792,7 +8757,7 @@
     </row>
     <row r="18" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D18" s="63">
         <v>0.5</v>
@@ -8801,7 +8766,7 @@
     </row>
     <row r="19" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D19" s="63">
         <v>1</v>
@@ -8810,7 +8775,7 @@
     </row>
     <row r="20" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="63" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D20" s="63">
         <v>1</v>
@@ -8821,10 +8786,10 @@
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>363</v>
+        <v>361</v>
+      </c>
+      <c r="D21" s="63">
+        <v>1.5</v>
       </c>
       <c r="E21" s="64"/>
     </row>
@@ -8832,10 +8797,10 @@
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="63" t="s">
-        <v>364</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>363</v>
+        <v>362</v>
+      </c>
+      <c r="D22" s="63">
+        <v>0</v>
       </c>
       <c r="E22" s="64"/>
     </row>
@@ -8843,7 +8808,7 @@
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="63" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D23" s="63">
         <v>1</v>
@@ -8856,7 +8821,7 @@
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="63" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D24" s="63">
         <v>1</v>
@@ -8867,22 +8832,24 @@
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D25" s="62">
-        <v>20.5</v>
+        <f>SUM(D2:D24)</f>
+        <v>22</v>
       </c>
       <c r="E25" s="62">
+        <f>SUM(E2:E24)</f>
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64"/>
       <c r="B26" s="63" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D26" s="63">
         <v>1</v>
@@ -8893,7 +8860,7 @@
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D27" s="62">
         <v>1</v>
@@ -8902,13 +8869,13 @@
     </row>
     <row r="29" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B29" s="56" t="s">
         <v>323</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D29" s="56">
         <v>2</v>
@@ -8919,7 +8886,7 @@
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
       <c r="C30" s="56" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D30" s="56">
         <v>2</v>
@@ -8930,7 +8897,7 @@
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="56" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D31" s="56">
         <v>2</v>
@@ -8941,7 +8908,7 @@
       <c r="A32" s="56"/>
       <c r="B32" s="56"/>
       <c r="C32" s="56" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D32" s="56">
         <v>1</v>
@@ -8952,7 +8919,7 @@
       <c r="A33" s="56"/>
       <c r="B33" s="56"/>
       <c r="C33" s="56" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D33" s="56">
         <v>2</v>
@@ -8963,7 +8930,7 @@
       <c r="A34" s="56"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D34" s="56">
         <v>1</v>
@@ -8974,7 +8941,7 @@
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
       <c r="C35" s="56" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D35" s="56">
         <v>1</v>
@@ -8985,7 +8952,7 @@
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
       <c r="C36" s="56" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D36" s="56">
         <v>1</v>
@@ -8996,7 +8963,7 @@
       <c r="A37" s="56"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D37" s="56">
         <v>1</v>
@@ -9007,7 +8974,7 @@
       <c r="A38" s="56"/>
       <c r="B38" s="56"/>
       <c r="C38" s="56" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D38" s="56">
         <v>0</v>
@@ -9017,53 +8984,50 @@
     <row r="39" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
       <c r="B39" s="56"/>
-      <c r="C39" s="67" t="s">
-        <v>333</v>
-      </c>
-      <c r="D39" s="67">
-        <v>13</v>
-      </c>
-      <c r="E39" s="67">
+      <c r="C39" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="D39" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="67">
+        <f>SUM(D29:D39)</f>
+        <v>15</v>
+      </c>
+      <c r="E40" s="67">
         <v>12</v>
       </c>
-      <c r="F39" s="60" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="60" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+      <c r="F40" s="60" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="60" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="D42" s="58">
-        <v>2</v>
-      </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="57"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
-      <c r="B43" s="55"/>
+      <c r="B43" s="58" t="s">
+        <v>323</v>
+      </c>
       <c r="C43" s="58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D43" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="57"/>
@@ -9074,7 +9038,7 @@
       <c r="A44" s="57"/>
       <c r="B44" s="55"/>
       <c r="C44" s="58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D44" s="58">
         <v>1</v>
@@ -9088,10 +9052,10 @@
       <c r="A45" s="57"/>
       <c r="B45" s="55"/>
       <c r="C45" s="58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D45" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="57"/>
@@ -9102,10 +9066,10 @@
       <c r="A46" s="57"/>
       <c r="B46" s="55"/>
       <c r="C46" s="58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D46" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="55"/>
       <c r="F46" s="57"/>
@@ -9116,10 +9080,10 @@
       <c r="A47" s="57"/>
       <c r="B47" s="55"/>
       <c r="C47" s="58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D47" s="58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E47" s="55"/>
       <c r="F47" s="57"/>
@@ -9129,11 +9093,11 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="59" t="s">
-        <v>330</v>
-      </c>
-      <c r="D48" s="59">
-        <v>5</v>
+      <c r="C48" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="D48" s="58">
+        <v>4</v>
       </c>
       <c r="E48" s="55"/>
       <c r="F48" s="57"/>
@@ -9144,10 +9108,10 @@
       <c r="A49" s="57"/>
       <c r="B49" s="55"/>
       <c r="C49" s="59" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="D49" s="59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49" s="55"/>
       <c r="F49" s="57"/>
@@ -9157,59 +9121,60 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="57"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="58" t="s">
-        <v>331</v>
-      </c>
-      <c r="D50" s="58">
-        <v>0.5</v>
+      <c r="C50" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="D50" s="59">
+        <v>4</v>
       </c>
       <c r="E50" s="55"/>
-      <c r="F50" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="57"/>
       <c r="B51" s="55"/>
-      <c r="C51" s="54" t="s">
-        <v>333</v>
-      </c>
-      <c r="D51" s="54">
-        <v>20.5</v>
-      </c>
-      <c r="E51" s="54">
-        <v>12</v>
-      </c>
-      <c r="F51" s="61">
-        <f>SUM(D42:D50)-D49-D48</f>
-        <v>11.5</v>
-      </c>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
+      <c r="C51" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="D51" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="55"/>
+      <c r="F51" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="57"/>
-      <c r="B52" s="58" t="s">
-        <v>334</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="57"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="54">
+        <f>SUM(D43:D51)</f>
+        <v>20.5</v>
+      </c>
+      <c r="E52" s="54">
+        <v>12</v>
+      </c>
+      <c r="F52" s="61">
+        <f>SUM(D43:D51)-D50-D49</f>
+        <v>11.5</v>
+      </c>
       <c r="G52" s="57"/>
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="57"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>336</v>
-      </c>
+      <c r="B53" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="55"/>
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
@@ -9219,10 +9184,10 @@
       <c r="A54" s="57"/>
       <c r="B54" s="55"/>
       <c r="C54" s="58" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E54" s="55"/>
       <c r="F54" s="57"/>
@@ -9233,10 +9198,10 @@
       <c r="A55" s="57"/>
       <c r="B55" s="55"/>
       <c r="C55" s="58" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E55" s="55"/>
       <c r="F55" s="57"/>
@@ -9247,10 +9212,10 @@
       <c r="A56" s="57"/>
       <c r="B56" s="55"/>
       <c r="C56" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="D56" s="58">
-        <v>2</v>
+        <v>337</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>335</v>
       </c>
       <c r="E56" s="55"/>
       <c r="F56" s="57"/>
@@ -9261,7 +9226,7 @@
       <c r="A57" s="57"/>
       <c r="B57" s="55"/>
       <c r="C57" s="58" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D57" s="58">
         <v>2</v>
@@ -9273,19 +9238,38 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="54" t="s">
-        <v>333</v>
-      </c>
-      <c r="D58" s="54">
-        <v>4</v>
-      </c>
-      <c r="E58" s="54">
-        <v>18</v>
-      </c>
+      <c r="B58" s="55"/>
+      <c r="C58" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="D58" s="58">
+        <v>2</v>
+      </c>
+      <c r="E58" s="55"/>
       <c r="F58" s="57"/>
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="54">
+        <v>4</v>
+      </c>
+      <c r="E59" s="54">
+        <v>18</v>
+      </c>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="54" t="s">
+        <v>426</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="36980" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="12660" yWindow="460" windowWidth="25340" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑2" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="G51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>做了，但是副本配置表要拆，还需修改。此外，
+1. 检测扣除：疲劳值没设计，扣除没做
+2. 返回随机种子：副本通信协议已经改变，现在不返回随机种子，而是直接返回对局数据
+3. 结算的验证和评级没有具体设计</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="430">
   <si>
     <t>背包</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1126,10 +1152,6 @@
   </si>
   <si>
     <t>任务系统-服务器任务刷新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本-服务器端基础接口（进本的检测扣除返回随机种子和结算的验证和结果返回）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1838,7 +1860,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="161"/>
+        <charset val="136"/>
       </rPr>
       <t>程序开发,</t>
     </r>
@@ -1861,7 +1883,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="161"/>
+        <charset val="136"/>
       </rPr>
       <t>，QA测试</t>
     </r>
@@ -1881,7 +1903,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="161"/>
+        <charset val="136"/>
       </rPr>
       <t>程序开发,</t>
     </r>
@@ -1972,7 +1994,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="161"/>
+        <charset val="136"/>
       </rPr>
       <t>普通难度5*3对局-文档</t>
     </r>
@@ -1987,7 +2009,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="161"/>
+        <charset val="136"/>
       </rPr>
       <t>5*3对局（音乐-临时资源，音效找旧资源)</t>
     </r>
@@ -2032,13 +2054,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>延期：三方前</t>
     <rPh sb="0" eb="1">
       <t>yan'qi</t>
@@ -2176,14 +2191,25 @@
   </si>
   <si>
     <t>暂停</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <rPh sb="0" eb="1">
+      <t>qu'xiao</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-服务器端基础接口（进本的检测扣除返回随机种子和结算的验证和结果返回）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2300,7 +2326,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2327,7 +2353,7 @@
       <sz val="10"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2339,6 +2365,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2939,7 +2971,35 @@
     <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3417,15 +3477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E76" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3460,7 +3516,7 @@
         <v>261</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="50"/>
@@ -3478,14 +3534,14 @@
         <v>263</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I3" s="49"/>
       <c r="P3" s="7"/>
@@ -3505,10 +3561,10 @@
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I4" s="49"/>
       <c r="P4" s="8"/>
@@ -3526,10 +3582,10 @@
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="I5" s="49"/>
       <c r="P5" s="8"/>
@@ -3547,10 +3603,10 @@
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I6" s="49"/>
       <c r="P6" s="8"/>
@@ -3568,10 +3624,10 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -3586,10 +3642,10 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -3604,10 +3660,10 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -3840,13 +3896,13 @@
         <v>237</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H15" s="68" t="s">
         <v>240</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="22"/>
@@ -3889,20 +3945,20 @@
         <v>108</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E16" s="21">
         <v>1</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="22"/>
@@ -3945,22 +4001,22 @@
         <v>108</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E17" s="21">
         <v>1</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="22"/>
@@ -4012,7 +4068,7 @@
         <v>174</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>175</v>
@@ -4095,13 +4151,13 @@
         <v>107</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>170</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J19" s="70" t="s">
         <v>173</v>
@@ -4178,7 +4234,7 @@
         <v>107</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>175</v>
@@ -4187,7 +4243,7 @@
         <v>173</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -4258,7 +4314,9 @@
       <c r="F21" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>420</v>
+      </c>
       <c r="H21" s="19" t="s">
         <v>225</v>
       </c>
@@ -4333,7 +4391,7 @@
         <v>107</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>133</v>
@@ -4399,16 +4457,16 @@
         <v>107</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>115</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>173</v>
@@ -4481,7 +4539,7 @@
         <v>107</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>115</v>
@@ -4561,7 +4619,7 @@
         <v>107</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>115</v>
@@ -4570,10 +4628,10 @@
         <v>171</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K25" s="70" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L25" s="70" t="s">
         <v>173</v>
@@ -4643,7 +4701,7 @@
         <v>226</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>241</v>
@@ -4675,7 +4733,7 @@
         <v>12</v>
       </c>
       <c r="U26" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
@@ -4714,7 +4772,7 @@
         <v>47</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
@@ -4723,19 +4781,19 @@
         <v>107</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>115</v>
       </c>
       <c r="I27" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="J27" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="J27" s="19" t="s">
-        <v>393</v>
-      </c>
       <c r="K27" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -4800,8 +4858,8 @@
       <c r="F28" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>429</v>
+      <c r="G28" s="35" t="s">
+        <v>427</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="68" t="s">
@@ -4809,7 +4867,7 @@
       </c>
       <c r="J28" s="9"/>
       <c r="L28" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="22"/>
@@ -4849,7 +4907,7 @@
         <v>70</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
@@ -4858,7 +4916,7 @@
         <v>107</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>177</v>
@@ -4867,7 +4925,7 @@
         <v>176</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -4929,7 +4987,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
@@ -4937,19 +4995,21 @@
       <c r="F30" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G30" s="19"/>
+      <c r="G30" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="H30" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19">
@@ -5018,7 +5078,9 @@
       <c r="F31" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="19"/>
+      <c r="G31" s="19" t="s">
+        <v>428</v>
+      </c>
       <c r="H31" s="19" t="s">
         <v>115</v>
       </c>
@@ -5077,7 +5139,7 @@
         <v>109</v>
       </c>
       <c r="G32" s="73" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>115</v>
@@ -5131,7 +5193,7 @@
         <v>98</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E33" s="21">
         <v>1</v>
@@ -5140,13 +5202,13 @@
         <v>236</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="9"/>
       <c r="K33" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="19"/>
@@ -5193,7 +5255,7 @@
         <v>156</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
@@ -5201,13 +5263,15 @@
       <c r="F34" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="G34" s="22"/>
+      <c r="G34" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="9"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="22">
@@ -5264,7 +5328,7 @@
         <v>188</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29" t="s">
@@ -5320,15 +5384,15 @@
         <v>205</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
@@ -5378,7 +5442,7 @@
         <v>205</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
@@ -5434,7 +5498,7 @@
         <v>205</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22" t="s">
@@ -5492,7 +5556,7 @@
         <v>203</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="22" t="s">
@@ -5550,7 +5614,7 @@
         <v>203</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22" t="s">
@@ -5608,7 +5672,7 @@
         <v>203</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
@@ -5666,7 +5730,7 @@
         <v>205</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22" t="s">
@@ -5676,7 +5740,7 @@
         <v>203</v>
       </c>
       <c r="K42" s="72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L42" s="68"/>
       <c r="M42" s="22"/>
@@ -5726,7 +5790,7 @@
         <v>205</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
@@ -5767,13 +5831,13 @@
         <v>30</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>285</v>
-      </c>
       <c r="D44" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E44" s="22">
         <v>1</v>
@@ -5781,13 +5845,15 @@
       <c r="F44" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="G44" s="22"/>
+      <c r="G44" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -5836,7 +5902,7 @@
         <v>190</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H45" s="19" t="s">
         <v>133</v>
@@ -5847,7 +5913,7 @@
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="19" t="s">
@@ -5932,7 +5998,7 @@
         <v>193</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19" t="s">
@@ -5943,7 +6009,7 @@
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M46" s="19"/>
       <c r="N46" s="19">
@@ -6004,7 +6070,7 @@
         <v>185</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -6066,7 +6132,7 @@
         <v>185</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -6128,7 +6194,7 @@
         <v>185</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -6190,7 +6256,7 @@
         <v>185</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -6243,7 +6309,7 @@
         <v>166</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>283</v>
+        <v>429</v>
       </c>
       <c r="E51" s="19">
         <v>2</v>
@@ -6251,7 +6317,9 @@
       <c r="F51" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G51" s="19"/>
+      <c r="G51" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="H51" s="19" t="s">
         <v>165</v>
       </c>
@@ -6311,15 +6379,15 @@
       <c r="F52" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G52" s="19" t="s">
-        <v>411</v>
+      <c r="G52" s="22" t="s">
+        <v>384</v>
       </c>
       <c r="H52" s="19" t="s">
         <v>142</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
@@ -6403,18 +6471,18 @@
       <c r="F53" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G53" s="19" t="s">
-        <v>411</v>
+      <c r="G53" s="22" t="s">
+        <v>384</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19" t="s">
         <v>142</v>
       </c>
       <c r="J53" s="69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
@@ -6493,19 +6561,19 @@
       <c r="F54" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="G54" s="19" t="s">
-        <v>411</v>
+      <c r="G54" s="22" t="s">
+        <v>384</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19" t="s">
         <v>115</v>
       </c>
       <c r="J54" s="69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M54" s="19"/>
       <c r="N54" s="19">
@@ -6567,8 +6635,8 @@
       <c r="F55" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="G55" s="29" t="s">
-        <v>411</v>
+      <c r="G55" s="22" t="s">
+        <v>384</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="19" t="s">
@@ -6622,7 +6690,7 @@
         <v>188</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H56" s="29"/>
       <c r="J56" s="29"/>
@@ -6673,7 +6741,7 @@
         <v>188</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H57" s="29"/>
       <c r="I57" s="19"/>
@@ -6723,7 +6791,7 @@
         <v>190</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H58" s="29"/>
       <c r="I58" s="19"/>
@@ -6773,7 +6841,7 @@
         <v>188</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H59" s="29"/>
       <c r="I59" s="19"/>
@@ -6823,7 +6891,7 @@
         <v>188</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H60" s="29"/>
       <c r="I60" s="19"/>
@@ -6873,7 +6941,7 @@
         <v>280</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19" t="s">
@@ -6954,10 +7022,10 @@
         <v>185</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I62" s="69" t="s">
         <v>164</v>
@@ -7003,21 +7071,21 @@
         <v>91</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E63" s="29">
         <v>2</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="69"/>
       <c r="J63" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="9"/>
@@ -7059,21 +7127,21 @@
         <v>91</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E64" s="29">
         <v>2</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="69"/>
       <c r="J64" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K64" s="19"/>
       <c r="L64" s="9"/>
@@ -7115,7 +7183,7 @@
         <v>91</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E65" s="29">
         <v>2</v>
@@ -7123,7 +7191,9 @@
       <c r="F65" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="G65" s="19"/>
+      <c r="G65" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="69" t="s">
@@ -7131,7 +7201,7 @@
       </c>
       <c r="K65" s="19"/>
       <c r="L65" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M65" s="19"/>
       <c r="N65" s="19"/>
@@ -7180,7 +7250,7 @@
         <v>185</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -7227,7 +7297,7 @@
         <v>91</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E67" s="29">
         <v>2</v>
@@ -7236,13 +7306,13 @@
         <v>185</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
       <c r="K67" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L67" s="9"/>
       <c r="M67" s="19"/>
@@ -7292,7 +7362,7 @@
         <v>188</v>
       </c>
       <c r="G68" s="73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -7355,12 +7425,12 @@
         <v>187</v>
       </c>
       <c r="G69" s="73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K69" s="19"/>
       <c r="L69" s="19"/>
@@ -7418,7 +7488,7 @@
         <v>185</v>
       </c>
       <c r="G70" s="73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="9"/>
@@ -7506,7 +7576,7 @@
         <v>185</v>
       </c>
       <c r="G71" s="73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H71" s="19"/>
       <c r="J71" s="19" t="s">
@@ -7577,7 +7647,7 @@
         <v>186</v>
       </c>
       <c r="G72" s="73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H72" s="29"/>
       <c r="I72" s="9"/>
@@ -7657,7 +7727,7 @@
         <v>185</v>
       </c>
       <c r="G73" s="73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H73" s="29"/>
       <c r="I73" s="9"/>
@@ -7696,7 +7766,7 @@
         <v>94</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E74" s="29">
         <v>2</v>
@@ -7705,13 +7775,13 @@
         <v>185</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H74" s="36" t="s">
         <v>142</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J74" s="29"/>
       <c r="L74" s="29"/>
@@ -7768,7 +7838,7 @@
         <v>120</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E75" s="29">
         <v>2</v>
@@ -7777,7 +7847,7 @@
         <v>185</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H75" s="29" t="s">
         <v>164</v>
@@ -7838,7 +7908,7 @@
         <v>120</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E76" s="29">
         <v>2</v>
@@ -7847,11 +7917,11 @@
         <v>185</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H76" s="29"/>
       <c r="I76" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
@@ -7886,7 +7956,7 @@
         <v>120</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E77" s="29">
         <v>2</v>
@@ -7895,7 +7965,7 @@
         <v>185</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H77" s="29"/>
       <c r="I77" s="29" t="s">
@@ -7943,7 +8013,7 @@
         <v>185</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
@@ -7991,7 +8061,7 @@
         <v>184</v>
       </c>
       <c r="G79" s="73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
@@ -8044,13 +8114,13 @@
         <v>184</v>
       </c>
       <c r="G80" s="73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
@@ -8107,7 +8177,7 @@
         <v>183</v>
       </c>
       <c r="G81" s="73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
@@ -8353,89 +8423,90 @@
   </sheetData>
   <autoFilter ref="A14:AR85"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="AH84:AL84 Z84:AE84 AE61:AL71 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B56:H56 I55 I57:I69 J75:L78 I74:J74 B36:D36 H85:AL85 H84:W84 H13:M13 A14:AL14 J79:Z79 D39 B39:C41 D40:E41 F39:F41 K23:AL23 L22:AL22 B22:J22 K61 B33:I34 P79:P81 H80:AL83 B35:G35 B28:I28 K55:Z60 K33:AL34 M61:AD78 L68:L74 B31:AL31 B30:H30 J30:AL30 B19:H19 J19:AL19 H53:AR53 B17:H17 B15:I16 B52:AO52 H55:H79 B20:AL21 B18:I18 K15:AL18 B26:AL27 J55:J57 B29:AL29 L28:AL28 B37:G37 B38:F38 G38:G41 B42:G44 H35:AL44 J62:K73 D65:G67 B63:C67 B68:G85 E63:G64 H24:AL25 H23:I23 B23:G25 B55:G62 B45:AR51 B32:F32 H32:AL32 F36:G36 B53:F53 G53:G54">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+  <conditionalFormatting sqref="AH84:AL84 Z84:AE84 AE61:AL71 P3:S8 P10:S12 F7:F8 F10:F12 D13 AQ52:AR52 B56:H56 I55 I57:I69 J75:L78 I74:J74 B36:D36 H85:AL85 H84:W84 H13:M13 A14:AL14 J79:Z79 D39 B39:C41 D40:E41 F39:F41 K23:AL23 L22:AL22 B22:J22 K61 B33:I34 P79:P81 H80:AL83 B35:G35 K55:Z60 K33:AL34 M61:AD78 L68:L74 B31:AL31 J30:AL30 B19:H19 J19:AL19 H53:AR53 B17:H17 B15:I16 H55:H79 B18:I18 K15:AL18 B26:AL27 J55:J57 B29:AL29 L28:AL28 B37:G37 B38:F38 G38:G41 H35:AL44 J62:K73 B63:C67 B68:G85 E63:G64 H24:AL25 H23:I23 B23:G25 B56:G62 B45:AR51 B32:F32 H32:AL32 F36:G36 B52:F53 B20:AL21 B28:I28 B30:H30 B42:G44 B55:F55 H52:AO52 G52:G55 D65:G67">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53:AD53 P53:T53 E53:F53 P55:P60 P15:P17 P33:P34 P28 H53:N53">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53:AD53 P53:T53 E53:F53 P55:P60 AJ14 AJ18:AJ27 P15:P17 AJ29:AJ32 P33:P34 P28 H53:N53">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36 E39">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:F54 H54:AR54">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",P54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D64">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8575,33 +8646,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>367</v>
-      </c>
       <c r="D1" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="F1" s="67" t="s">
         <v>321</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="63" t="s">
         <v>340</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>341</v>
       </c>
       <c r="D2" s="63">
         <v>1</v>
@@ -8612,7 +8683,7 @@
       <c r="A3" s="64"/>
       <c r="B3" s="64"/>
       <c r="C3" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D3" s="63">
         <v>2</v>
@@ -8623,7 +8694,7 @@
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
       <c r="C4" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D4" s="63">
         <v>1</v>
@@ -8632,7 +8703,7 @@
     </row>
     <row r="5" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="63" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D5" s="63">
         <v>1</v>
@@ -8641,7 +8712,7 @@
     </row>
     <row r="6" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="63">
         <v>1</v>
@@ -8650,7 +8721,7 @@
     </row>
     <row r="7" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D7" s="63">
         <v>0.5</v>
@@ -8661,7 +8732,7 @@
     </row>
     <row r="8" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D8" s="63">
         <v>1</v>
@@ -8670,7 +8741,7 @@
     </row>
     <row r="9" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D9" s="63">
         <v>1</v>
@@ -8681,7 +8752,7 @@
     </row>
     <row r="10" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D10" s="63">
         <v>1</v>
@@ -8690,7 +8761,7 @@
     </row>
     <row r="11" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D11" s="63">
         <v>1</v>
@@ -8699,7 +8770,7 @@
     </row>
     <row r="12" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D12" s="63">
         <v>2</v>
@@ -8708,7 +8779,7 @@
     </row>
     <row r="13" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D13" s="63">
         <v>2</v>
@@ -8719,16 +8790,16 @@
     </row>
     <row r="14" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14" s="63" t="s">
         <v>353</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>354</v>
       </c>
       <c r="E14" s="64"/>
     </row>
     <row r="15" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D15" s="63">
         <v>1</v>
@@ -8737,7 +8808,7 @@
     </row>
     <row r="16" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D16" s="63">
         <v>0.5</v>
@@ -8746,7 +8817,7 @@
     </row>
     <row r="17" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D17" s="63">
         <v>0</v>
@@ -8757,7 +8828,7 @@
     </row>
     <row r="18" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D18" s="63">
         <v>0.5</v>
@@ -8766,7 +8837,7 @@
     </row>
     <row r="19" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D19" s="63">
         <v>1</v>
@@ -8775,7 +8846,7 @@
     </row>
     <row r="20" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D20" s="63">
         <v>1</v>
@@ -8786,7 +8857,7 @@
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="63" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D21" s="63">
         <v>1.5</v>
@@ -8797,7 +8868,7 @@
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D22" s="63">
         <v>0</v>
@@ -8808,7 +8879,7 @@
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D23" s="63">
         <v>1</v>
@@ -8821,7 +8892,7 @@
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D24" s="63">
         <v>1</v>
@@ -8832,7 +8903,7 @@
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D25" s="62">
         <f>SUM(D2:D24)</f>
@@ -8846,10 +8917,10 @@
     <row r="26" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64"/>
       <c r="B26" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D26" s="63">
         <v>1</v>
@@ -8860,7 +8931,7 @@
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D27" s="62">
         <v>1</v>
@@ -8869,13 +8940,13 @@
     </row>
     <row r="29" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" s="56" t="s">
         <v>369</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>370</v>
       </c>
       <c r="D29" s="56">
         <v>2</v>
@@ -8886,7 +8957,7 @@
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
       <c r="C30" s="56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D30" s="56">
         <v>2</v>
@@ -8897,7 +8968,7 @@
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D31" s="56">
         <v>2</v>
@@ -8908,7 +8979,7 @@
       <c r="A32" s="56"/>
       <c r="B32" s="56"/>
       <c r="C32" s="56" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D32" s="56">
         <v>1</v>
@@ -8919,7 +8990,7 @@
       <c r="A33" s="56"/>
       <c r="B33" s="56"/>
       <c r="C33" s="56" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D33" s="56">
         <v>2</v>
@@ -8930,7 +9001,7 @@
       <c r="A34" s="56"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D34" s="56">
         <v>1</v>
@@ -8941,7 +9012,7 @@
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
       <c r="C35" s="56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D35" s="56">
         <v>1</v>
@@ -8952,7 +9023,7 @@
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
       <c r="C36" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D36" s="56">
         <v>1</v>
@@ -8963,7 +9034,7 @@
       <c r="A37" s="56"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D37" s="56">
         <v>1</v>
@@ -8974,7 +9045,7 @@
       <c r="A38" s="56"/>
       <c r="B38" s="56"/>
       <c r="C38" s="56" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D38" s="56">
         <v>0</v>
@@ -8985,7 +9056,7 @@
       <c r="A39" s="56"/>
       <c r="B39" s="56"/>
       <c r="C39" s="74" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D39" s="60">
         <v>2</v>
@@ -8995,7 +9066,7 @@
       <c r="A40" s="56"/>
       <c r="B40" s="56"/>
       <c r="C40" s="67" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D40" s="67">
         <f>SUM(D29:D39)</f>
@@ -9005,13 +9076,13 @@
         <v>12</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="60" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -9021,10 +9092,10 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="C43" s="58" t="s">
         <v>323</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>324</v>
       </c>
       <c r="D43" s="58">
         <v>2</v>
@@ -9038,7 +9109,7 @@
       <c r="A44" s="57"/>
       <c r="B44" s="55"/>
       <c r="C44" s="58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D44" s="58">
         <v>1</v>
@@ -9052,7 +9123,7 @@
       <c r="A45" s="57"/>
       <c r="B45" s="55"/>
       <c r="C45" s="58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D45" s="58">
         <v>1</v>
@@ -9066,7 +9137,7 @@
       <c r="A46" s="57"/>
       <c r="B46" s="55"/>
       <c r="C46" s="58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D46" s="58">
         <v>2</v>
@@ -9080,7 +9151,7 @@
       <c r="A47" s="57"/>
       <c r="B47" s="55"/>
       <c r="C47" s="58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D47" s="58">
         <v>1</v>
@@ -9094,7 +9165,7 @@
       <c r="A48" s="57"/>
       <c r="B48" s="55"/>
       <c r="C48" s="58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D48" s="58">
         <v>4</v>
@@ -9108,7 +9179,7 @@
       <c r="A49" s="57"/>
       <c r="B49" s="55"/>
       <c r="C49" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D49" s="59">
         <v>5</v>
@@ -9122,7 +9193,7 @@
       <c r="A50" s="57"/>
       <c r="B50" s="55"/>
       <c r="C50" s="59" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D50" s="59">
         <v>4</v>
@@ -9136,14 +9207,14 @@
       <c r="A51" s="57"/>
       <c r="B51" s="55"/>
       <c r="C51" s="58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D51" s="58">
         <v>0.5</v>
       </c>
       <c r="E51" s="55"/>
       <c r="F51" s="60" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G51" s="60"/>
       <c r="H51" s="60"/>
@@ -9152,7 +9223,7 @@
       <c r="A52" s="57"/>
       <c r="B52" s="55"/>
       <c r="C52" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D52" s="54">
         <f>SUM(D43:D51)</f>
@@ -9171,7 +9242,7 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="57"/>
       <c r="B53" s="58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
@@ -9184,10 +9255,10 @@
       <c r="A54" s="57"/>
       <c r="B54" s="55"/>
       <c r="C54" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="D54" s="58" t="s">
         <v>334</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>335</v>
       </c>
       <c r="E54" s="55"/>
       <c r="F54" s="57"/>
@@ -9198,10 +9269,10 @@
       <c r="A55" s="57"/>
       <c r="B55" s="55"/>
       <c r="C55" s="58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E55" s="55"/>
       <c r="F55" s="57"/>
@@ -9212,10 +9283,10 @@
       <c r="A56" s="57"/>
       <c r="B56" s="55"/>
       <c r="C56" s="58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E56" s="55"/>
       <c r="F56" s="57"/>
@@ -9226,7 +9297,7 @@
       <c r="A57" s="57"/>
       <c r="B57" s="55"/>
       <c r="C57" s="58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D57" s="58">
         <v>2</v>
@@ -9240,7 +9311,7 @@
       <c r="A58" s="57"/>
       <c r="B58" s="55"/>
       <c r="C58" s="58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D58" s="58">
         <v>2</v>
@@ -9254,7 +9325,7 @@
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D59" s="54">
         <v>4</v>
@@ -9268,7 +9339,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
